--- a/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="2168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="2168">
   <si>
     <t xml:space="preserve">Not Metered</t>
   </si>
@@ -6628,7 +6628,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6674,6 +6674,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6863,9 +6867,9 @@
   <dimension ref="A1:F187"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D107" activeCellId="0" sqref="D107:D109"/>
+      <selection pane="bottomLeft" activeCell="C113" activeCellId="0" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7532,10 +7536,19 @@
       <c r="A112" s="1" t="s">
         <v>117</v>
       </c>
+      <c r="B112" s="12" t="n">
+        <v>45591</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>118</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7927,7 +7940,7 @@
   <dimension ref="A1:A1975"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1939" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="1" sqref="D107:D109 F22"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Menaion_Vespers_notmetered" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="1867">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="1868">
   <si>
     <t xml:space="preserve">Not Metered</t>
   </si>
@@ -5445,6 +5445,9 @@
   </si>
   <si>
     <t xml:space="preserve"> me.m12.d11_en_US_dedes.meMA.ExapTheotokion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dedes</t>
   </si>
   <si>
     <t xml:space="preserve"> me.m12.d17_en_US_oca.meMA.Exaposteilarion1</t>
@@ -5678,7 +5681,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5694,31 +5697,25 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFE6E905"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFB66C"/>
-        <bgColor rgb="FFFFBF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6E905"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFA6"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDBB6"/>
-        <bgColor rgb="FFFFFFA6"/>
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8CE"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
@@ -5756,7 +5753,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5797,6 +5794,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5805,48 +5806,36 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -5874,7 +5863,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -5883,10 +5872,10 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFE6E905"/>
+      <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
@@ -5895,11 +5884,11 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFFA6"/>
+      <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFFB66C"/>
+      <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFDBB6"/>
+      <rgbColor rgb="FFFFD8CE"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -6034,10 +6023,10 @@
   </sheetPr>
   <dimension ref="A1:G1674"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A1460" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A1592" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D1490" activeCellId="0" sqref="D1490"/>
+      <selection pane="bottomLeft" activeCell="A1671" activeCellId="0" sqref="A1671"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6073,14 +6062,14 @@
       </c>
       <c r="D2" s="5" t="n">
         <f aca="false">SUM(D3:D1674)</f>
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">1672-D2</f>
-        <v>1637</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13380,6 +13369,7 @@
       <c r="C1458" s="9" t="s">
         <v>744</v>
       </c>
+      <c r="D1458" s="10"/>
       <c r="E1458" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13389,9 +13379,11 @@
       <c r="A1459" s="1" t="s">
         <v>1465</v>
       </c>
+      <c r="B1459" s="10"/>
       <c r="C1459" s="9" t="s">
         <v>744</v>
       </c>
+      <c r="D1459" s="10"/>
       <c r="E1459" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13401,6 +13393,7 @@
       <c r="A1460" s="1" t="s">
         <v>1466</v>
       </c>
+      <c r="B1460" s="10"/>
       <c r="C1460" s="9" t="s">
         <v>744</v>
       </c>
@@ -13416,12 +13409,13 @@
       <c r="A1461" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="B1461" s="10" t="n">
+      <c r="B1461" s="11" t="n">
         <v>45596</v>
       </c>
-      <c r="C1461" s="11" t="s">
+      <c r="C1461" s="12" t="s">
         <v>744</v>
       </c>
+      <c r="D1461" s="13"/>
       <c r="E1461" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13430,9 +13424,11 @@
       <c r="A1462" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="C1462" s="11" t="s">
+      <c r="B1462" s="13"/>
+      <c r="C1462" s="12" t="s">
         <v>744</v>
       </c>
+      <c r="D1462" s="13"/>
       <c r="E1462" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13441,9 +13437,11 @@
       <c r="A1463" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="C1463" s="12" t="s">
+      <c r="B1463" s="13"/>
+      <c r="C1463" s="14" t="s">
         <v>744</v>
       </c>
+      <c r="D1463" s="13"/>
       <c r="E1463" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13452,9 +13450,11 @@
       <c r="A1464" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="C1464" s="12" t="s">
+      <c r="B1464" s="13"/>
+      <c r="C1464" s="14" t="s">
         <v>744</v>
       </c>
+      <c r="D1464" s="13"/>
       <c r="E1464" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13463,9 +13463,11 @@
       <c r="A1465" s="1" t="s">
         <v>1471</v>
       </c>
-      <c r="C1465" s="12" t="s">
+      <c r="B1465" s="13"/>
+      <c r="C1465" s="14" t="s">
         <v>744</v>
       </c>
+      <c r="D1465" s="13"/>
       <c r="E1465" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13474,10 +13476,11 @@
       <c r="A1466" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="C1466" s="12" t="s">
+      <c r="B1466" s="13"/>
+      <c r="C1466" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="D1466" s="13"/>
+      <c r="D1466" s="14"/>
       <c r="E1466" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13486,10 +13489,11 @@
       <c r="A1467" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="C1467" s="12" t="s">
+      <c r="B1467" s="13"/>
+      <c r="C1467" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="D1467" s="13"/>
+      <c r="D1467" s="14"/>
       <c r="E1467" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13498,10 +13502,11 @@
       <c r="A1468" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="C1468" s="12" t="s">
+      <c r="B1468" s="13"/>
+      <c r="C1468" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="D1468" s="12" t="n">
+      <c r="D1468" s="14" t="n">
         <v>8</v>
       </c>
       <c r="E1468" s="2" t="s">
@@ -13512,13 +13517,13 @@
       <c r="A1469" s="1" t="s">
         <v>1475</v>
       </c>
-      <c r="B1469" s="14" t="n">
+      <c r="B1469" s="8" t="n">
         <v>45597</v>
       </c>
-      <c r="C1469" s="15" t="s">
+      <c r="C1469" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="D1469" s="1"/>
+      <c r="D1469" s="15"/>
       <c r="E1469" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13527,9 +13532,11 @@
       <c r="A1470" s="1" t="s">
         <v>1476</v>
       </c>
-      <c r="C1470" s="15" t="s">
+      <c r="B1470" s="10"/>
+      <c r="C1470" s="9" t="s">
         <v>744</v>
       </c>
+      <c r="D1470" s="10"/>
       <c r="E1470" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13538,9 +13545,11 @@
       <c r="A1471" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="C1471" s="15" t="s">
+      <c r="B1471" s="10"/>
+      <c r="C1471" s="9" t="s">
         <v>744</v>
       </c>
+      <c r="D1471" s="10"/>
       <c r="E1471" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13549,9 +13558,11 @@
       <c r="A1472" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="C1472" s="15" t="s">
+      <c r="B1472" s="10"/>
+      <c r="C1472" s="9" t="s">
         <v>744</v>
       </c>
+      <c r="D1472" s="10"/>
       <c r="E1472" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13560,9 +13571,11 @@
       <c r="A1473" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="C1473" s="15" t="s">
+      <c r="B1473" s="10"/>
+      <c r="C1473" s="9" t="s">
         <v>744</v>
       </c>
+      <c r="D1473" s="10"/>
       <c r="E1473" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13571,10 +13584,11 @@
       <c r="A1474" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="C1474" s="15" t="s">
+      <c r="B1474" s="10"/>
+      <c r="C1474" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="D1474" s="15" t="n">
+      <c r="D1474" s="9" t="n">
         <v>6</v>
       </c>
       <c r="E1474" s="2" t="s">
@@ -13585,12 +13599,13 @@
       <c r="A1475" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="B1475" s="10" t="n">
+      <c r="B1475" s="11" t="n">
         <v>45599</v>
       </c>
-      <c r="C1475" s="11" t="s">
+      <c r="C1475" s="12" t="s">
         <v>744</v>
       </c>
+      <c r="D1475" s="13"/>
       <c r="E1475" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13599,9 +13614,11 @@
       <c r="A1476" s="1" t="s">
         <v>1482</v>
       </c>
-      <c r="C1476" s="11" t="s">
+      <c r="B1476" s="13"/>
+      <c r="C1476" s="12" t="s">
         <v>744</v>
       </c>
+      <c r="D1476" s="13"/>
       <c r="E1476" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13610,10 +13627,11 @@
       <c r="A1477" s="1" t="s">
         <v>1483</v>
       </c>
-      <c r="C1477" s="11" t="s">
+      <c r="B1477" s="13"/>
+      <c r="C1477" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="D1477" s="11" t="n">
+      <c r="D1477" s="12" t="n">
         <v>3</v>
       </c>
       <c r="E1477" s="2" t="s">
@@ -13624,12 +13642,13 @@
       <c r="A1478" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="B1478" s="14" t="n">
+      <c r="B1478" s="8" t="n">
         <v>45597</v>
       </c>
-      <c r="C1478" s="15" t="s">
+      <c r="C1478" s="9" t="s">
         <v>744</v>
       </c>
+      <c r="D1478" s="10"/>
       <c r="E1478" s="2" t="s">
         <v>1464</v>
       </c>
@@ -13638,10 +13657,11 @@
       <c r="A1479" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="C1479" s="15" t="s">
+      <c r="B1479" s="10"/>
+      <c r="C1479" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="D1479" s="15" t="n">
+      <c r="D1479" s="9" t="n">
         <v>2</v>
       </c>
       <c r="E1479" s="2" t="s">
@@ -13652,13 +13672,13 @@
       <c r="A1480" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="B1480" s="10" t="n">
+      <c r="B1480" s="11" t="n">
         <v>45598</v>
       </c>
-      <c r="C1480" s="11" t="s">
+      <c r="C1480" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="D1480" s="11" t="n">
+      <c r="D1480" s="12" t="n">
         <v>1</v>
       </c>
       <c r="E1480" s="2" t="s">
@@ -13675,476 +13695,1079 @@
       <c r="C1481" s="9" t="s">
         <v>744</v>
       </c>
+      <c r="D1481" s="10"/>
+      <c r="E1481" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1482" s="1" t="s">
         <v>1488</v>
       </c>
+      <c r="B1482" s="10"/>
       <c r="C1482" s="9" t="s">
         <v>744</v>
+      </c>
+      <c r="D1482" s="10"/>
+      <c r="E1482" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="1483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1483" s="1" t="s">
         <v>1489</v>
       </c>
+      <c r="B1483" s="10"/>
       <c r="C1483" s="9" t="s">
         <v>744</v>
+      </c>
+      <c r="D1483" s="10"/>
+      <c r="E1483" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="1484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1484" s="1" t="s">
         <v>1490</v>
       </c>
+      <c r="B1484" s="10"/>
       <c r="C1484" s="9" t="s">
         <v>744</v>
+      </c>
+      <c r="D1484" s="10"/>
+      <c r="E1484" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="1485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1485" s="1" t="s">
         <v>1491</v>
       </c>
+      <c r="B1485" s="10"/>
       <c r="C1485" s="9" t="s">
         <v>744</v>
+      </c>
+      <c r="D1485" s="10"/>
+      <c r="E1485" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="1486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1486" s="1" t="s">
         <v>1492</v>
       </c>
+      <c r="B1486" s="10"/>
       <c r="C1486" s="9" t="s">
         <v>744</v>
+      </c>
+      <c r="D1486" s="10"/>
+      <c r="E1486" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="1487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1487" s="1" t="s">
         <v>1493</v>
       </c>
+      <c r="B1487" s="10"/>
       <c r="C1487" s="9" t="s">
         <v>744</v>
+      </c>
+      <c r="D1487" s="10"/>
+      <c r="E1487" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="1488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1488" s="1" t="s">
         <v>1494</v>
       </c>
+      <c r="B1488" s="10"/>
       <c r="C1488" s="9" t="s">
         <v>744</v>
+      </c>
+      <c r="D1488" s="10"/>
+      <c r="E1488" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="1489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1489" s="1" t="s">
         <v>1495</v>
       </c>
+      <c r="B1489" s="10"/>
       <c r="C1489" s="9" t="s">
         <v>744</v>
+      </c>
+      <c r="D1489" s="10"/>
+      <c r="E1489" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="1490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1490" s="1" t="s">
         <v>1496</v>
       </c>
+      <c r="B1490" s="10"/>
       <c r="C1490" s="9" t="s">
         <v>744</v>
       </c>
       <c r="D1490" s="9" t="n">
         <v>10</v>
+      </c>
+      <c r="E1490" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="1491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1491" s="1" t="s">
         <v>1497</v>
       </c>
+      <c r="B1491" s="11" t="n">
+        <v>45601</v>
+      </c>
+      <c r="C1491" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1491" s="13"/>
+      <c r="E1491" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1492" s="1" t="s">
         <v>1498</v>
       </c>
+      <c r="B1492" s="13"/>
+      <c r="C1492" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1492" s="13"/>
+      <c r="E1492" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1493" s="1" t="s">
         <v>1499</v>
       </c>
+      <c r="B1493" s="13"/>
+      <c r="C1493" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1493" s="13"/>
+      <c r="E1493" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1494" s="1" t="s">
         <v>1500</v>
       </c>
+      <c r="B1494" s="13"/>
+      <c r="C1494" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1494" s="13"/>
+      <c r="E1494" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1495" s="1" t="s">
         <v>1501</v>
       </c>
+      <c r="B1495" s="13"/>
+      <c r="C1495" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1495" s="13"/>
+      <c r="E1495" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1496" s="1" t="s">
         <v>1502</v>
       </c>
+      <c r="B1496" s="13"/>
+      <c r="C1496" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1496" s="12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1496" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1497" s="1" t="s">
         <v>1503</v>
       </c>
+      <c r="B1497" s="16" t="n">
+        <v>45602</v>
+      </c>
+      <c r="C1497" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1497" s="9"/>
+      <c r="E1497" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1498" s="1" t="s">
         <v>1504</v>
       </c>
+      <c r="B1498" s="9"/>
+      <c r="C1498" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1498" s="9"/>
+      <c r="E1498" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1499" s="1" t="s">
         <v>1505</v>
       </c>
+      <c r="B1499" s="9"/>
+      <c r="C1499" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1499" s="9"/>
+      <c r="E1499" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1500" s="1" t="s">
         <v>1506</v>
       </c>
+      <c r="B1500" s="9"/>
+      <c r="C1500" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1500" s="9"/>
+      <c r="E1500" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1501" s="1" t="s">
         <v>1507</v>
       </c>
+      <c r="B1501" s="9"/>
+      <c r="C1501" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1501" s="9"/>
+      <c r="E1501" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1502" s="1" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="1503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1503" s="1" t="s">
+      <c r="B1502" s="9"/>
+      <c r="C1502" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1502" s="9"/>
+      <c r="E1502" s="2" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1503" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1503" s="17" t="s">
         <v>1509</v>
       </c>
-    </row>
-    <row r="1504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1504" s="1" t="s">
+      <c r="B1503" s="9"/>
+      <c r="C1503" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1503" s="9"/>
+      <c r="E1503" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G1503" s="2"/>
+    </row>
+    <row r="1504" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1504" s="17" t="s">
         <v>1510</v>
       </c>
-    </row>
-    <row r="1505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1505" s="1" t="s">
+      <c r="B1504" s="9"/>
+      <c r="C1504" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1504" s="9"/>
+      <c r="E1504" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G1504" s="2"/>
+    </row>
+    <row r="1505" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1505" s="17" t="s">
         <v>1511</v>
       </c>
-    </row>
-    <row r="1506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1506" s="1" t="s">
+      <c r="B1505" s="9"/>
+      <c r="C1505" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1505" s="9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1505" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G1505" s="2"/>
+    </row>
+    <row r="1506" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1506" s="17" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="1507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1507" s="1" t="s">
+      <c r="B1506" s="11" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C1506" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1506" s="13"/>
+      <c r="E1506" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G1506" s="2"/>
+    </row>
+    <row r="1507" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1507" s="17" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="1508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1508" s="1" t="s">
+      <c r="B1507" s="13"/>
+      <c r="C1507" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1507" s="13"/>
+      <c r="E1507" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G1507" s="2"/>
+    </row>
+    <row r="1508" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1508" s="17" t="s">
         <v>1514</v>
       </c>
+      <c r="B1508" s="13"/>
+      <c r="C1508" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1508" s="13"/>
+      <c r="E1508" s="2" t="s">
+        <v>1464</v>
+      </c>
+      <c r="G1508" s="2"/>
     </row>
     <row r="1509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1509" s="1" t="s">
         <v>1515</v>
       </c>
+      <c r="B1509" s="13"/>
+      <c r="C1509" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1509" s="13"/>
+      <c r="E1509" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1510" s="1" t="s">
         <v>1516</v>
       </c>
+      <c r="B1510" s="13"/>
+      <c r="C1510" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1510" s="13"/>
+      <c r="E1510" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1511" s="1" t="s">
         <v>1517</v>
       </c>
+      <c r="B1511" s="13"/>
+      <c r="C1511" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1511" s="13"/>
+      <c r="E1511" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1512" s="1" t="s">
         <v>1518</v>
       </c>
+      <c r="B1512" s="13"/>
+      <c r="C1512" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1512" s="13"/>
+      <c r="E1512" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1513" s="1" t="s">
         <v>1519</v>
       </c>
+      <c r="B1513" s="13"/>
+      <c r="C1513" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1513" s="13"/>
+      <c r="E1513" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1514" s="1" t="s">
         <v>1520</v>
       </c>
+      <c r="B1514" s="13"/>
+      <c r="C1514" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1514" s="13"/>
+      <c r="E1514" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1515" s="1" t="s">
         <v>1521</v>
       </c>
+      <c r="B1515" s="13"/>
+      <c r="C1515" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1515" s="13"/>
+      <c r="E1515" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1516" s="1" t="s">
         <v>1522</v>
       </c>
+      <c r="B1516" s="13"/>
+      <c r="C1516" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1516" s="13"/>
+      <c r="E1516" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1517" s="1" t="s">
         <v>1523</v>
       </c>
+      <c r="B1517" s="13"/>
+      <c r="C1517" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1517" s="13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E1517" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1518" s="1" t="s">
+      <c r="A1518" s="18" t="s">
         <v>1524</v>
       </c>
+      <c r="B1518" s="8" t="n">
+        <v>45604</v>
+      </c>
+      <c r="C1518" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1518" s="10"/>
+      <c r="E1518" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1519" s="1" t="s">
+      <c r="A1519" s="18" t="s">
         <v>1525</v>
       </c>
+      <c r="B1519" s="10"/>
+      <c r="C1519" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1519" s="10"/>
+      <c r="E1519" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1520" s="1" t="s">
+      <c r="A1520" s="18" t="s">
         <v>1526</v>
       </c>
+      <c r="B1520" s="10"/>
+      <c r="C1520" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1520" s="10"/>
+      <c r="E1520" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1521" s="1" t="s">
+      <c r="A1521" s="18" t="s">
         <v>1527</v>
       </c>
+      <c r="B1521" s="10"/>
+      <c r="C1521" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1521" s="10"/>
+      <c r="E1521" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1522" s="1" t="s">
+      <c r="A1522" s="18" t="s">
         <v>1528</v>
       </c>
+      <c r="B1522" s="10"/>
+      <c r="C1522" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1522" s="10"/>
+      <c r="E1522" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1523" s="1" t="s">
+      <c r="A1523" s="18" t="s">
         <v>1529</v>
       </c>
+      <c r="B1523" s="10"/>
+      <c r="C1523" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1523" s="10"/>
+      <c r="E1523" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1524" s="1" t="s">
+      <c r="A1524" s="18" t="s">
         <v>1530</v>
       </c>
+      <c r="B1524" s="10"/>
+      <c r="C1524" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1524" s="10"/>
+      <c r="E1524" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1525" s="1" t="s">
+      <c r="A1525" s="18" t="s">
         <v>1531</v>
       </c>
+      <c r="B1525" s="10"/>
+      <c r="C1525" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1525" s="10"/>
+      <c r="E1525" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1526" s="1" t="s">
+      <c r="A1526" s="18" t="s">
         <v>1532</v>
+      </c>
+      <c r="B1526" s="10"/>
+      <c r="C1526" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1526" s="10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E1526" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="1527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1527" s="1" t="s">
         <v>1533</v>
       </c>
+      <c r="B1527" s="11" t="n">
+        <v>45606</v>
+      </c>
+      <c r="C1527" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1527" s="12"/>
+      <c r="E1527" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1528" s="1" t="s">
         <v>1534</v>
       </c>
+      <c r="B1528" s="12"/>
+      <c r="C1528" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1528" s="12"/>
+      <c r="E1528" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1529" s="1" t="s">
         <v>1535</v>
       </c>
+      <c r="B1529" s="12"/>
+      <c r="C1529" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1529" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1529" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1530" s="1" t="s">
         <v>1536</v>
       </c>
+      <c r="B1530" s="8" t="n">
+        <v>45604</v>
+      </c>
+      <c r="C1530" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1530" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1530" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1531" s="1" t="s">
         <v>1537</v>
       </c>
+      <c r="B1531" s="11" t="n">
+        <v>45605</v>
+      </c>
+      <c r="C1531" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1531" s="12"/>
+      <c r="E1531" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1532" s="1" t="s">
         <v>1538</v>
       </c>
+      <c r="B1532" s="12"/>
+      <c r="C1532" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1532" s="12"/>
+      <c r="E1532" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1533" s="1" t="s">
         <v>1539</v>
       </c>
+      <c r="B1533" s="12"/>
+      <c r="C1533" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1533" s="12"/>
+      <c r="E1533" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1534" s="1" t="s">
         <v>1540</v>
       </c>
+      <c r="B1534" s="12"/>
+      <c r="C1534" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1534" s="12"/>
+      <c r="E1534" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1535" s="1" t="s">
         <v>1541</v>
       </c>
+      <c r="B1535" s="12"/>
+      <c r="C1535" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1535" s="12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1535" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1536" s="1" t="s">
+      <c r="A1536" s="18" t="s">
         <v>1542</v>
       </c>
+      <c r="B1536" s="8" t="n">
+        <v>45607</v>
+      </c>
+      <c r="C1536" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1536" s="9"/>
+      <c r="E1536" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1537" s="1" t="s">
+      <c r="A1537" s="18" t="s">
         <v>1543</v>
       </c>
+      <c r="B1537" s="15"/>
+      <c r="C1537" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1537" s="9"/>
+      <c r="E1537" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1538" s="1" t="s">
+      <c r="A1538" s="18" t="s">
         <v>1544</v>
       </c>
+      <c r="B1538" s="9"/>
+      <c r="C1538" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1538" s="9"/>
+      <c r="E1538" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1539" s="1" t="s">
+      <c r="A1539" s="18" t="s">
         <v>1545</v>
       </c>
+      <c r="B1539" s="9"/>
+      <c r="C1539" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1539" s="9"/>
+      <c r="E1539" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1540" s="1" t="s">
+      <c r="A1540" s="18" t="s">
         <v>1546</v>
       </c>
+      <c r="B1540" s="9"/>
+      <c r="C1540" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1540" s="9"/>
+      <c r="E1540" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1541" s="1" t="s">
+      <c r="A1541" s="18" t="s">
         <v>1547</v>
+      </c>
+      <c r="B1541" s="9"/>
+      <c r="C1541" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1541" s="9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1541" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="1542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1542" s="1" t="s">
         <v>1548</v>
       </c>
+      <c r="B1542" s="11" t="n">
+        <v>45608</v>
+      </c>
+      <c r="C1542" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1542" s="12"/>
     </row>
     <row r="1543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1543" s="1" t="s">
         <v>1549</v>
       </c>
+      <c r="B1543" s="12"/>
+      <c r="C1543" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1543" s="12"/>
     </row>
     <row r="1544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1544" s="1" t="s">
         <v>1550</v>
       </c>
+      <c r="B1544" s="12"/>
+      <c r="C1544" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1544" s="12"/>
     </row>
     <row r="1545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1545" s="1" t="s">
+      <c r="A1545" s="18" t="s">
         <v>1551</v>
       </c>
+      <c r="B1545" s="12"/>
+      <c r="C1545" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1545" s="12"/>
     </row>
     <row r="1546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1546" s="1" t="s">
+      <c r="A1546" s="18" t="s">
         <v>1552</v>
       </c>
+      <c r="B1546" s="12"/>
+      <c r="C1546" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1546" s="12"/>
     </row>
     <row r="1547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1547" s="1" t="s">
+      <c r="A1547" s="18" t="s">
         <v>1553</v>
+      </c>
+      <c r="B1547" s="12"/>
+      <c r="C1547" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1547" s="12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="1548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1548" s="1" t="s">
         <v>1554</v>
       </c>
+      <c r="B1548" s="8" t="n">
+        <v>45609</v>
+      </c>
+      <c r="C1548" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1548" s="9"/>
     </row>
     <row r="1549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1549" s="1" t="s">
         <v>1555</v>
       </c>
+      <c r="B1549" s="9"/>
+      <c r="C1549" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1549" s="9"/>
     </row>
     <row r="1550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1550" s="1" t="s">
         <v>1556</v>
       </c>
+      <c r="B1550" s="9"/>
+      <c r="C1550" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1550" s="9" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1551" s="1" t="s">
+      <c r="A1551" s="18" t="s">
         <v>1557</v>
       </c>
+      <c r="B1551" s="11" t="n">
+        <v>45610</v>
+      </c>
+      <c r="C1551" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1551" s="12"/>
     </row>
     <row r="1552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1552" s="1" t="s">
+      <c r="A1552" s="18" t="s">
         <v>1558</v>
       </c>
+      <c r="B1552" s="12"/>
+      <c r="C1552" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1552" s="12"/>
     </row>
     <row r="1553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1553" s="1" t="s">
+      <c r="A1553" s="18" t="s">
         <v>1559</v>
       </c>
+      <c r="B1553" s="12"/>
+      <c r="C1553" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1553" s="12"/>
     </row>
     <row r="1554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1554" s="1" t="s">
+      <c r="A1554" s="18" t="s">
         <v>1560</v>
       </c>
+      <c r="B1554" s="12"/>
+      <c r="C1554" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1554" s="12"/>
     </row>
     <row r="1555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1555" s="1" t="s">
+      <c r="A1555" s="18" t="s">
         <v>1561</v>
+      </c>
+      <c r="B1555" s="12"/>
+      <c r="C1555" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1555" s="12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="1556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1556" s="1" t="s">
         <v>1562</v>
       </c>
+      <c r="B1556" s="19"/>
     </row>
     <row r="1557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1557" s="1" t="s">
         <v>1563</v>
       </c>
+      <c r="B1557" s="19"/>
     </row>
     <row r="1558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1558" s="1" t="s">
         <v>1564</v>
       </c>
+      <c r="B1558" s="19"/>
     </row>
     <row r="1559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1559" s="1" t="s">
         <v>1565</v>
       </c>
+      <c r="B1559" s="19"/>
     </row>
     <row r="1560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1560" s="1" t="s">
         <v>1566</v>
       </c>
+      <c r="B1560" s="19"/>
     </row>
     <row r="1561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1561" s="1" t="s">
         <v>1567</v>
       </c>
+      <c r="B1561" s="11" t="n">
+        <v>45614</v>
+      </c>
+      <c r="C1561" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1561" s="12"/>
     </row>
     <row r="1562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1562" s="1" t="s">
         <v>1568</v>
       </c>
+      <c r="B1562" s="12"/>
+      <c r="C1562" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1562" s="12"/>
     </row>
     <row r="1563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1563" s="1" t="s">
         <v>1569</v>
       </c>
+      <c r="B1563" s="12"/>
+      <c r="C1563" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1563" s="12" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="1564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1564" s="1" t="s">
+      <c r="A1564" s="18" t="s">
         <v>1570</v>
       </c>
     </row>
     <row r="1565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1565" s="1" t="s">
+      <c r="A1565" s="18" t="s">
         <v>1571</v>
       </c>
     </row>
     <row r="1566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1566" s="1" t="s">
+      <c r="A1566" s="18" t="s">
         <v>1572</v>
       </c>
     </row>
     <row r="1567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1567" s="1" t="s">
+      <c r="A1567" s="18" t="s">
         <v>1573</v>
       </c>
+      <c r="B1567" s="19"/>
     </row>
     <row r="1568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1568" s="1" t="s">
+      <c r="A1568" s="18" t="s">
         <v>1574</v>
       </c>
+      <c r="B1568" s="19"/>
     </row>
     <row r="1569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1569" s="1" t="s">
+      <c r="A1569" s="18" t="s">
         <v>1575</v>
       </c>
+      <c r="B1569" s="19"/>
     </row>
     <row r="1570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1570" s="1" t="s">
@@ -14177,17 +14800,17 @@
       </c>
     </row>
     <row r="1576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1576" s="1" t="s">
+      <c r="A1576" s="18" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="1577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1577" s="1" t="s">
+      <c r="A1577" s="18" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="1578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1578" s="1" t="s">
+      <c r="A1578" s="18" t="s">
         <v>1584</v>
       </c>
     </row>
@@ -14207,17 +14830,17 @@
       </c>
     </row>
     <row r="1582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1582" s="1" t="s">
+      <c r="A1582" s="18" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="1583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1583" s="1" t="s">
+      <c r="A1583" s="18" t="s">
         <v>1589</v>
       </c>
     </row>
     <row r="1584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1584" s="1" t="s">
+      <c r="A1584" s="18" t="s">
         <v>1590</v>
       </c>
     </row>
@@ -14267,32 +14890,32 @@
       </c>
     </row>
     <row r="1594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1594" s="1" t="s">
+      <c r="A1594" s="18" t="s">
         <v>1600</v>
       </c>
     </row>
     <row r="1595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1595" s="1" t="s">
+      <c r="A1595" s="18" t="s">
         <v>1601</v>
       </c>
     </row>
     <row r="1596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1596" s="1" t="s">
+      <c r="A1596" s="18" t="s">
         <v>1602</v>
       </c>
     </row>
     <row r="1597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1597" s="1" t="s">
+      <c r="A1597" s="18" t="s">
         <v>1603</v>
       </c>
     </row>
     <row r="1598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1598" s="1" t="s">
+      <c r="A1598" s="18" t="s">
         <v>1604</v>
       </c>
     </row>
     <row r="1599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1599" s="1" t="s">
+      <c r="A1599" s="18" t="s">
         <v>1605</v>
       </c>
     </row>
@@ -14322,82 +14945,82 @@
       </c>
     </row>
     <row r="1605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1605" s="1" t="s">
+      <c r="A1605" s="18" t="s">
         <v>1611</v>
       </c>
     </row>
     <row r="1606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1606" s="1" t="s">
+      <c r="A1606" s="18" t="s">
         <v>1612</v>
       </c>
     </row>
     <row r="1607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1607" s="1" t="s">
+      <c r="A1607" s="18" t="s">
         <v>1613</v>
       </c>
     </row>
     <row r="1608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1608" s="1" t="s">
+      <c r="A1608" s="18" t="s">
         <v>1614</v>
       </c>
     </row>
     <row r="1609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1609" s="1" t="s">
+      <c r="A1609" s="18" t="s">
         <v>1615</v>
       </c>
     </row>
     <row r="1610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1610" s="1" t="s">
+      <c r="A1610" s="18" t="s">
         <v>1616</v>
       </c>
     </row>
     <row r="1611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1611" s="1" t="s">
+      <c r="A1611" s="18" t="s">
         <v>1617</v>
       </c>
     </row>
     <row r="1612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1612" s="1" t="s">
+      <c r="A1612" s="18" t="s">
         <v>1618</v>
       </c>
     </row>
     <row r="1613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1613" s="1" t="s">
+      <c r="A1613" s="18" t="s">
         <v>1619</v>
       </c>
     </row>
     <row r="1614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1614" s="1" t="s">
+      <c r="A1614" s="18" t="s">
         <v>1620</v>
       </c>
     </row>
     <row r="1615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1615" s="1" t="s">
+      <c r="A1615" s="18" t="s">
         <v>1621</v>
       </c>
     </row>
     <row r="1616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1616" s="1" t="s">
+      <c r="A1616" s="18" t="s">
         <v>1622</v>
       </c>
     </row>
     <row r="1617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1617" s="1" t="s">
+      <c r="A1617" s="18" t="s">
         <v>1623</v>
       </c>
     </row>
     <row r="1618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1618" s="1" t="s">
+      <c r="A1618" s="18" t="s">
         <v>1624</v>
       </c>
     </row>
     <row r="1619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1619" s="1" t="s">
+      <c r="A1619" s="18" t="s">
         <v>1625</v>
       </c>
     </row>
     <row r="1620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1620" s="1" t="s">
+      <c r="A1620" s="18" t="s">
         <v>1626</v>
       </c>
     </row>
@@ -14417,17 +15040,17 @@
       </c>
     </row>
     <row r="1624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1624" s="1" t="s">
+      <c r="A1624" s="18" t="s">
         <v>1630</v>
       </c>
     </row>
     <row r="1625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1625" s="1" t="s">
+      <c r="A1625" s="18" t="s">
         <v>1631</v>
       </c>
     </row>
     <row r="1626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1626" s="1" t="s">
+      <c r="A1626" s="18" t="s">
         <v>1632</v>
       </c>
     </row>
@@ -14442,47 +15065,47 @@
       </c>
     </row>
     <row r="1629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1629" s="1" t="s">
+      <c r="A1629" s="18" t="s">
         <v>1635</v>
       </c>
     </row>
     <row r="1630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1630" s="1" t="s">
+      <c r="A1630" s="18" t="s">
         <v>1636</v>
       </c>
     </row>
     <row r="1631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1631" s="1" t="s">
+      <c r="A1631" s="18" t="s">
         <v>1637</v>
       </c>
     </row>
     <row r="1632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1632" s="1" t="s">
+      <c r="A1632" s="18" t="s">
         <v>1638</v>
       </c>
     </row>
     <row r="1633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1633" s="1" t="s">
+      <c r="A1633" s="18" t="s">
         <v>1639</v>
       </c>
     </row>
     <row r="1634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1634" s="1" t="s">
+      <c r="A1634" s="18" t="s">
         <v>1640</v>
       </c>
     </row>
     <row r="1635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1635" s="1" t="s">
+      <c r="A1635" s="18" t="s">
         <v>1641</v>
       </c>
     </row>
     <row r="1636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1636" s="1" t="s">
+      <c r="A1636" s="18" t="s">
         <v>1642</v>
       </c>
     </row>
     <row r="1637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1637" s="1" t="s">
+      <c r="A1637" s="18" t="s">
         <v>1643</v>
       </c>
     </row>
@@ -14490,89 +15113,98 @@
       <c r="A1638" s="1" t="s">
         <v>1644</v>
       </c>
+      <c r="B1638" s="19"/>
     </row>
     <row r="1639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1639" s="1" t="s">
         <v>1645</v>
       </c>
+      <c r="B1639" s="19"/>
     </row>
     <row r="1640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1640" s="1" t="s">
         <v>1646</v>
       </c>
+      <c r="B1640" s="19"/>
     </row>
     <row r="1641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1641" s="1" t="s">
         <v>1647</v>
       </c>
+      <c r="B1641" s="19"/>
     </row>
     <row r="1642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1642" s="1" t="s">
         <v>1648</v>
       </c>
+      <c r="B1642" s="19"/>
     </row>
     <row r="1643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1643" s="1" t="s">
         <v>1649</v>
       </c>
+      <c r="B1643" s="19"/>
     </row>
     <row r="1644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1644" s="1" t="s">
         <v>1650</v>
       </c>
+      <c r="B1644" s="19"/>
     </row>
     <row r="1645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1645" s="1" t="s">
         <v>1651</v>
       </c>
+      <c r="B1645" s="19"/>
     </row>
     <row r="1646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1646" s="1" t="s">
         <v>1652</v>
       </c>
+      <c r="B1646" s="19"/>
     </row>
     <row r="1647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1647" s="1" t="s">
+      <c r="A1647" s="18" t="s">
         <v>1653</v>
       </c>
     </row>
     <row r="1648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1648" s="1" t="s">
+      <c r="A1648" s="18" t="s">
         <v>1654</v>
       </c>
     </row>
     <row r="1649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1649" s="1" t="s">
+      <c r="A1649" s="18" t="s">
         <v>1655</v>
       </c>
     </row>
     <row r="1650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1650" s="1" t="s">
+      <c r="A1650" s="18" t="s">
         <v>1656</v>
       </c>
     </row>
     <row r="1651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1651" s="1" t="s">
+      <c r="A1651" s="18" t="s">
         <v>1657</v>
       </c>
     </row>
     <row r="1652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1652" s="1" t="s">
+      <c r="A1652" s="18" t="s">
         <v>1658</v>
       </c>
     </row>
     <row r="1653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1653" s="1" t="s">
+      <c r="A1653" s="18" t="s">
         <v>1659</v>
       </c>
     </row>
     <row r="1654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1654" s="1" t="s">
+      <c r="A1654" s="18" t="s">
         <v>1660</v>
       </c>
     </row>
     <row r="1655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1655" s="1" t="s">
+      <c r="A1655" s="18" t="s">
         <v>1661</v>
       </c>
     </row>
@@ -14622,17 +15254,17 @@
       </c>
     </row>
     <row r="1665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1665" s="1" t="s">
+      <c r="A1665" s="18" t="s">
         <v>1671</v>
       </c>
     </row>
     <row r="1666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1666" s="1" t="s">
+      <c r="A1666" s="18" t="s">
         <v>1672</v>
       </c>
     </row>
     <row r="1667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1667" s="1" t="s">
+      <c r="A1667" s="18" t="s">
         <v>1673</v>
       </c>
     </row>
@@ -14652,22 +15284,22 @@
       </c>
     </row>
     <row r="1671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1671" s="1" t="s">
+      <c r="A1671" s="18" t="s">
         <v>1677</v>
       </c>
     </row>
     <row r="1672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1672" s="1" t="s">
+      <c r="A1672" s="18" t="s">
         <v>1678</v>
       </c>
     </row>
     <row r="1673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1673" s="1" t="s">
+      <c r="A1673" s="18" t="s">
         <v>1679</v>
       </c>
     </row>
     <row r="1674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1674" s="1" t="s">
+      <c r="A1674" s="18" t="s">
         <v>1680</v>
       </c>
     </row>
@@ -14689,10 +15321,10 @@
   </sheetPr>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E105" activeCellId="0" sqref="E105"/>
+      <selection pane="bottomLeft" activeCell="B137" activeCellId="0" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14723,19 +15355,19 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="n">
         <f aca="false">SUM(D3:D187)</f>
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1681</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">185-D2</f>
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15187,12 +15819,13 @@
       <c r="A92" s="1" t="s">
         <v>1771</v>
       </c>
-      <c r="B92" s="17" t="n">
+      <c r="B92" s="8" t="n">
         <v>45589</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="C92" s="9" t="s">
         <v>744</v>
       </c>
+      <c r="D92" s="9"/>
       <c r="E92" s="2" t="s">
         <v>1464</v>
       </c>
@@ -15201,9 +15834,11 @@
       <c r="A93" s="1" t="s">
         <v>1772</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="B93" s="9"/>
+      <c r="C93" s="9" t="s">
         <v>744</v>
       </c>
+      <c r="D93" s="9"/>
       <c r="E93" s="2" t="s">
         <v>1464</v>
       </c>
@@ -15212,153 +15847,240 @@
       <c r="A94" s="1" t="s">
         <v>1773</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="B94" s="9"/>
+      <c r="C94" s="9" t="s">
         <v>744</v>
+      </c>
+      <c r="D94" s="9"/>
+      <c r="E94" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>1774</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="B95" s="9"/>
+      <c r="C95" s="9" t="s">
         <v>744</v>
+      </c>
+      <c r="D95" s="9"/>
+      <c r="E95" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>1775</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="B96" s="9"/>
+      <c r="C96" s="9" t="s">
         <v>744</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>1776</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="B97" s="9"/>
+      <c r="C97" s="9" t="s">
         <v>744</v>
+      </c>
+      <c r="D97" s="9"/>
+      <c r="E97" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>1777</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="B98" s="9"/>
+      <c r="C98" s="9" t="s">
         <v>744</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>1778</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="B99" s="9"/>
+      <c r="C99" s="9" t="s">
         <v>744</v>
+      </c>
+      <c r="D99" s="9"/>
+      <c r="E99" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>1779</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="B100" s="9"/>
+      <c r="C100" s="9" t="s">
         <v>744</v>
       </c>
-      <c r="D100" s="18" t="n">
+      <c r="D100" s="9" t="n">
         <v>9</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>1780</v>
       </c>
-      <c r="B101" s="19" t="n">
+      <c r="B101" s="11" t="n">
         <v>45590</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="C101" s="12" t="s">
         <v>744</v>
+      </c>
+      <c r="D101" s="13"/>
+      <c r="E101" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
         <v>1781</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="B102" s="13"/>
+      <c r="C102" s="12" t="s">
         <v>744</v>
+      </c>
+      <c r="D102" s="13"/>
+      <c r="E102" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>1782</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="B103" s="13"/>
+      <c r="C103" s="12" t="s">
         <v>744</v>
+      </c>
+      <c r="D103" s="13"/>
+      <c r="E103" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>1783</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="B104" s="13"/>
+      <c r="C104" s="12" t="s">
         <v>744</v>
+      </c>
+      <c r="D104" s="13"/>
+      <c r="E104" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>1784</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="B105" s="13"/>
+      <c r="C105" s="12" t="s">
         <v>744</v>
+      </c>
+      <c r="D105" s="13"/>
+      <c r="E105" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>1785</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="B106" s="13"/>
+      <c r="C106" s="12" t="s">
         <v>744</v>
+      </c>
+      <c r="D106" s="13"/>
+      <c r="E106" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>1786</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="B107" s="13"/>
+      <c r="C107" s="12" t="s">
         <v>744</v>
+      </c>
+      <c r="D107" s="13"/>
+      <c r="E107" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>1787</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="B108" s="13"/>
+      <c r="C108" s="12" t="s">
         <v>744</v>
+      </c>
+      <c r="D108" s="13"/>
+      <c r="E108" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>1788</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="B109" s="13"/>
+      <c r="C109" s="12" t="s">
         <v>744</v>
+      </c>
+      <c r="D109" s="13"/>
+      <c r="E109" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>1789</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="B110" s="13"/>
+      <c r="C110" s="12" t="s">
         <v>744</v>
+      </c>
+      <c r="D110" s="13"/>
+      <c r="E110" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>1790</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="B111" s="13"/>
+      <c r="C111" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="D111" s="20" t="n">
+      <c r="D111" s="12" t="n">
         <v>11</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15371,404 +16093,504 @@
       <c r="C112" s="9" t="s">
         <v>744</v>
       </c>
+      <c r="D112" s="9"/>
+      <c r="E112" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>1792</v>
       </c>
+      <c r="B113" s="9"/>
       <c r="C113" s="9" t="s">
         <v>744</v>
       </c>
       <c r="D113" s="9" t="n">
         <v>2</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>1793</v>
       </c>
-      <c r="B114" s="21" t="n">
+      <c r="B114" s="11" t="n">
         <v>45595</v>
       </c>
-      <c r="C114" s="22" t="s">
+      <c r="C114" s="12" t="s">
         <v>744</v>
+      </c>
+      <c r="D114" s="13"/>
+      <c r="E114" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>1794</v>
       </c>
-      <c r="C115" s="22" t="s">
+      <c r="B115" s="13"/>
+      <c r="C115" s="12" t="s">
         <v>744</v>
+      </c>
+      <c r="D115" s="13"/>
+      <c r="E115" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>1795</v>
       </c>
-      <c r="C116" s="22" t="s">
+      <c r="B116" s="13"/>
+      <c r="C116" s="12" t="s">
         <v>744</v>
+      </c>
+      <c r="D116" s="13"/>
+      <c r="E116" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>1796</v>
       </c>
-      <c r="C117" s="22" t="s">
+      <c r="B117" s="13"/>
+      <c r="C117" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="D117" s="22" t="n">
+      <c r="D117" s="12" t="n">
         <v>4</v>
       </c>
+      <c r="E117" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="17" t="s">
         <v>1797</v>
       </c>
+      <c r="B118" s="11" t="n">
+        <v>45609</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D118" s="13"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="17" t="s">
         <v>1798</v>
       </c>
+      <c r="B119" s="13"/>
+      <c r="C119" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D119" s="13"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="17" t="s">
         <v>1799</v>
+      </c>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D120" s="13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>1800</v>
       </c>
+      <c r="B121" s="8" t="n">
+        <v>45611</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D121" s="9"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>1801</v>
       </c>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D122" s="9" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="17" t="s">
         <v>1802</v>
       </c>
+      <c r="B123" s="19"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="17" t="s">
         <v>1803</v>
       </c>
+      <c r="B124" s="19"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>1804</v>
       </c>
+      <c r="B125" s="8" t="n">
+        <v>45614</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D125" s="9"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
         <v>1805</v>
       </c>
+      <c r="B126" s="9"/>
+      <c r="C126" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D126" s="9"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="17" t="s">
         <v>1806</v>
       </c>
+      <c r="B127" s="9"/>
+      <c r="C127" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D127" s="9"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="17" t="s">
         <v>1807</v>
+      </c>
+      <c r="B128" s="9"/>
+      <c r="C128" s="9" t="s">
+        <v>1808</v>
+      </c>
+      <c r="D128" s="9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>1815</v>
-      </c>
+        <v>1816</v>
+      </c>
+      <c r="B136" s="19"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>1816</v>
-      </c>
+        <v>1817</v>
+      </c>
+      <c r="B137" s="19"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="1" t="s">
-        <v>1817</v>
+      <c r="A138" s="17" t="s">
+        <v>1818</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
-        <v>1818</v>
+      <c r="A139" s="17" t="s">
+        <v>1819</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="1" t="s">
-        <v>1819</v>
+      <c r="A140" s="17" t="s">
+        <v>1820</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
-        <v>1820</v>
+      <c r="A141" s="17" t="s">
+        <v>1821</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
-        <v>1821</v>
+      <c r="A142" s="17" t="s">
+        <v>1822</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
-        <v>1822</v>
+      <c r="A143" s="17" t="s">
+        <v>1823</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="s">
-        <v>1823</v>
+      <c r="A144" s="17" t="s">
+        <v>1824</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
-        <v>1824</v>
+      <c r="A145" s="17" t="s">
+        <v>1825</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="s">
-        <v>1825</v>
+      <c r="A146" s="17" t="s">
+        <v>1826</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="s">
-        <v>1834</v>
-      </c>
+      <c r="A155" s="17" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B155" s="19"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="s">
-        <v>1835</v>
-      </c>
+      <c r="A156" s="17" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B156" s="19"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
-        <v>1836</v>
-      </c>
+      <c r="A157" s="17" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B157" s="19"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="s">
-        <v>1837</v>
-      </c>
+      <c r="A158" s="17" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B158" s="19"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="s">
-        <v>1838</v>
-      </c>
+      <c r="A159" s="17" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B159" s="19"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="s">
-        <v>1839</v>
-      </c>
+      <c r="A160" s="17" t="s">
+        <v>1840</v>
+      </c>
+      <c r="B160" s="19"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="s">
-        <v>1840</v>
-      </c>
+      <c r="A161" s="17" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B161" s="19"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="s">
-        <v>1841</v>
-      </c>
+      <c r="A162" s="17" t="s">
+        <v>1842</v>
+      </c>
+      <c r="B162" s="19"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="s">
-        <v>1852</v>
+      <c r="A173" s="17" t="s">
+        <v>1853</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="s">
-        <v>1853</v>
+      <c r="A174" s="17" t="s">
+        <v>1854</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="s">
-        <v>1854</v>
+      <c r="A175" s="17" t="s">
+        <v>1855</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="s">
-        <v>1855</v>
+      <c r="A176" s="17" t="s">
+        <v>1856</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="s">
-        <v>1857</v>
-      </c>
+      <c r="A178" s="17" t="s">
+        <v>1858</v>
+      </c>
+      <c r="B178" s="19"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="s">
-        <v>1858</v>
-      </c>
+      <c r="A179" s="17" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B179" s="19"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="s">
-        <v>1859</v>
-      </c>
+      <c r="A180" s="17" t="s">
+        <v>1860</v>
+      </c>
+      <c r="B180" s="19"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="s">
-        <v>1860</v>
-      </c>
+      <c r="A181" s="17" t="s">
+        <v>1861</v>
+      </c>
+      <c r="B181" s="19"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="s">
-        <v>1861</v>
-      </c>
+      <c r="A182" s="17" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B182" s="19"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
     </row>
   </sheetData>

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Menaion_Vespers_notmetered" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="1868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="1868">
   <si>
     <t xml:space="preserve">Not Metered</t>
   </si>
@@ -6023,10 +6023,10 @@
   </sheetPr>
   <dimension ref="A1:G1674"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A1592" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A1561" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1671" activeCellId="0" sqref="A1671"/>
+      <selection pane="bottomLeft" activeCell="D1574" activeCellId="0" sqref="D1574"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6062,14 +6062,14 @@
       </c>
       <c r="D2" s="5" t="n">
         <f aca="false">SUM(D3:D1674)</f>
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">1672-D2</f>
-        <v>1569</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14732,24 +14732,35 @@
       <c r="C1563" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="D1563" s="12" t="n">
-        <v>3</v>
-      </c>
+      <c r="D1563" s="12"/>
     </row>
     <row r="1564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1564" s="18" t="s">
         <v>1570</v>
       </c>
+      <c r="B1564" s="13"/>
+      <c r="C1564" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1564" s="13"/>
     </row>
     <row r="1565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1565" s="18" t="s">
         <v>1571</v>
       </c>
+      <c r="B1565" s="13"/>
+      <c r="C1565" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1565" s="13" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="1566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1566" s="18" t="s">
         <v>1572</v>
       </c>
+      <c r="B1566" s="19"/>
     </row>
     <row r="1567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1567" s="18" t="s">
@@ -14788,6 +14799,15 @@
       <c r="A1573" s="1" t="s">
         <v>1579</v>
       </c>
+      <c r="B1573" s="8" t="n">
+        <v>45615</v>
+      </c>
+      <c r="C1573" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1573" s="9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1574" s="1" t="s">
@@ -15257,50 +15277,112 @@
       <c r="A1665" s="18" t="s">
         <v>1671</v>
       </c>
+      <c r="B1665" s="8" t="n">
+        <v>45615</v>
+      </c>
+      <c r="C1665" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1665" s="10"/>
     </row>
     <row r="1666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1666" s="18" t="s">
         <v>1672</v>
       </c>
+      <c r="B1666" s="10"/>
+      <c r="C1666" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1666" s="10"/>
     </row>
     <row r="1667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1667" s="18" t="s">
         <v>1673</v>
       </c>
+      <c r="B1667" s="10"/>
+      <c r="C1667" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1667" s="10"/>
     </row>
     <row r="1668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1668" s="1" t="s">
         <v>1674</v>
       </c>
+      <c r="B1668" s="8"/>
+      <c r="C1668" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1668" s="10"/>
     </row>
     <row r="1669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1669" s="1" t="s">
         <v>1675</v>
       </c>
+      <c r="B1669" s="10"/>
+      <c r="C1669" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1669" s="10"/>
     </row>
     <row r="1670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1670" s="1" t="s">
         <v>1676</v>
       </c>
+      <c r="B1670" s="10"/>
+      <c r="C1670" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1670" s="10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="1671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1671" s="18" t="s">
         <v>1677</v>
       </c>
+      <c r="B1671" s="11" t="n">
+        <v>45614</v>
+      </c>
+      <c r="C1671" s="13" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1671" s="13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1672" s="18" t="s">
         <v>1678</v>
       </c>
+      <c r="B1672" s="8" t="n">
+        <v>45615</v>
+      </c>
+      <c r="C1672" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1672" s="10"/>
     </row>
     <row r="1673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1673" s="18" t="s">
         <v>1679</v>
       </c>
+      <c r="B1673" s="10"/>
+      <c r="C1673" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1673" s="10"/>
     </row>
     <row r="1674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1674" s="18" t="s">
         <v>1680</v>
+      </c>
+      <c r="B1674" s="10"/>
+      <c r="C1674" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1674" s="10" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -15321,10 +15403,10 @@
   </sheetPr>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B137" activeCellId="0" sqref="B137"/>
+      <selection pane="bottomLeft" activeCell="D130" activeCellId="0" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15360,14 +15442,14 @@
       </c>
       <c r="D2" s="5" t="n">
         <f aca="false">SUM(D3:D187)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>1681</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">185-D2</f>
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16279,13 +16361,18 @@
       <c r="C128" s="9" t="s">
         <v>1808</v>
       </c>
-      <c r="D128" s="9" t="n">
-        <v>4</v>
-      </c>
+      <c r="D128" s="9"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
         <v>1809</v>
+      </c>
+      <c r="B129" s="10"/>
+      <c r="C129" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D129" s="10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Menaion_Vespers_notmetered" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2133" uniqueCount="1868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2187" uniqueCount="1868">
   <si>
     <t xml:space="preserve">Not Metered</t>
   </si>
@@ -5753,7 +5753,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5831,6 +5831,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6023,10 +6027,10 @@
   </sheetPr>
   <dimension ref="A1:G1674"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A1561" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A1563" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D1574" activeCellId="0" sqref="D1574"/>
+      <selection pane="bottomLeft" activeCell="E1588" activeCellId="1" sqref="E125:E129 E1588"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6062,14 +6066,14 @@
       </c>
       <c r="D2" s="5" t="n">
         <f aca="false">SUM(D3:D1674)</f>
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">1672-D2</f>
-        <v>1556</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14531,6 +14535,9 @@
         <v>744</v>
       </c>
       <c r="D1542" s="12"/>
+      <c r="E1542" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1543" s="1" t="s">
@@ -14541,6 +14548,9 @@
         <v>744</v>
       </c>
       <c r="D1543" s="12"/>
+      <c r="E1543" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1544" s="1" t="s">
@@ -14551,6 +14561,9 @@
         <v>744</v>
       </c>
       <c r="D1544" s="12"/>
+      <c r="E1544" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1545" s="18" t="s">
@@ -14561,6 +14574,9 @@
         <v>744</v>
       </c>
       <c r="D1545" s="12"/>
+      <c r="E1545" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1546" s="18" t="s">
@@ -14571,6 +14587,9 @@
         <v>744</v>
       </c>
       <c r="D1546" s="12"/>
+      <c r="E1546" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1547" s="18" t="s">
@@ -14583,6 +14602,9 @@
       <c r="D1547" s="12" t="n">
         <v>6</v>
       </c>
+      <c r="E1547" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1548" s="1" t="s">
@@ -14595,6 +14617,9 @@
         <v>744</v>
       </c>
       <c r="D1548" s="9"/>
+      <c r="E1548" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1549" s="1" t="s">
@@ -14605,6 +14630,9 @@
         <v>744</v>
       </c>
       <c r="D1549" s="9"/>
+      <c r="E1549" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1550" s="1" t="s">
@@ -14617,6 +14645,9 @@
       <c r="D1550" s="9" t="n">
         <v>3</v>
       </c>
+      <c r="E1550" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1551" s="18" t="s">
@@ -14629,6 +14660,9 @@
         <v>744</v>
       </c>
       <c r="D1551" s="12"/>
+      <c r="E1551" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1552" s="18" t="s">
@@ -14639,6 +14673,9 @@
         <v>744</v>
       </c>
       <c r="D1552" s="12"/>
+      <c r="E1552" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1553" s="18" t="s">
@@ -14649,6 +14686,9 @@
         <v>744</v>
       </c>
       <c r="D1553" s="12"/>
+      <c r="E1553" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1554" s="18" t="s">
@@ -14659,6 +14699,9 @@
         <v>744</v>
       </c>
       <c r="D1554" s="12"/>
+      <c r="E1554" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1555" s="18" t="s">
@@ -14671,6 +14714,9 @@
       <c r="D1555" s="12" t="n">
         <v>5</v>
       </c>
+      <c r="E1555" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1556" s="1" t="s">
@@ -14713,6 +14759,9 @@
         <v>744</v>
       </c>
       <c r="D1561" s="12"/>
+      <c r="E1561" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1562" s="1" t="s">
@@ -14723,6 +14772,9 @@
         <v>744</v>
       </c>
       <c r="D1562" s="12"/>
+      <c r="E1562" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1563" s="1" t="s">
@@ -14733,6 +14785,9 @@
         <v>744</v>
       </c>
       <c r="D1563" s="12"/>
+      <c r="E1563" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1564" s="18" t="s">
@@ -14743,6 +14798,9 @@
         <v>744</v>
       </c>
       <c r="D1564" s="13"/>
+      <c r="E1564" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1565" s="18" t="s">
@@ -14755,6 +14813,9 @@
       <c r="D1565" s="13" t="n">
         <v>5</v>
       </c>
+      <c r="E1565" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1566" s="18" t="s">
@@ -14784,16 +14845,44 @@
       <c r="A1570" s="1" t="s">
         <v>1576</v>
       </c>
+      <c r="B1570" s="11" t="n">
+        <v>45616</v>
+      </c>
+      <c r="C1570" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1570" s="12"/>
+      <c r="E1570" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1571" s="1" t="s">
         <v>1577</v>
       </c>
+      <c r="B1571" s="12"/>
+      <c r="C1571" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1571" s="12"/>
+      <c r="E1571" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1572" s="1" t="s">
         <v>1578</v>
       </c>
+      <c r="B1572" s="12"/>
+      <c r="C1572" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1572" s="12" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1572" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1573" s="1" t="s">
@@ -14808,61 +14897,139 @@
       <c r="D1573" s="9" t="n">
         <v>1</v>
       </c>
+      <c r="E1573" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1574" s="1" t="s">
         <v>1580</v>
       </c>
+      <c r="B1574" s="11" t="n">
+        <v>45616</v>
+      </c>
+      <c r="C1574" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1574" s="12"/>
+      <c r="E1574" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1575" s="1" t="s">
         <v>1581</v>
       </c>
+      <c r="B1575" s="12"/>
+      <c r="C1575" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1575" s="12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1575" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1576" s="18" t="s">
         <v>1582</v>
       </c>
+      <c r="B1576" s="8" t="n">
+        <v>45617</v>
+      </c>
+      <c r="C1576" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1576" s="9"/>
+      <c r="E1576" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1577" s="18" t="s">
         <v>1583</v>
       </c>
+      <c r="B1577" s="9"/>
+      <c r="C1577" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1577" s="9"/>
+      <c r="E1577" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1578" s="18" t="s">
         <v>1584</v>
       </c>
+      <c r="B1578" s="9"/>
+      <c r="C1578" s="9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1578" s="9"/>
+      <c r="E1578" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1579" s="1" t="s">
         <v>1585</v>
       </c>
+      <c r="B1579" s="10"/>
+      <c r="C1579" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1579" s="10"/>
+      <c r="E1579" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1580" s="1" t="s">
         <v>1586</v>
       </c>
+      <c r="B1580" s="10"/>
+      <c r="C1580" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1580" s="10"/>
+      <c r="E1580" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1581" s="1" t="s">
         <v>1587</v>
       </c>
+      <c r="B1581" s="10"/>
+      <c r="C1581" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1581" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E1581" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="1582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1582" s="18" t="s">
         <v>1588</v>
       </c>
+      <c r="B1582" s="19"/>
     </row>
     <row r="1583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1583" s="18" t="s">
         <v>1589</v>
       </c>
+      <c r="B1583" s="19"/>
     </row>
     <row r="1584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1584" s="18" t="s">
         <v>1590</v>
       </c>
+      <c r="B1584" s="19"/>
     </row>
     <row r="1585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1585" s="1" t="s">
@@ -14882,6 +15049,18 @@
     <row r="1588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1588" s="1" t="s">
         <v>1594</v>
+      </c>
+      <c r="B1588" s="20" t="n">
+        <v>45617</v>
+      </c>
+      <c r="C1588" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D1588" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1588" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="1589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15403,10 +15582,10 @@
   </sheetPr>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D130" activeCellId="0" sqref="D130"/>
+      <selection pane="bottomLeft" activeCell="E125" activeCellId="0" sqref="E125:E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15437,7 +15616,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="n">
@@ -16262,6 +16441,9 @@
         <v>744</v>
       </c>
       <c r="D118" s="13"/>
+      <c r="E118" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="17" t="s">
@@ -16272,6 +16454,9 @@
         <v>744</v>
       </c>
       <c r="D119" s="13"/>
+      <c r="E119" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="17" t="s">
@@ -16284,6 +16469,9 @@
       <c r="D120" s="13" t="n">
         <v>3</v>
       </c>
+      <c r="E120" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
@@ -16296,6 +16484,9 @@
         <v>744</v>
       </c>
       <c r="D121" s="9"/>
+      <c r="E121" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
@@ -16308,6 +16499,9 @@
       <c r="D122" s="9" t="n">
         <v>2</v>
       </c>
+      <c r="E122" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="17" t="s">
@@ -16332,6 +16526,9 @@
         <v>744</v>
       </c>
       <c r="D125" s="9"/>
+      <c r="E125" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
@@ -16342,6 +16539,9 @@
         <v>744</v>
       </c>
       <c r="D126" s="9"/>
+      <c r="E126" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="17" t="s">
@@ -16352,6 +16552,9 @@
         <v>744</v>
       </c>
       <c r="D127" s="9"/>
+      <c r="E127" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="17" t="s">
@@ -16362,6 +16565,9 @@
         <v>1808</v>
       </c>
       <c r="D128" s="9"/>
+      <c r="E128" s="2" t="s">
+        <v>1464</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
@@ -16373,6 +16579,9 @@
       </c>
       <c r="D129" s="10" t="n">
         <v>5</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="1852">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2249" uniqueCount="1846">
   <si>
     <t xml:space="preserve">Not Metered</t>
   </si>
@@ -41,7 +41,7 @@
     <t xml:space="preserve">Total so far:</t>
   </si>
   <si>
-    <t xml:space="preserve">of 1657</t>
+    <t xml:space="preserve">of 1651</t>
   </si>
   <si>
     <t xml:space="preserve">me.m01.d01_en_US_oca.meVE.Stichera03 </t>
@@ -1902,24 +1902,6 @@
   </si>
   <si>
     <t xml:space="preserve">me.m06.d05_en_US_oca.meVE.SticTheotokion </t>
-  </si>
-  <si>
-    <t xml:space="preserve">me.m06.d08_en_US_oca.meVE.Aposticha1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">me.m06.d08_en_US_oca.meVE.Aposticha2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">me.m06.d08_en_US_oca.meVE.Aposticha3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">me.m06.d08_en_US_oca.meVE.Stichera01 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">me.m06.d08_en_US_oca.meVE.Stichera02 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">me.m06.d08_en_US_oca.meVE.Stichera03 </t>
   </si>
   <si>
     <t xml:space="preserve">me.m06.d09_en_US_oca.meVE.Stichera01 </t>
@@ -6015,12 +5997,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1659"/>
+  <dimension ref="A1:G1653"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D272" activeCellId="0" sqref="D272"/>
+      <selection pane="bottomLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6055,15 +6037,15 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="n">
-        <f aca="false">SUM(D3:D1659)</f>
+        <f aca="false">SUM(D3:D1653)</f>
         <v>166</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="n">
-        <f aca="false">1657-D2</f>
-        <v>1491</v>
+        <f aca="false">1651-DD22</f>
+        <v>1651</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9960,11 +9942,23 @@
       <c r="A718" s="1" t="s">
         <v>725</v>
       </c>
+      <c r="B718" s="12" t="n">
+        <v>45595</v>
+      </c>
+      <c r="C718" s="13" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="1" t="s">
         <v>726</v>
       </c>
+      <c r="C719" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D719" s="13" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="1" t="s">
@@ -9990,23 +9984,11 @@
       <c r="A724" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="B724" s="12" t="n">
-        <v>45595</v>
-      </c>
-      <c r="C724" s="13" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="C725" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D725" s="13" t="n">
-        <v>2</v>
-      </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="1" t="s">
@@ -13567,89 +13549,137 @@
       <c r="A1437" s="1" t="s">
         <v>1444</v>
       </c>
+      <c r="B1437" s="12" t="n">
+        <v>45595</v>
+      </c>
+      <c r="C1437" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1437" s="17"/>
+      <c r="E1437" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1437" s="1"/>
     </row>
     <row r="1438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1438" s="1" t="s">
         <v>1445</v>
       </c>
+      <c r="B1438" s="17"/>
+      <c r="C1438" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1438" s="17"/>
+      <c r="E1438" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1438" s="1"/>
     </row>
     <row r="1439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1439" s="1" t="s">
         <v>1446</v>
       </c>
+      <c r="B1439" s="17"/>
+      <c r="C1439" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1439" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1439" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1439" s="1"/>
     </row>
     <row r="1440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1440" s="1" t="s">
         <v>1447</v>
       </c>
+      <c r="B1440" s="9" t="n">
+        <v>45596</v>
+      </c>
+      <c r="C1440" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1440" s="11"/>
+      <c r="E1440" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1441" s="1" t="s">
         <v>1448</v>
       </c>
+      <c r="B1441" s="11"/>
+      <c r="C1441" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1441" s="11"/>
+      <c r="E1441" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1442" s="1" t="s">
         <v>1449</v>
       </c>
+      <c r="B1442" s="11"/>
+      <c r="C1442" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1442" s="11"/>
+      <c r="E1442" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1443" s="1" t="s">
         <v>1450</v>
       </c>
-      <c r="B1443" s="12" t="n">
-        <v>45595</v>
-      </c>
-      <c r="C1443" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1443" s="17"/>
+      <c r="B1443" s="11"/>
+      <c r="C1443" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1443" s="11"/>
       <c r="E1443" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1443" s="1"/>
     </row>
     <row r="1444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1444" s="1" t="s">
         <v>1451</v>
       </c>
-      <c r="B1444" s="17"/>
-      <c r="C1444" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1444" s="17"/>
+      <c r="B1444" s="11"/>
+      <c r="C1444" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1444" s="11"/>
       <c r="E1444" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1444" s="1"/>
     </row>
     <row r="1445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1445" s="1" t="s">
         <v>1452</v>
       </c>
-      <c r="B1445" s="17"/>
-      <c r="C1445" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1445" s="13" t="n">
-        <v>3</v>
-      </c>
+      <c r="B1445" s="11"/>
+      <c r="C1445" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1445" s="23"/>
       <c r="E1445" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1445" s="1"/>
     </row>
     <row r="1446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1446" s="1" t="s">
         <v>1453</v>
       </c>
-      <c r="B1446" s="9" t="n">
-        <v>45596</v>
-      </c>
-      <c r="C1446" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1446" s="11"/>
+      <c r="B1446" s="11"/>
+      <c r="C1446" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1446" s="23"/>
       <c r="E1446" s="2" t="s">
         <v>9</v>
       </c>
@@ -13659,10 +13689,12 @@
         <v>1454</v>
       </c>
       <c r="B1447" s="11"/>
-      <c r="C1447" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1447" s="11"/>
+      <c r="C1447" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1447" s="23" t="n">
+        <v>8</v>
+      </c>
       <c r="E1447" s="2" t="s">
         <v>9</v>
       </c>
@@ -13671,11 +13703,13 @@
       <c r="A1448" s="1" t="s">
         <v>1455</v>
       </c>
-      <c r="B1448" s="11"/>
-      <c r="C1448" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1448" s="11"/>
+      <c r="B1448" s="12" t="n">
+        <v>45597</v>
+      </c>
+      <c r="C1448" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1448" s="24"/>
       <c r="E1448" s="2" t="s">
         <v>9</v>
       </c>
@@ -13684,11 +13718,11 @@
       <c r="A1449" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="B1449" s="11"/>
-      <c r="C1449" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1449" s="11"/>
+      <c r="B1449" s="17"/>
+      <c r="C1449" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1449" s="17"/>
       <c r="E1449" s="2" t="s">
         <v>9</v>
       </c>
@@ -13697,11 +13731,11 @@
       <c r="A1450" s="1" t="s">
         <v>1457</v>
       </c>
-      <c r="B1450" s="11"/>
-      <c r="C1450" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1450" s="11"/>
+      <c r="B1450" s="17"/>
+      <c r="C1450" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1450" s="17"/>
       <c r="E1450" s="2" t="s">
         <v>9</v>
       </c>
@@ -13710,11 +13744,11 @@
       <c r="A1451" s="1" t="s">
         <v>1458</v>
       </c>
-      <c r="B1451" s="11"/>
-      <c r="C1451" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1451" s="23"/>
+      <c r="B1451" s="17"/>
+      <c r="C1451" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1451" s="17"/>
       <c r="E1451" s="2" t="s">
         <v>9</v>
       </c>
@@ -13723,11 +13757,11 @@
       <c r="A1452" s="1" t="s">
         <v>1459</v>
       </c>
-      <c r="B1452" s="11"/>
-      <c r="C1452" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1452" s="23"/>
+      <c r="B1452" s="17"/>
+      <c r="C1452" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1452" s="17"/>
       <c r="E1452" s="2" t="s">
         <v>9</v>
       </c>
@@ -13736,12 +13770,12 @@
       <c r="A1453" s="1" t="s">
         <v>1460</v>
       </c>
-      <c r="B1453" s="11"/>
-      <c r="C1453" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1453" s="23" t="n">
-        <v>8</v>
+      <c r="B1453" s="17"/>
+      <c r="C1453" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1453" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="E1453" s="2" t="s">
         <v>9</v>
@@ -13751,13 +13785,13 @@
       <c r="A1454" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="B1454" s="12" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C1454" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1454" s="24"/>
+      <c r="B1454" s="9" t="n">
+        <v>45599</v>
+      </c>
+      <c r="C1454" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1454" s="11"/>
       <c r="E1454" s="2" t="s">
         <v>9</v>
       </c>
@@ -13766,11 +13800,11 @@
       <c r="A1455" s="1" t="s">
         <v>1462</v>
       </c>
-      <c r="B1455" s="17"/>
-      <c r="C1455" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1455" s="17"/>
+      <c r="B1455" s="11"/>
+      <c r="C1455" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1455" s="11"/>
       <c r="E1455" s="2" t="s">
         <v>9</v>
       </c>
@@ -13779,11 +13813,13 @@
       <c r="A1456" s="1" t="s">
         <v>1463</v>
       </c>
-      <c r="B1456" s="17"/>
-      <c r="C1456" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1456" s="17"/>
+      <c r="B1456" s="11"/>
+      <c r="C1456" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1456" s="10" t="n">
+        <v>3</v>
+      </c>
       <c r="E1456" s="2" t="s">
         <v>9</v>
       </c>
@@ -13792,7 +13828,9 @@
       <c r="A1457" s="1" t="s">
         <v>1464</v>
       </c>
-      <c r="B1457" s="17"/>
+      <c r="B1457" s="12" t="n">
+        <v>45597</v>
+      </c>
       <c r="C1457" s="13" t="s">
         <v>8</v>
       </c>
@@ -13809,7 +13847,9 @@
       <c r="C1458" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D1458" s="17"/>
+      <c r="D1458" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="E1458" s="2" t="s">
         <v>9</v>
       </c>
@@ -13818,12 +13858,14 @@
       <c r="A1459" s="1" t="s">
         <v>1466</v>
       </c>
-      <c r="B1459" s="17"/>
-      <c r="C1459" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1459" s="13" t="n">
-        <v>6</v>
+      <c r="B1459" s="9" t="n">
+        <v>45598</v>
+      </c>
+      <c r="C1459" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1459" s="10" t="n">
+        <v>1</v>
       </c>
       <c r="E1459" s="2" t="s">
         <v>9</v>
@@ -13833,13 +13875,13 @@
       <c r="A1460" s="1" t="s">
         <v>1467</v>
       </c>
-      <c r="B1460" s="9" t="n">
-        <v>45599</v>
-      </c>
-      <c r="C1460" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1460" s="11"/>
+      <c r="B1460" s="12" t="n">
+        <v>45600</v>
+      </c>
+      <c r="C1460" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1460" s="17"/>
       <c r="E1460" s="2" t="s">
         <v>9</v>
       </c>
@@ -13848,11 +13890,11 @@
       <c r="A1461" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="B1461" s="11"/>
-      <c r="C1461" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1461" s="11"/>
+      <c r="B1461" s="17"/>
+      <c r="C1461" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1461" s="17"/>
       <c r="E1461" s="2" t="s">
         <v>9</v>
       </c>
@@ -13861,13 +13903,11 @@
       <c r="A1462" s="1" t="s">
         <v>1469</v>
       </c>
-      <c r="B1462" s="11"/>
-      <c r="C1462" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1462" s="10" t="n">
-        <v>3</v>
-      </c>
+      <c r="B1462" s="17"/>
+      <c r="C1462" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1462" s="17"/>
       <c r="E1462" s="2" t="s">
         <v>9</v>
       </c>
@@ -13876,9 +13916,7 @@
       <c r="A1463" s="1" t="s">
         <v>1470</v>
       </c>
-      <c r="B1463" s="12" t="n">
-        <v>45597</v>
-      </c>
+      <c r="B1463" s="17"/>
       <c r="C1463" s="13" t="s">
         <v>8</v>
       </c>
@@ -13895,9 +13933,7 @@
       <c r="C1464" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D1464" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="D1464" s="17"/>
       <c r="E1464" s="2" t="s">
         <v>9</v>
       </c>
@@ -13906,15 +13942,11 @@
       <c r="A1465" s="1" t="s">
         <v>1472</v>
       </c>
-      <c r="B1465" s="9" t="n">
-        <v>45598</v>
-      </c>
-      <c r="C1465" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1465" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="B1465" s="17"/>
+      <c r="C1465" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1465" s="17"/>
       <c r="E1465" s="2" t="s">
         <v>9</v>
       </c>
@@ -13923,9 +13955,7 @@
       <c r="A1466" s="1" t="s">
         <v>1473</v>
       </c>
-      <c r="B1466" s="12" t="n">
-        <v>45600</v>
-      </c>
+      <c r="B1466" s="17"/>
       <c r="C1466" s="13" t="s">
         <v>8</v>
       </c>
@@ -13968,7 +13998,9 @@
       <c r="C1469" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D1469" s="17"/>
+      <c r="D1469" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="E1469" s="2" t="s">
         <v>9</v>
       </c>
@@ -13977,11 +14009,13 @@
       <c r="A1470" s="1" t="s">
         <v>1477</v>
       </c>
-      <c r="B1470" s="17"/>
-      <c r="C1470" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1470" s="17"/>
+      <c r="B1470" s="9" t="n">
+        <v>45601</v>
+      </c>
+      <c r="C1470" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1470" s="11"/>
       <c r="E1470" s="2" t="s">
         <v>9</v>
       </c>
@@ -13990,11 +14024,11 @@
       <c r="A1471" s="1" t="s">
         <v>1478</v>
       </c>
-      <c r="B1471" s="17"/>
-      <c r="C1471" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1471" s="17"/>
+      <c r="B1471" s="11"/>
+      <c r="C1471" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1471" s="11"/>
       <c r="E1471" s="2" t="s">
         <v>9</v>
       </c>
@@ -14003,11 +14037,11 @@
       <c r="A1472" s="1" t="s">
         <v>1479</v>
       </c>
-      <c r="B1472" s="17"/>
-      <c r="C1472" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1472" s="17"/>
+      <c r="B1472" s="11"/>
+      <c r="C1472" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1472" s="11"/>
       <c r="E1472" s="2" t="s">
         <v>9</v>
       </c>
@@ -14016,11 +14050,11 @@
       <c r="A1473" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="B1473" s="17"/>
-      <c r="C1473" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1473" s="17"/>
+      <c r="B1473" s="11"/>
+      <c r="C1473" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1473" s="11"/>
       <c r="E1473" s="2" t="s">
         <v>9</v>
       </c>
@@ -14029,11 +14063,11 @@
       <c r="A1474" s="1" t="s">
         <v>1481</v>
       </c>
-      <c r="B1474" s="17"/>
-      <c r="C1474" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1474" s="17"/>
+      <c r="B1474" s="11"/>
+      <c r="C1474" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1474" s="11"/>
       <c r="E1474" s="2" t="s">
         <v>9</v>
       </c>
@@ -14042,12 +14076,12 @@
       <c r="A1475" s="1" t="s">
         <v>1482</v>
       </c>
-      <c r="B1475" s="17"/>
-      <c r="C1475" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1475" s="13" t="n">
-        <v>10</v>
+      <c r="B1475" s="11"/>
+      <c r="C1475" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1475" s="10" t="n">
+        <v>6</v>
       </c>
       <c r="E1475" s="2" t="s">
         <v>9</v>
@@ -14057,13 +14091,13 @@
       <c r="A1476" s="1" t="s">
         <v>1483</v>
       </c>
-      <c r="B1476" s="9" t="n">
-        <v>45601</v>
-      </c>
-      <c r="C1476" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1476" s="11"/>
+      <c r="B1476" s="25" t="n">
+        <v>45602</v>
+      </c>
+      <c r="C1476" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1476" s="13"/>
       <c r="E1476" s="2" t="s">
         <v>9</v>
       </c>
@@ -14072,11 +14106,11 @@
       <c r="A1477" s="1" t="s">
         <v>1484</v>
       </c>
-      <c r="B1477" s="11"/>
-      <c r="C1477" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1477" s="11"/>
+      <c r="B1477" s="13"/>
+      <c r="C1477" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1477" s="13"/>
       <c r="E1477" s="2" t="s">
         <v>9</v>
       </c>
@@ -14085,11 +14119,11 @@
       <c r="A1478" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="B1478" s="11"/>
-      <c r="C1478" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1478" s="11"/>
+      <c r="B1478" s="13"/>
+      <c r="C1478" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1478" s="13"/>
       <c r="E1478" s="2" t="s">
         <v>9</v>
       </c>
@@ -14098,11 +14132,11 @@
       <c r="A1479" s="1" t="s">
         <v>1486</v>
       </c>
-      <c r="B1479" s="11"/>
-      <c r="C1479" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1479" s="11"/>
+      <c r="B1479" s="13"/>
+      <c r="C1479" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1479" s="13"/>
       <c r="E1479" s="2" t="s">
         <v>9</v>
       </c>
@@ -14111,11 +14145,11 @@
       <c r="A1480" s="1" t="s">
         <v>1487</v>
       </c>
-      <c r="B1480" s="11"/>
-      <c r="C1480" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1480" s="11"/>
+      <c r="B1480" s="13"/>
+      <c r="C1480" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1480" s="13"/>
       <c r="E1480" s="2" t="s">
         <v>9</v>
       </c>
@@ -14124,24 +14158,20 @@
       <c r="A1481" s="1" t="s">
         <v>1488</v>
       </c>
-      <c r="B1481" s="11"/>
-      <c r="C1481" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1481" s="10" t="n">
-        <v>6</v>
-      </c>
+      <c r="B1481" s="13"/>
+      <c r="C1481" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1481" s="13"/>
       <c r="E1481" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="1482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1482" s="1" t="s">
+    <row r="1482" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1482" s="14" t="s">
         <v>1489</v>
       </c>
-      <c r="B1482" s="25" t="n">
-        <v>45602</v>
-      </c>
+      <c r="B1482" s="13"/>
       <c r="C1482" s="13" t="s">
         <v>8</v>
       </c>
@@ -14149,9 +14179,10 @@
       <c r="E1482" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="1483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1483" s="1" t="s">
+      <c r="G1482" s="2"/>
+    </row>
+    <row r="1483" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1483" s="14" t="s">
         <v>1490</v>
       </c>
       <c r="B1483" s="13"/>
@@ -14162,110 +14193,112 @@
       <c r="E1483" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="1484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1484" s="1" t="s">
+      <c r="G1483" s="2"/>
+    </row>
+    <row r="1484" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1484" s="14" t="s">
         <v>1491</v>
       </c>
       <c r="B1484" s="13"/>
       <c r="C1484" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D1484" s="13"/>
+      <c r="D1484" s="13" t="n">
+        <v>9</v>
+      </c>
       <c r="E1484" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="1485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1485" s="1" t="s">
+      <c r="G1484" s="2"/>
+    </row>
+    <row r="1485" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1485" s="14" t="s">
         <v>1492</v>
       </c>
-      <c r="B1485" s="13"/>
-      <c r="C1485" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1485" s="13"/>
+      <c r="B1485" s="9" t="n">
+        <v>45603</v>
+      </c>
+      <c r="C1485" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1485" s="11"/>
       <c r="E1485" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="1486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1486" s="1" t="s">
+      <c r="G1485" s="2"/>
+    </row>
+    <row r="1486" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1486" s="14" t="s">
         <v>1493</v>
       </c>
-      <c r="B1486" s="13"/>
-      <c r="C1486" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1486" s="13"/>
+      <c r="B1486" s="11"/>
+      <c r="C1486" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1486" s="11"/>
       <c r="E1486" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="1487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1487" s="1" t="s">
+      <c r="G1486" s="2"/>
+    </row>
+    <row r="1487" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1487" s="14" t="s">
         <v>1494</v>
       </c>
-      <c r="B1487" s="13"/>
-      <c r="C1487" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1487" s="13"/>
+      <c r="B1487" s="11"/>
+      <c r="C1487" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1487" s="11"/>
       <c r="E1487" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="1488" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1488" s="14" t="s">
+      <c r="G1487" s="2"/>
+    </row>
+    <row r="1488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1488" s="1" t="s">
         <v>1495</v>
       </c>
-      <c r="B1488" s="13"/>
-      <c r="C1488" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1488" s="13"/>
+      <c r="B1488" s="11"/>
+      <c r="C1488" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1488" s="11"/>
       <c r="E1488" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1488" s="2"/>
-    </row>
-    <row r="1489" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1489" s="14" t="s">
+    </row>
+    <row r="1489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1489" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="B1489" s="13"/>
-      <c r="C1489" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1489" s="13"/>
+      <c r="B1489" s="11"/>
+      <c r="C1489" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1489" s="11"/>
       <c r="E1489" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1489" s="2"/>
-    </row>
-    <row r="1490" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1490" s="14" t="s">
+    </row>
+    <row r="1490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1490" s="1" t="s">
         <v>1497</v>
       </c>
-      <c r="B1490" s="13"/>
-      <c r="C1490" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1490" s="13" t="n">
-        <v>9</v>
-      </c>
+      <c r="B1490" s="11"/>
+      <c r="C1490" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1490" s="11"/>
       <c r="E1490" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1490" s="2"/>
-    </row>
-    <row r="1491" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1491" s="14" t="s">
+    </row>
+    <row r="1491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1491" s="1" t="s">
         <v>1498</v>
       </c>
-      <c r="B1491" s="9" t="n">
-        <v>45603</v>
-      </c>
+      <c r="B1491" s="11"/>
       <c r="C1491" s="11" t="s">
         <v>8</v>
       </c>
@@ -14273,10 +14306,9 @@
       <c r="E1491" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1491" s="2"/>
-    </row>
-    <row r="1492" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1492" s="14" t="s">
+    </row>
+    <row r="1492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1492" s="1" t="s">
         <v>1499</v>
       </c>
       <c r="B1492" s="11"/>
@@ -14287,10 +14319,9 @@
       <c r="E1492" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1492" s="2"/>
-    </row>
-    <row r="1493" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1493" s="14" t="s">
+    </row>
+    <row r="1493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1493" s="1" t="s">
         <v>1500</v>
       </c>
       <c r="B1493" s="11"/>
@@ -14301,7 +14332,6 @@
       <c r="E1493" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1493" s="2"/>
     </row>
     <row r="1494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1494" s="1" t="s">
@@ -14337,87 +14367,89 @@
       <c r="C1496" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D1496" s="11"/>
+      <c r="D1496" s="11" t="n">
+        <v>12</v>
+      </c>
       <c r="E1496" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1497" s="1" t="s">
+      <c r="A1497" s="8" t="s">
         <v>1504</v>
       </c>
-      <c r="B1497" s="11"/>
-      <c r="C1497" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1497" s="11"/>
+      <c r="B1497" s="12" t="n">
+        <v>45604</v>
+      </c>
+      <c r="C1497" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1497" s="17"/>
       <c r="E1497" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1498" s="1" t="s">
+      <c r="A1498" s="8" t="s">
         <v>1505</v>
       </c>
-      <c r="B1498" s="11"/>
-      <c r="C1498" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1498" s="11"/>
+      <c r="B1498" s="17"/>
+      <c r="C1498" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1498" s="17"/>
       <c r="E1498" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1499" s="1" t="s">
+      <c r="A1499" s="8" t="s">
         <v>1506</v>
       </c>
-      <c r="B1499" s="11"/>
-      <c r="C1499" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1499" s="11"/>
+      <c r="B1499" s="17"/>
+      <c r="C1499" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1499" s="17"/>
       <c r="E1499" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1500" s="1" t="s">
+      <c r="A1500" s="8" t="s">
         <v>1507</v>
       </c>
-      <c r="B1500" s="11"/>
-      <c r="C1500" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1500" s="11"/>
+      <c r="B1500" s="17"/>
+      <c r="C1500" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1500" s="17"/>
       <c r="E1500" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1501" s="1" t="s">
+      <c r="A1501" s="8" t="s">
         <v>1508</v>
       </c>
-      <c r="B1501" s="11"/>
-      <c r="C1501" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1501" s="11"/>
+      <c r="B1501" s="17"/>
+      <c r="C1501" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1501" s="17"/>
       <c r="E1501" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1502" s="1" t="s">
+      <c r="A1502" s="8" t="s">
         <v>1509</v>
       </c>
-      <c r="B1502" s="11"/>
-      <c r="C1502" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1502" s="11" t="n">
-        <v>12</v>
-      </c>
+      <c r="B1502" s="17"/>
+      <c r="C1502" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1502" s="17"/>
       <c r="E1502" s="2" t="s">
         <v>9</v>
       </c>
@@ -14426,10 +14458,8 @@
       <c r="A1503" s="8" t="s">
         <v>1510</v>
       </c>
-      <c r="B1503" s="12" t="n">
-        <v>45604</v>
-      </c>
-      <c r="C1503" s="13" t="s">
+      <c r="B1503" s="17"/>
+      <c r="C1503" s="17" t="s">
         <v>8</v>
       </c>
       <c r="D1503" s="17"/>
@@ -14458,87 +14488,97 @@
       <c r="C1505" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1505" s="17"/>
+      <c r="D1505" s="17" t="n">
+        <v>9</v>
+      </c>
       <c r="E1505" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1506" s="8" t="s">
+      <c r="A1506" s="1" t="s">
         <v>1513</v>
       </c>
-      <c r="B1506" s="17"/>
-      <c r="C1506" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1506" s="17"/>
+      <c r="B1506" s="9" t="n">
+        <v>45606</v>
+      </c>
+      <c r="C1506" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1506" s="10"/>
       <c r="E1506" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1507" s="8" t="s">
+      <c r="A1507" s="1" t="s">
         <v>1514</v>
       </c>
-      <c r="B1507" s="17"/>
-      <c r="C1507" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1507" s="17"/>
+      <c r="B1507" s="10"/>
+      <c r="C1507" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1507" s="10"/>
       <c r="E1507" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1508" s="8" t="s">
+      <c r="A1508" s="1" t="s">
         <v>1515</v>
       </c>
-      <c r="B1508" s="17"/>
-      <c r="C1508" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1508" s="17"/>
+      <c r="B1508" s="10"/>
+      <c r="C1508" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1508" s="10" t="n">
+        <v>3</v>
+      </c>
       <c r="E1508" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1509" s="8" t="s">
+      <c r="A1509" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="B1509" s="17"/>
+      <c r="B1509" s="12" t="n">
+        <v>45604</v>
+      </c>
       <c r="C1509" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1509" s="17"/>
+      <c r="D1509" s="17" t="n">
+        <v>1</v>
+      </c>
       <c r="E1509" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1510" s="8" t="s">
+      <c r="A1510" s="1" t="s">
         <v>1517</v>
       </c>
-      <c r="B1510" s="17"/>
-      <c r="C1510" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1510" s="17"/>
+      <c r="B1510" s="9" t="n">
+        <v>45605</v>
+      </c>
+      <c r="C1510" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1510" s="10"/>
       <c r="E1510" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1511" s="8" t="s">
+      <c r="A1511" s="1" t="s">
         <v>1518</v>
       </c>
-      <c r="B1511" s="17"/>
-      <c r="C1511" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1511" s="17" t="n">
-        <v>9</v>
-      </c>
+      <c r="B1511" s="10"/>
+      <c r="C1511" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1511" s="10"/>
       <c r="E1511" s="2" t="s">
         <v>9</v>
       </c>
@@ -14547,9 +14587,7 @@
       <c r="A1512" s="1" t="s">
         <v>1519</v>
       </c>
-      <c r="B1512" s="9" t="n">
-        <v>45606</v>
-      </c>
+      <c r="B1512" s="10"/>
       <c r="C1512" s="10" t="s">
         <v>8</v>
       </c>
@@ -14580,135 +14618,131 @@
         <v>8</v>
       </c>
       <c r="D1514" s="10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1514" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1515" s="1" t="s">
+      <c r="A1515" s="8" t="s">
         <v>1522</v>
       </c>
       <c r="B1515" s="12" t="n">
-        <v>45604</v>
-      </c>
-      <c r="C1515" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1515" s="17" t="n">
-        <v>1</v>
-      </c>
+        <v>45607</v>
+      </c>
+      <c r="C1515" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1515" s="13"/>
       <c r="E1515" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1516" s="1" t="s">
+      <c r="A1516" s="8" t="s">
         <v>1523</v>
       </c>
-      <c r="B1516" s="9" t="n">
-        <v>45605</v>
-      </c>
-      <c r="C1516" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1516" s="10"/>
+      <c r="B1516" s="17"/>
+      <c r="C1516" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1516" s="13"/>
       <c r="E1516" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1517" s="1" t="s">
+      <c r="A1517" s="8" t="s">
         <v>1524</v>
       </c>
-      <c r="B1517" s="10"/>
-      <c r="C1517" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1517" s="10"/>
+      <c r="B1517" s="13"/>
+      <c r="C1517" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1517" s="13"/>
       <c r="E1517" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1518" s="1" t="s">
+      <c r="A1518" s="8" t="s">
         <v>1525</v>
       </c>
-      <c r="B1518" s="10"/>
-      <c r="C1518" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1518" s="10"/>
+      <c r="B1518" s="13"/>
+      <c r="C1518" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1518" s="13"/>
       <c r="E1518" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1519" s="1" t="s">
+      <c r="A1519" s="8" t="s">
         <v>1526</v>
       </c>
-      <c r="B1519" s="10"/>
-      <c r="C1519" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1519" s="10"/>
+      <c r="B1519" s="13"/>
+      <c r="C1519" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1519" s="13"/>
       <c r="E1519" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1520" s="1" t="s">
+      <c r="A1520" s="8" t="s">
         <v>1527</v>
       </c>
-      <c r="B1520" s="10"/>
-      <c r="C1520" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1520" s="10" t="n">
-        <v>5</v>
+      <c r="B1520" s="13"/>
+      <c r="C1520" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1520" s="13" t="n">
+        <v>6</v>
       </c>
       <c r="E1520" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1521" s="8" t="s">
+      <c r="A1521" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="B1521" s="12" t="n">
-        <v>45607</v>
-      </c>
-      <c r="C1521" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1521" s="13"/>
+      <c r="B1521" s="9" t="n">
+        <v>45608</v>
+      </c>
+      <c r="C1521" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1521" s="10"/>
       <c r="E1521" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1522" s="8" t="s">
+      <c r="A1522" s="1" t="s">
         <v>1529</v>
       </c>
-      <c r="B1522" s="17"/>
-      <c r="C1522" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1522" s="13"/>
+      <c r="B1522" s="10"/>
+      <c r="C1522" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1522" s="10"/>
       <c r="E1522" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1523" s="8" t="s">
+      <c r="A1523" s="1" t="s">
         <v>1530</v>
       </c>
-      <c r="B1523" s="13"/>
-      <c r="C1523" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1523" s="13"/>
+      <c r="B1523" s="10"/>
+      <c r="C1523" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1523" s="10"/>
       <c r="E1523" s="2" t="s">
         <v>9</v>
       </c>
@@ -14717,11 +14751,11 @@
       <c r="A1524" s="8" t="s">
         <v>1531</v>
       </c>
-      <c r="B1524" s="13"/>
-      <c r="C1524" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1524" s="13"/>
+      <c r="B1524" s="10"/>
+      <c r="C1524" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1524" s="10"/>
       <c r="E1524" s="2" t="s">
         <v>9</v>
       </c>
@@ -14730,11 +14764,11 @@
       <c r="A1525" s="8" t="s">
         <v>1532</v>
       </c>
-      <c r="B1525" s="13"/>
-      <c r="C1525" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1525" s="13"/>
+      <c r="B1525" s="10"/>
+      <c r="C1525" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1525" s="10"/>
       <c r="E1525" s="2" t="s">
         <v>9</v>
       </c>
@@ -14743,11 +14777,11 @@
       <c r="A1526" s="8" t="s">
         <v>1533</v>
       </c>
-      <c r="B1526" s="13"/>
-      <c r="C1526" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1526" s="13" t="n">
+      <c r="B1526" s="10"/>
+      <c r="C1526" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1526" s="10" t="n">
         <v>6</v>
       </c>
       <c r="E1526" s="2" t="s">
@@ -14758,13 +14792,13 @@
       <c r="A1527" s="1" t="s">
         <v>1534</v>
       </c>
-      <c r="B1527" s="9" t="n">
-        <v>45608</v>
-      </c>
-      <c r="C1527" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1527" s="10"/>
+      <c r="B1527" s="12" t="n">
+        <v>45609</v>
+      </c>
+      <c r="C1527" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1527" s="13"/>
       <c r="E1527" s="2" t="s">
         <v>9</v>
       </c>
@@ -14773,11 +14807,11 @@
       <c r="A1528" s="1" t="s">
         <v>1535</v>
       </c>
-      <c r="B1528" s="10"/>
-      <c r="C1528" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1528" s="10"/>
+      <c r="B1528" s="13"/>
+      <c r="C1528" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1528" s="13"/>
       <c r="E1528" s="2" t="s">
         <v>9</v>
       </c>
@@ -14786,11 +14820,13 @@
       <c r="A1529" s="1" t="s">
         <v>1536</v>
       </c>
-      <c r="B1529" s="10"/>
-      <c r="C1529" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1529" s="10"/>
+      <c r="B1529" s="13"/>
+      <c r="C1529" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1529" s="13" t="n">
+        <v>3</v>
+      </c>
       <c r="E1529" s="2" t="s">
         <v>9</v>
       </c>
@@ -14799,7 +14835,9 @@
       <c r="A1530" s="8" t="s">
         <v>1537</v>
       </c>
-      <c r="B1530" s="10"/>
+      <c r="B1530" s="9" t="n">
+        <v>45610</v>
+      </c>
       <c r="C1530" s="10" t="s">
         <v>8</v>
       </c>
@@ -14829,37 +14867,35 @@
       <c r="C1532" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1532" s="10" t="n">
-        <v>6</v>
-      </c>
+      <c r="D1532" s="10"/>
       <c r="E1532" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1533" s="1" t="s">
+      <c r="A1533" s="8" t="s">
         <v>1540</v>
       </c>
-      <c r="B1533" s="12" t="n">
-        <v>45609</v>
-      </c>
-      <c r="C1533" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1533" s="13"/>
+      <c r="B1533" s="10"/>
+      <c r="C1533" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1533" s="10"/>
       <c r="E1533" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1534" s="1" t="s">
+      <c r="A1534" s="8" t="s">
         <v>1541</v>
       </c>
-      <c r="B1534" s="13"/>
-      <c r="C1534" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1534" s="13"/>
+      <c r="B1534" s="10"/>
+      <c r="C1534" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1534" s="10" t="n">
+        <v>5</v>
+      </c>
       <c r="E1534" s="2" t="s">
         <v>9</v>
       </c>
@@ -14868,82 +14904,43 @@
       <c r="A1535" s="1" t="s">
         <v>1542</v>
       </c>
-      <c r="B1535" s="13"/>
-      <c r="C1535" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1535" s="13" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1535" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B1535" s="26"/>
     </row>
     <row r="1536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1536" s="8" t="s">
+      <c r="A1536" s="1" t="s">
         <v>1543</v>
       </c>
-      <c r="B1536" s="9" t="n">
-        <v>45610</v>
-      </c>
-      <c r="C1536" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1536" s="10"/>
-      <c r="E1536" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B1536" s="26"/>
     </row>
     <row r="1537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1537" s="8" t="s">
+      <c r="A1537" s="1" t="s">
         <v>1544</v>
       </c>
-      <c r="B1537" s="10"/>
-      <c r="C1537" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1537" s="10"/>
-      <c r="E1537" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B1537" s="26"/>
     </row>
     <row r="1538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1538" s="8" t="s">
+      <c r="A1538" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="B1538" s="10"/>
-      <c r="C1538" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1538" s="10"/>
-      <c r="E1538" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B1538" s="26"/>
     </row>
     <row r="1539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1539" s="8" t="s">
+      <c r="A1539" s="1" t="s">
         <v>1546</v>
       </c>
-      <c r="B1539" s="10"/>
-      <c r="C1539" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1539" s="10"/>
-      <c r="E1539" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B1539" s="26"/>
     </row>
     <row r="1540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1540" s="8" t="s">
+      <c r="A1540" s="1" t="s">
         <v>1547</v>
       </c>
-      <c r="B1540" s="10"/>
+      <c r="B1540" s="9" t="n">
+        <v>45614</v>
+      </c>
       <c r="C1540" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1540" s="10" t="n">
-        <v>5</v>
-      </c>
+      <c r="D1540" s="10"/>
       <c r="E1540" s="2" t="s">
         <v>9</v>
       </c>
@@ -14952,164 +14949,207 @@
       <c r="A1541" s="1" t="s">
         <v>1548</v>
       </c>
-      <c r="B1541" s="26"/>
+      <c r="B1541" s="10"/>
+      <c r="C1541" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1541" s="10"/>
+      <c r="E1541" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1542" s="1" t="s">
         <v>1549</v>
       </c>
-      <c r="B1542" s="26"/>
+      <c r="B1542" s="10"/>
+      <c r="C1542" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1542" s="10"/>
+      <c r="E1542" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1543" s="1" t="s">
+      <c r="A1543" s="8" t="s">
         <v>1550</v>
       </c>
-      <c r="B1543" s="26"/>
+      <c r="B1543" s="11"/>
+      <c r="C1543" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1543" s="11"/>
+      <c r="E1543" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1544" s="1" t="s">
+      <c r="A1544" s="8" t="s">
         <v>1551</v>
       </c>
-      <c r="B1544" s="26"/>
+      <c r="B1544" s="11"/>
+      <c r="C1544" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1544" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E1544" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1545" s="1" t="s">
+      <c r="A1545" s="8" t="s">
         <v>1552</v>
       </c>
       <c r="B1545" s="26"/>
     </row>
     <row r="1546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1546" s="1" t="s">
+      <c r="A1546" s="8" t="s">
         <v>1553</v>
       </c>
-      <c r="B1546" s="9" t="n">
-        <v>45614</v>
-      </c>
-      <c r="C1546" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1546" s="10"/>
-      <c r="E1546" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B1546" s="26"/>
     </row>
     <row r="1547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1547" s="1" t="s">
+      <c r="A1547" s="8" t="s">
         <v>1554</v>
       </c>
-      <c r="B1547" s="10"/>
-      <c r="C1547" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1547" s="10"/>
-      <c r="E1547" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B1547" s="26"/>
     </row>
     <row r="1548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1548" s="1" t="s">
+      <c r="A1548" s="8" t="s">
         <v>1555</v>
       </c>
-      <c r="B1548" s="10"/>
-      <c r="C1548" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1548" s="10"/>
-      <c r="E1548" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B1548" s="26"/>
     </row>
     <row r="1549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1549" s="8" t="s">
+      <c r="A1549" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="B1549" s="11"/>
-      <c r="C1549" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1549" s="11"/>
+      <c r="B1549" s="9" t="n">
+        <v>45616</v>
+      </c>
+      <c r="C1549" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1549" s="10"/>
       <c r="E1549" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1550" s="8" t="s">
+      <c r="A1550" s="1" t="s">
         <v>1557</v>
       </c>
-      <c r="B1550" s="11"/>
-      <c r="C1550" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1550" s="11" t="n">
-        <v>5</v>
-      </c>
+      <c r="B1550" s="10"/>
+      <c r="C1550" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1550" s="10"/>
       <c r="E1550" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1551" s="8" t="s">
+      <c r="A1551" s="1" t="s">
         <v>1558</v>
       </c>
-      <c r="B1551" s="26"/>
+      <c r="B1551" s="10"/>
+      <c r="C1551" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1551" s="10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1551" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1552" s="8" t="s">
+      <c r="A1552" s="1" t="s">
         <v>1559</v>
       </c>
-      <c r="B1552" s="26"/>
+      <c r="B1552" s="12" t="n">
+        <v>45615</v>
+      </c>
+      <c r="C1552" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1552" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1552" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1553" s="8" t="s">
+      <c r="A1553" s="1" t="s">
         <v>1560</v>
       </c>
-      <c r="B1553" s="26"/>
+      <c r="B1553" s="9" t="n">
+        <v>45616</v>
+      </c>
+      <c r="C1553" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1553" s="10"/>
+      <c r="E1553" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1554" s="8" t="s">
+      <c r="A1554" s="1" t="s">
         <v>1561</v>
       </c>
-      <c r="B1554" s="26"/>
+      <c r="B1554" s="10"/>
+      <c r="C1554" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1554" s="10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1554" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1555" s="1" t="s">
+      <c r="A1555" s="8" t="s">
         <v>1562</v>
       </c>
-      <c r="B1555" s="9" t="n">
-        <v>45616</v>
-      </c>
-      <c r="C1555" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1555" s="10"/>
+      <c r="B1555" s="12" t="n">
+        <v>45617</v>
+      </c>
+      <c r="C1555" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1555" s="13"/>
       <c r="E1555" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1556" s="1" t="s">
+      <c r="A1556" s="8" t="s">
         <v>1563</v>
       </c>
-      <c r="B1556" s="10"/>
-      <c r="C1556" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1556" s="10"/>
+      <c r="B1556" s="13"/>
+      <c r="C1556" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1556" s="13"/>
       <c r="E1556" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="1557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1557" s="1" t="s">
+      <c r="A1557" s="8" t="s">
         <v>1564</v>
       </c>
-      <c r="B1557" s="10"/>
-      <c r="C1557" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1557" s="10" t="n">
-        <v>3</v>
-      </c>
+      <c r="B1557" s="13"/>
+      <c r="C1557" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1557" s="13"/>
       <c r="E1557" s="2" t="s">
         <v>9</v>
       </c>
@@ -15118,15 +15158,11 @@
       <c r="A1558" s="1" t="s">
         <v>1565</v>
       </c>
-      <c r="B1558" s="12" t="n">
-        <v>45615</v>
-      </c>
-      <c r="C1558" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1558" s="13" t="n">
-        <v>1</v>
-      </c>
+      <c r="B1558" s="17"/>
+      <c r="C1558" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1558" s="17"/>
       <c r="E1558" s="2" t="s">
         <v>9</v>
       </c>
@@ -15135,13 +15171,11 @@
       <c r="A1559" s="1" t="s">
         <v>1566</v>
       </c>
-      <c r="B1559" s="9" t="n">
-        <v>45616</v>
-      </c>
-      <c r="C1559" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1559" s="10"/>
+      <c r="B1559" s="17"/>
+      <c r="C1559" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1559" s="17"/>
       <c r="E1559" s="2" t="s">
         <v>9</v>
       </c>
@@ -15150,12 +15184,12 @@
       <c r="A1560" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="B1560" s="10"/>
-      <c r="C1560" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1560" s="10" t="n">
-        <v>2</v>
+      <c r="B1560" s="17"/>
+      <c r="C1560" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1560" s="17" t="n">
+        <v>6</v>
       </c>
       <c r="E1560" s="2" t="s">
         <v>9</v>
@@ -15165,101 +15199,61 @@
       <c r="A1561" s="8" t="s">
         <v>1568</v>
       </c>
-      <c r="B1561" s="12" t="n">
-        <v>45617</v>
-      </c>
-      <c r="C1561" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1561" s="13"/>
-      <c r="E1561" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B1561" s="26"/>
     </row>
     <row r="1562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1562" s="8" t="s">
         <v>1569</v>
       </c>
-      <c r="B1562" s="13"/>
-      <c r="C1562" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1562" s="13"/>
-      <c r="E1562" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B1562" s="26"/>
     </row>
     <row r="1563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1563" s="8" t="s">
         <v>1570</v>
       </c>
-      <c r="B1563" s="13"/>
-      <c r="C1563" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1563" s="13"/>
-      <c r="E1563" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B1563" s="26"/>
     </row>
     <row r="1564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1564" s="1" t="s">
         <v>1571</v>
       </c>
-      <c r="B1564" s="17"/>
-      <c r="C1564" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1564" s="17"/>
-      <c r="E1564" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="1565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1565" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="B1565" s="17"/>
-      <c r="C1565" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1565" s="17"/>
-      <c r="E1565" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="1566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1566" s="1" t="s">
         <v>1573</v>
       </c>
-      <c r="B1566" s="17"/>
-      <c r="C1566" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1566" s="17" t="n">
-        <v>6</v>
-      </c>
-      <c r="E1566" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="1567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1567" s="8" t="s">
+      <c r="A1567" s="1" t="s">
         <v>1574</v>
       </c>
-      <c r="B1567" s="26"/>
+      <c r="B1567" s="27" t="n">
+        <v>45617</v>
+      </c>
+      <c r="C1567" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1567" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1567" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1568" s="8" t="s">
+      <c r="A1568" s="1" t="s">
         <v>1575</v>
       </c>
-      <c r="B1568" s="26"/>
     </row>
     <row r="1569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1569" s="8" t="s">
+      <c r="A1569" s="1" t="s">
         <v>1576</v>
       </c>
-      <c r="B1569" s="26"/>
     </row>
     <row r="1570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1570" s="1" t="s">
@@ -15277,69 +15271,57 @@
       </c>
     </row>
     <row r="1573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1573" s="1" t="s">
+      <c r="A1573" s="8" t="s">
         <v>1580</v>
       </c>
-      <c r="B1573" s="27" t="n">
-        <v>45617</v>
-      </c>
-      <c r="C1573" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1573" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E1573" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="1574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1574" s="1" t="s">
+      <c r="A1574" s="8" t="s">
         <v>1581</v>
       </c>
     </row>
     <row r="1575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1575" s="1" t="s">
+      <c r="A1575" s="8" t="s">
         <v>1582</v>
       </c>
     </row>
     <row r="1576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1576" s="1" t="s">
+      <c r="A1576" s="8" t="s">
         <v>1583</v>
       </c>
     </row>
     <row r="1577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1577" s="1" t="s">
+      <c r="A1577" s="8" t="s">
         <v>1584</v>
       </c>
     </row>
     <row r="1578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1578" s="1" t="s">
+      <c r="A1578" s="8" t="s">
         <v>1585</v>
       </c>
     </row>
     <row r="1579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1579" s="8" t="s">
+      <c r="A1579" s="1" t="s">
         <v>1586</v>
       </c>
     </row>
     <row r="1580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1580" s="8" t="s">
+      <c r="A1580" s="1" t="s">
         <v>1587</v>
       </c>
     </row>
     <row r="1581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1581" s="8" t="s">
+      <c r="A1581" s="1" t="s">
         <v>1588</v>
       </c>
     </row>
     <row r="1582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1582" s="8" t="s">
+      <c r="A1582" s="1" t="s">
         <v>1589</v>
       </c>
     </row>
     <row r="1583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1583" s="8" t="s">
+      <c r="A1583" s="1" t="s">
         <v>1590</v>
       </c>
     </row>
@@ -15347,43 +15329,93 @@
       <c r="A1584" s="8" t="s">
         <v>1591</v>
       </c>
+      <c r="B1584" s="9" t="n">
+        <v>45621</v>
+      </c>
+      <c r="C1584" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1584" s="10"/>
+      <c r="E1584" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1585" s="1" t="s">
+      <c r="A1585" s="8" t="s">
         <v>1592</v>
       </c>
+      <c r="B1585" s="10"/>
+      <c r="C1585" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1585" s="10"/>
+      <c r="E1585" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1586" s="1" t="s">
+      <c r="A1586" s="8" t="s">
         <v>1593</v>
       </c>
+      <c r="B1586" s="10"/>
+      <c r="C1586" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1586" s="10"/>
+      <c r="E1586" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1587" s="1" t="s">
+      <c r="A1587" s="8" t="s">
         <v>1594</v>
       </c>
+      <c r="B1587" s="10"/>
+      <c r="C1587" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1587" s="10"/>
+      <c r="E1587" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1588" s="1" t="s">
+      <c r="A1588" s="8" t="s">
         <v>1595</v>
       </c>
+      <c r="B1588" s="10"/>
+      <c r="C1588" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1588" s="10"/>
+      <c r="E1588" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="1589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1589" s="1" t="s">
+      <c r="A1589" s="8" t="s">
         <v>1596</v>
+      </c>
+      <c r="B1589" s="10"/>
+      <c r="C1589" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1589" s="10"/>
+      <c r="E1589" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="1590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1590" s="8" t="s">
         <v>1597</v>
       </c>
-      <c r="B1590" s="9" t="n">
-        <v>45621</v>
-      </c>
+      <c r="B1590" s="10"/>
       <c r="C1590" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D1590" s="10"/>
+      <c r="D1590" s="10" t="n">
+        <v>7</v>
+      </c>
       <c r="E1590" s="2" t="s">
         <v>9</v>
       </c>
@@ -15392,81 +15424,31 @@
       <c r="A1591" s="8" t="s">
         <v>1598</v>
       </c>
-      <c r="B1591" s="10"/>
-      <c r="C1591" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1591" s="10"/>
-      <c r="E1591" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="1592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1592" s="8" t="s">
         <v>1599</v>
       </c>
-      <c r="B1592" s="10"/>
-      <c r="C1592" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1592" s="10"/>
-      <c r="E1592" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="1593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1593" s="8" t="s">
         <v>1600</v>
       </c>
-      <c r="B1593" s="10"/>
-      <c r="C1593" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1593" s="10"/>
-      <c r="E1593" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="1594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1594" s="8" t="s">
         <v>1601</v>
       </c>
-      <c r="B1594" s="10"/>
-      <c r="C1594" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1594" s="10"/>
-      <c r="E1594" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="1595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1595" s="8" t="s">
         <v>1602</v>
       </c>
-      <c r="B1595" s="10"/>
-      <c r="C1595" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1595" s="10"/>
-      <c r="E1595" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="1596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1596" s="8" t="s">
         <v>1603</v>
       </c>
-      <c r="B1596" s="10"/>
-      <c r="C1596" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1596" s="10" t="n">
-        <v>7</v>
-      </c>
-      <c r="E1596" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="1597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1597" s="8" t="s">
@@ -15484,17 +15466,17 @@
       </c>
     </row>
     <row r="1600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1600" s="8" t="s">
+      <c r="A1600" s="1" t="s">
         <v>1607</v>
       </c>
     </row>
     <row r="1601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1601" s="8" t="s">
+      <c r="A1601" s="1" t="s">
         <v>1608</v>
       </c>
     </row>
     <row r="1602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1602" s="8" t="s">
+      <c r="A1602" s="1" t="s">
         <v>1609</v>
       </c>
     </row>
@@ -15524,7 +15506,7 @@
       </c>
     </row>
     <row r="1608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1608" s="1" t="s">
+      <c r="A1608" s="8" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -15544,12 +15526,12 @@
       </c>
     </row>
     <row r="1612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1612" s="1" t="s">
+      <c r="A1612" s="8" t="s">
         <v>1619</v>
       </c>
     </row>
     <row r="1613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1613" s="1" t="s">
+      <c r="A1613" s="8" t="s">
         <v>1620</v>
       </c>
     </row>
@@ -15569,34 +15551,40 @@
       </c>
     </row>
     <row r="1617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1617" s="8" t="s">
+      <c r="A1617" s="1" t="s">
         <v>1624</v>
       </c>
+      <c r="B1617" s="26"/>
     </row>
     <row r="1618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1618" s="8" t="s">
+      <c r="A1618" s="1" t="s">
         <v>1625</v>
       </c>
+      <c r="B1618" s="26"/>
     </row>
     <row r="1619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1619" s="8" t="s">
+      <c r="A1619" s="1" t="s">
         <v>1626</v>
       </c>
+      <c r="B1619" s="26"/>
     </row>
     <row r="1620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1620" s="8" t="s">
+      <c r="A1620" s="1" t="s">
         <v>1627</v>
       </c>
+      <c r="B1620" s="26"/>
     </row>
     <row r="1621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1621" s="8" t="s">
+      <c r="A1621" s="1" t="s">
         <v>1628</v>
       </c>
+      <c r="B1621" s="26"/>
     </row>
     <row r="1622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1622" s="8" t="s">
+      <c r="A1622" s="1" t="s">
         <v>1629</v>
       </c>
+      <c r="B1622" s="26"/>
     </row>
     <row r="1623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1623" s="1" t="s">
@@ -15617,40 +15605,34 @@
       <c r="B1625" s="26"/>
     </row>
     <row r="1626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1626" s="1" t="s">
+      <c r="A1626" s="8" t="s">
         <v>1633</v>
       </c>
-      <c r="B1626" s="26"/>
     </row>
     <row r="1627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1627" s="1" t="s">
+      <c r="A1627" s="8" t="s">
         <v>1634</v>
       </c>
-      <c r="B1627" s="26"/>
     </row>
     <row r="1628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1628" s="1" t="s">
+      <c r="A1628" s="8" t="s">
         <v>1635</v>
       </c>
-      <c r="B1628" s="26"/>
     </row>
     <row r="1629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1629" s="1" t="s">
+      <c r="A1629" s="8" t="s">
         <v>1636</v>
       </c>
-      <c r="B1629" s="26"/>
     </row>
     <row r="1630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1630" s="1" t="s">
+      <c r="A1630" s="8" t="s">
         <v>1637</v>
       </c>
-      <c r="B1630" s="26"/>
     </row>
     <row r="1631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1631" s="1" t="s">
+      <c r="A1631" s="8" t="s">
         <v>1638</v>
       </c>
-      <c r="B1631" s="26"/>
     </row>
     <row r="1632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1632" s="8" t="s">
@@ -15668,32 +15650,32 @@
       </c>
     </row>
     <row r="1635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1635" s="8" t="s">
+      <c r="A1635" s="1" t="s">
         <v>1642</v>
       </c>
     </row>
     <row r="1636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1636" s="8" t="s">
+      <c r="A1636" s="1" t="s">
         <v>1643</v>
       </c>
     </row>
     <row r="1637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1637" s="8" t="s">
+      <c r="A1637" s="1" t="s">
         <v>1644</v>
       </c>
     </row>
     <row r="1638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1638" s="8" t="s">
+      <c r="A1638" s="1" t="s">
         <v>1645</v>
       </c>
     </row>
     <row r="1639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1639" s="8" t="s">
+      <c r="A1639" s="1" t="s">
         <v>1646</v>
       </c>
     </row>
     <row r="1640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1640" s="8" t="s">
+      <c r="A1640" s="1" t="s">
         <v>1647</v>
       </c>
     </row>
@@ -15713,52 +15695,90 @@
       </c>
     </row>
     <row r="1644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1644" s="1" t="s">
+      <c r="A1644" s="8" t="s">
         <v>1651</v>
       </c>
+      <c r="B1644" s="12" t="n">
+        <v>45615</v>
+      </c>
+      <c r="C1644" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1644" s="17"/>
     </row>
     <row r="1645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1645" s="1" t="s">
+      <c r="A1645" s="8" t="s">
         <v>1652</v>
       </c>
+      <c r="B1645" s="17"/>
+      <c r="C1645" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1645" s="17"/>
     </row>
     <row r="1646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1646" s="1" t="s">
+      <c r="A1646" s="8" t="s">
         <v>1653</v>
       </c>
+      <c r="B1646" s="17"/>
+      <c r="C1646" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1646" s="17"/>
     </row>
     <row r="1647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1647" s="1" t="s">
         <v>1654</v>
       </c>
+      <c r="B1647" s="12"/>
+      <c r="C1647" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1647" s="17"/>
     </row>
     <row r="1648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1648" s="1" t="s">
         <v>1655</v>
       </c>
+      <c r="B1648" s="17"/>
+      <c r="C1648" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1648" s="17"/>
     </row>
     <row r="1649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1649" s="1" t="s">
         <v>1656</v>
       </c>
+      <c r="B1649" s="17"/>
+      <c r="C1649" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1649" s="17" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="1650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1650" s="8" t="s">
         <v>1657</v>
       </c>
-      <c r="B1650" s="12" t="n">
-        <v>45615</v>
-      </c>
-      <c r="C1650" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1650" s="17"/>
+      <c r="B1650" s="9" t="n">
+        <v>45614</v>
+      </c>
+      <c r="C1650" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1650" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1651" s="8" t="s">
         <v>1658</v>
       </c>
-      <c r="B1651" s="17"/>
+      <c r="B1651" s="12" t="n">
+        <v>45615</v>
+      </c>
       <c r="C1651" s="17" t="s">
         <v>8</v>
       </c>
@@ -15775,82 +15795,14 @@
       <c r="D1652" s="17"/>
     </row>
     <row r="1653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1653" s="1" t="s">
+      <c r="A1653" s="8" t="s">
         <v>1660</v>
       </c>
-      <c r="B1653" s="12"/>
+      <c r="B1653" s="17"/>
       <c r="C1653" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1653" s="17"/>
-    </row>
-    <row r="1654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1654" s="1" t="s">
-        <v>1661</v>
-      </c>
-      <c r="B1654" s="17"/>
-      <c r="C1654" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1654" s="17"/>
-    </row>
-    <row r="1655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1655" s="1" t="s">
-        <v>1662</v>
-      </c>
-      <c r="B1655" s="17"/>
-      <c r="C1655" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1655" s="17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="1656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1656" s="8" t="s">
-        <v>1663</v>
-      </c>
-      <c r="B1656" s="9" t="n">
-        <v>45614</v>
-      </c>
-      <c r="C1656" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1656" s="11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1657" s="8" t="s">
-        <v>1664</v>
-      </c>
-      <c r="B1657" s="12" t="n">
-        <v>45615</v>
-      </c>
-      <c r="C1657" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1657" s="17"/>
-    </row>
-    <row r="1658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1658" s="8" t="s">
-        <v>1665</v>
-      </c>
-      <c r="B1658" s="17"/>
-      <c r="C1658" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1658" s="17"/>
-    </row>
-    <row r="1659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1659" s="8" t="s">
-        <v>1666</v>
-      </c>
-      <c r="B1659" s="17"/>
-      <c r="C1659" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1659" s="17" t="n">
+      <c r="D1653" s="17" t="n">
         <v>3</v>
       </c>
     </row>
@@ -15873,9 +15825,9 @@
   <dimension ref="A1:F185"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="D67" activeCellId="0" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15911,300 +15863,300 @@
       </c>
       <c r="D2" s="5" t="n">
         <f aca="false">SUM(D3:D185)</f>
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>1667</v>
+        <v>1661</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">183-D2</f>
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1668</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1669</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1670</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1671</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1672</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>1673</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>1674</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>1675</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>1676</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>1677</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>1678</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>1679</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>1680</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>1681</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
-        <v>1682</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>1683</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>1684</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>1685</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>1686</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>1687</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>1688</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>1689</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>1690</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>1691</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>1692</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>1693</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>1694</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>1695</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>1696</v>
+        <v>1690</v>
       </c>
       <c r="B31" s="15"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>1697</v>
+        <v>1691</v>
       </c>
       <c r="B32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>1698</v>
+        <v>1692</v>
       </c>
       <c r="B33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="B34" s="15"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>1700</v>
+        <v>1694</v>
       </c>
       <c r="B35" s="15"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8" t="s">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="B36" s="15"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>1702</v>
+        <v>1696</v>
       </c>
       <c r="B37" s="15"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>1703</v>
+        <v>1697</v>
       </c>
       <c r="B38" s="15"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>1704</v>
+        <v>1698</v>
       </c>
       <c r="B39" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>1705</v>
+        <v>1699</v>
       </c>
       <c r="B40" s="15"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>1706</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="14" t="s">
-        <v>1707</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="14" t="s">
-        <v>1708</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="14" t="s">
-        <v>1709</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>1710</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>1711</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>1712</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="14" t="s">
-        <v>1713</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="s">
-        <v>1714</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="s">
-        <v>1715</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="14" t="s">
-        <v>1716</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="16" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="B52" s="15"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="14" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="14" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="22" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="B57" s="9" t="n">
         <v>45636</v>
@@ -16218,35 +16170,35 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="22" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="B58" s="10"/>
       <c r="C58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="29" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="22" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="22" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="B61" s="10"/>
       <c r="C61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="29" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="B62" s="12" t="n">
         <v>45636</v>
@@ -16254,153 +16206,169 @@
       <c r="C62" s="17" t="s">
         <v>8</v>
       </c>
+      <c r="D62" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>1728</v>
-      </c>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
+        <v>1722</v>
+      </c>
+      <c r="B63" s="12" t="n">
+        <v>45637</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="29" t="s">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
+      <c r="C64" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="29" t="s">
-        <v>1730</v>
+        <v>1724</v>
       </c>
       <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
+      <c r="C65" s="17" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="29" t="s">
-        <v>1731</v>
+        <v>1725</v>
       </c>
       <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
+      <c r="C66" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>1732</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>1733</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>1734</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>1735</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>1736</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>1737</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>1738</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>1739</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>1740</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>1741</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>1742</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>1743</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>1744</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>1745</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>1746</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>1747</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>1748</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>1749</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>1750</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>1751</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>1752</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>1753</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>1754</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>1755</v>
+        <v>1749</v>
       </c>
       <c r="B90" s="12" t="n">
         <v>45589</v>
@@ -16415,7 +16383,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>1756</v>
+        <v>1750</v>
       </c>
       <c r="B91" s="13"/>
       <c r="C91" s="13" t="s">
@@ -16428,7 +16396,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>1757</v>
+        <v>1751</v>
       </c>
       <c r="B92" s="13"/>
       <c r="C92" s="13" t="s">
@@ -16441,7 +16409,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>1758</v>
+        <v>1752</v>
       </c>
       <c r="B93" s="13"/>
       <c r="C93" s="13" t="s">
@@ -16454,7 +16422,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>1759</v>
+        <v>1753</v>
       </c>
       <c r="B94" s="13"/>
       <c r="C94" s="13" t="s">
@@ -16467,7 +16435,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>1760</v>
+        <v>1754</v>
       </c>
       <c r="B95" s="13"/>
       <c r="C95" s="13" t="s">
@@ -16480,7 +16448,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>1761</v>
+        <v>1755</v>
       </c>
       <c r="B96" s="13"/>
       <c r="C96" s="13" t="s">
@@ -16493,7 +16461,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>1762</v>
+        <v>1756</v>
       </c>
       <c r="B97" s="13"/>
       <c r="C97" s="13" t="s">
@@ -16506,7 +16474,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>1763</v>
+        <v>1757</v>
       </c>
       <c r="B98" s="13"/>
       <c r="C98" s="13" t="s">
@@ -16521,7 +16489,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>1764</v>
+        <v>1758</v>
       </c>
       <c r="B99" s="9" t="n">
         <v>45590</v>
@@ -16536,7 +16504,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>1765</v>
+        <v>1759</v>
       </c>
       <c r="B100" s="11"/>
       <c r="C100" s="10" t="s">
@@ -16549,7 +16517,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>1766</v>
+        <v>1760</v>
       </c>
       <c r="B101" s="11"/>
       <c r="C101" s="10" t="s">
@@ -16562,7 +16530,7 @@
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="B102" s="11"/>
       <c r="C102" s="10" t="s">
@@ -16575,7 +16543,7 @@
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>1768</v>
+        <v>1762</v>
       </c>
       <c r="B103" s="11"/>
       <c r="C103" s="10" t="s">
@@ -16588,7 +16556,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="B104" s="11"/>
       <c r="C104" s="10" t="s">
@@ -16601,7 +16569,7 @@
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>1770</v>
+        <v>1764</v>
       </c>
       <c r="B105" s="11"/>
       <c r="C105" s="10" t="s">
@@ -16614,7 +16582,7 @@
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="B106" s="11"/>
       <c r="C106" s="10" t="s">
@@ -16627,7 +16595,7 @@
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>1772</v>
+        <v>1766</v>
       </c>
       <c r="B107" s="11"/>
       <c r="C107" s="10" t="s">
@@ -16640,7 +16608,7 @@
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>1773</v>
+        <v>1767</v>
       </c>
       <c r="B108" s="11"/>
       <c r="C108" s="10" t="s">
@@ -16653,7 +16621,7 @@
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>1774</v>
+        <v>1768</v>
       </c>
       <c r="B109" s="11"/>
       <c r="C109" s="10" t="s">
@@ -16668,7 +16636,7 @@
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>1775</v>
+        <v>1769</v>
       </c>
       <c r="B110" s="12" t="n">
         <v>45591</v>
@@ -16683,7 +16651,7 @@
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="B111" s="13"/>
       <c r="C111" s="13" t="s">
@@ -16698,7 +16666,7 @@
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="B112" s="9" t="n">
         <v>45595</v>
@@ -16713,7 +16681,7 @@
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>1778</v>
+        <v>1772</v>
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="10" t="s">
@@ -16726,7 +16694,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>1779</v>
+        <v>1773</v>
       </c>
       <c r="B114" s="11"/>
       <c r="C114" s="10" t="s">
@@ -16739,7 +16707,7 @@
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>1780</v>
+        <v>1774</v>
       </c>
       <c r="B115" s="11"/>
       <c r="C115" s="10" t="s">
@@ -16754,7 +16722,7 @@
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="14" t="s">
-        <v>1781</v>
+        <v>1775</v>
       </c>
       <c r="B116" s="9" t="n">
         <v>45609</v>
@@ -16769,7 +16737,7 @@
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="14" t="s">
-        <v>1782</v>
+        <v>1776</v>
       </c>
       <c r="B117" s="11"/>
       <c r="C117" s="10" t="s">
@@ -16782,7 +16750,7 @@
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="14" t="s">
-        <v>1783</v>
+        <v>1777</v>
       </c>
       <c r="B118" s="11"/>
       <c r="C118" s="11" t="s">
@@ -16797,7 +16765,7 @@
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>1784</v>
+        <v>1778</v>
       </c>
       <c r="B119" s="12" t="n">
         <v>45611</v>
@@ -16812,7 +16780,7 @@
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>1785</v>
+        <v>1779</v>
       </c>
       <c r="B120" s="13"/>
       <c r="C120" s="13" t="s">
@@ -16827,19 +16795,19 @@
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="14" t="s">
-        <v>1786</v>
+        <v>1780</v>
       </c>
       <c r="B121" s="26"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="14" t="s">
-        <v>1787</v>
+        <v>1781</v>
       </c>
       <c r="B122" s="26"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>1788</v>
+        <v>1782</v>
       </c>
       <c r="B123" s="12" t="n">
         <v>45614</v>
@@ -16854,7 +16822,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>1789</v>
+        <v>1783</v>
       </c>
       <c r="B124" s="13"/>
       <c r="C124" s="13" t="s">
@@ -16867,7 +16835,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="14" t="s">
-        <v>1790</v>
+        <v>1784</v>
       </c>
       <c r="B125" s="13"/>
       <c r="C125" s="13" t="s">
@@ -16880,11 +16848,11 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="14" t="s">
-        <v>1791</v>
+        <v>1785</v>
       </c>
       <c r="B126" s="13"/>
       <c r="C126" s="13" t="s">
-        <v>1792</v>
+        <v>1786</v>
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="2" t="s">
@@ -16893,7 +16861,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>1793</v>
+        <v>1787</v>
       </c>
       <c r="B127" s="17"/>
       <c r="C127" s="17" t="s">
@@ -16908,7 +16876,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>1794</v>
+        <v>1788</v>
       </c>
       <c r="B128" s="9" t="n">
         <v>45621</v>
@@ -16923,7 +16891,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>1795</v>
+        <v>1789</v>
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="10" t="s">
@@ -16936,7 +16904,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>1796</v>
+        <v>1790</v>
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="10" t="s">
@@ -16949,7 +16917,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>1797</v>
+        <v>1791</v>
       </c>
       <c r="B131" s="10"/>
       <c r="C131" s="10" t="s">
@@ -16962,7 +16930,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>1798</v>
+        <v>1792</v>
       </c>
       <c r="B132" s="10"/>
       <c r="C132" s="10" t="s">
@@ -16975,7 +16943,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>1799</v>
+        <v>1793</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="10" t="s">
@@ -16990,277 +16958,277 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>1800</v>
+        <v>1794</v>
       </c>
       <c r="B134" s="26"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>1801</v>
+        <v>1795</v>
       </c>
       <c r="B135" s="26"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="14" t="s">
-        <v>1802</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="14" t="s">
-        <v>1803</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="14" t="s">
-        <v>1804</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="14" t="s">
-        <v>1805</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="14" t="s">
-        <v>1806</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="14" t="s">
-        <v>1807</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="14" t="s">
-        <v>1808</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="14" t="s">
-        <v>1809</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="14" t="s">
-        <v>1810</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1811</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1812</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>1813</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1814</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>1815</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>1816</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>1817</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>1818</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="14" t="s">
-        <v>1819</v>
+        <v>1813</v>
       </c>
       <c r="B153" s="26"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="14" t="s">
-        <v>1820</v>
+        <v>1814</v>
       </c>
       <c r="B154" s="26"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="14" t="s">
-        <v>1821</v>
+        <v>1815</v>
       </c>
       <c r="B155" s="26"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="14" t="s">
-        <v>1822</v>
+        <v>1816</v>
       </c>
       <c r="B156" s="26"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="14" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="B157" s="26"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="14" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="B158" s="26"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="14" t="s">
-        <v>1825</v>
+        <v>1819</v>
       </c>
       <c r="B159" s="26"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="14" t="s">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="B160" s="26"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>1827</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>1828</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>1829</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>1830</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>1831</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>1832</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>1833</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>1834</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>1835</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>1836</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="14" t="s">
-        <v>1837</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="14" t="s">
-        <v>1838</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="14" t="s">
-        <v>1839</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="14" t="s">
-        <v>1840</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>1841</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="14" t="s">
-        <v>1842</v>
+        <v>1836</v>
       </c>
       <c r="B176" s="26"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="14" t="s">
-        <v>1843</v>
+        <v>1837</v>
       </c>
       <c r="B177" s="26"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="14" t="s">
-        <v>1844</v>
+        <v>1838</v>
       </c>
       <c r="B178" s="26"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="14" t="s">
-        <v>1845</v>
+        <v>1839</v>
       </c>
       <c r="B179" s="26"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="14" t="s">
-        <v>1846</v>
+        <v>1840</v>
       </c>
       <c r="B180" s="26"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>1847</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>1848</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>1849</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>1850</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>1851</v>
+        <v>1845</v>
       </c>
     </row>
   </sheetData>

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Menaion_Vespers_notmetered" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2259" uniqueCount="1517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2317" uniqueCount="1517">
   <si>
     <t xml:space="preserve">Not Metered</t>
   </si>
@@ -5045,10 +5045,10 @@
   </sheetPr>
   <dimension ref="A1:G1298"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="E173" activeCellId="1" sqref="E77:E80 E173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5084,14 +5084,14 @@
       </c>
       <c r="D2" s="5" t="n">
         <f aca="false">SUM(D3:D1298)</f>
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">1296-D2</f>
-        <v>1026</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6513,6 +6513,9 @@
         <v>8</v>
       </c>
       <c r="D103" s="11"/>
+      <c r="E103" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="15" t="s">
@@ -6523,6 +6526,9 @@
         <v>8</v>
       </c>
       <c r="D104" s="11"/>
+      <c r="E104" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="15" t="s">
@@ -6535,6 +6541,9 @@
       <c r="D105" s="11" t="n">
         <v>3</v>
       </c>
+      <c r="E105" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="16" t="s">
@@ -6547,6 +6556,9 @@
         <v>8</v>
       </c>
       <c r="D106" s="13"/>
+      <c r="E106" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="16" t="s">
@@ -6557,6 +6569,9 @@
         <v>8</v>
       </c>
       <c r="D107" s="13"/>
+      <c r="E107" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="16" t="s">
@@ -6569,6 +6584,9 @@
       <c r="D108" s="13" t="n">
         <v>3</v>
       </c>
+      <c r="E108" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="15" t="s">
@@ -6581,6 +6599,9 @@
         <v>8</v>
       </c>
       <c r="D109" s="10"/>
+      <c r="E109" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="15" t="s">
@@ -6591,6 +6612,9 @@
         <v>8</v>
       </c>
       <c r="D110" s="10"/>
+      <c r="E110" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="15" t="s">
@@ -6603,6 +6627,9 @@
       <c r="D111" s="10" t="n">
         <v>3</v>
       </c>
+      <c r="E111" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="15" t="s">
@@ -6617,6 +6644,9 @@
       <c r="D112" s="10" t="n">
         <v>1</v>
       </c>
+      <c r="E112" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="15" t="s">
@@ -6629,6 +6659,9 @@
         <v>8</v>
       </c>
       <c r="D113" s="10"/>
+      <c r="E113" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="15" t="s">
@@ -6641,6 +6674,9 @@
       <c r="D114" s="10" t="n">
         <v>2</v>
       </c>
+      <c r="E114" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="16" t="s">
@@ -6653,6 +6689,9 @@
         <v>8</v>
       </c>
       <c r="D115" s="13"/>
+      <c r="E115" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="16" t="s">
@@ -6665,6 +6704,9 @@
       <c r="D116" s="13" t="n">
         <v>2</v>
       </c>
+      <c r="E116" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="15" t="s">
@@ -6677,6 +6719,9 @@
         <v>8</v>
       </c>
       <c r="D117" s="11"/>
+      <c r="E117" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="15" t="s">
@@ -6687,6 +6732,9 @@
         <v>8</v>
       </c>
       <c r="D118" s="11"/>
+      <c r="E118" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="15" t="s">
@@ -6697,6 +6745,9 @@
         <v>8</v>
       </c>
       <c r="D119" s="11"/>
+      <c r="E119" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="15" t="s">
@@ -6709,6 +6760,9 @@
       <c r="D120" s="11" t="n">
         <v>4</v>
       </c>
+      <c r="E120" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="16" t="s">
@@ -6723,6 +6777,9 @@
       <c r="D121" s="13" t="n">
         <v>1</v>
       </c>
+      <c r="E121" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="15" t="s">
@@ -6735,6 +6792,9 @@
         <v>8</v>
       </c>
       <c r="D122" s="10"/>
+      <c r="E122" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="15" t="s">
@@ -6745,6 +6805,9 @@
         <v>8</v>
       </c>
       <c r="D123" s="10"/>
+      <c r="E123" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="15" t="s">
@@ -6755,6 +6818,9 @@
         <v>8</v>
       </c>
       <c r="D124" s="10"/>
+      <c r="E124" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="15" t="s">
@@ -6765,6 +6831,9 @@
         <v>8</v>
       </c>
       <c r="D125" s="10"/>
+      <c r="E125" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="15" t="s">
@@ -6777,6 +6846,9 @@
       <c r="D126" s="10" t="n">
         <v>5</v>
       </c>
+      <c r="E126" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="16" t="s">
@@ -6789,6 +6861,9 @@
         <v>8</v>
       </c>
       <c r="D127" s="13"/>
+      <c r="E127" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="16" t="s">
@@ -6799,6 +6874,9 @@
         <v>8</v>
       </c>
       <c r="D128" s="13"/>
+      <c r="E128" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="16" t="s">
@@ -6809,6 +6887,9 @@
         <v>8</v>
       </c>
       <c r="D129" s="13"/>
+      <c r="E129" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="16" t="s">
@@ -6821,6 +6902,9 @@
       <c r="D130" s="13" t="n">
         <v>4</v>
       </c>
+      <c r="E130" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
@@ -6835,6 +6919,9 @@
       <c r="D131" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="E131" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="16" t="s">
@@ -6847,6 +6934,9 @@
         <v>8</v>
       </c>
       <c r="D132" s="13"/>
+      <c r="E132" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="16" t="s">
@@ -6857,6 +6947,9 @@
         <v>8</v>
       </c>
       <c r="D133" s="13"/>
+      <c r="E133" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="16" t="s">
@@ -6869,6 +6962,9 @@
       <c r="D134" s="13" t="n">
         <v>3</v>
       </c>
+      <c r="E134" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="14" t="s">
@@ -6929,6 +7025,9 @@
         <v>8</v>
       </c>
       <c r="D141" s="13"/>
+      <c r="E141" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="16" t="s">
@@ -6939,6 +7038,9 @@
         <v>8</v>
       </c>
       <c r="D142" s="13"/>
+      <c r="E142" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="16" t="s">
@@ -6951,6 +7053,9 @@
       <c r="D143" s="13" t="n">
         <v>3</v>
       </c>
+      <c r="E143" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="15" t="s">
@@ -6963,6 +7068,9 @@
         <v>8</v>
       </c>
       <c r="D144" s="11"/>
+      <c r="E144" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="15" t="s">
@@ -6973,6 +7081,9 @@
         <v>8</v>
       </c>
       <c r="D145" s="11"/>
+      <c r="E145" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="15" t="s">
@@ -6985,6 +7096,9 @@
       <c r="D146" s="11" t="n">
         <v>3</v>
       </c>
+      <c r="E146" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="16" t="s">
@@ -6997,6 +7111,9 @@
         <v>8</v>
       </c>
       <c r="D147" s="13"/>
+      <c r="E147" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="16" t="s">
@@ -7007,6 +7124,9 @@
         <v>8</v>
       </c>
       <c r="D148" s="13"/>
+      <c r="E148" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="16" t="s">
@@ -7019,6 +7139,9 @@
       <c r="D149" s="13" t="n">
         <v>3</v>
       </c>
+      <c r="E149" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="14" t="s">
@@ -7162,49 +7285,87 @@
       <c r="A173" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="B173" s="11"/>
-      <c r="C173" s="11"/>
+      <c r="B173" s="9" t="n">
+        <v>45673</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D173" s="11"/>
+      <c r="E173" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="15" t="s">
         <v>181</v>
       </c>
       <c r="B174" s="11"/>
-      <c r="C174" s="11"/>
+      <c r="C174" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D174" s="11"/>
+      <c r="E174" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="15" t="s">
         <v>182</v>
       </c>
       <c r="B175" s="11"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="11"/>
+      <c r="C175" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="B176" s="29"/>
-      <c r="C176" s="29"/>
-      <c r="D176" s="29"/>
+      <c r="B176" s="12" t="n">
+        <v>45673</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="13"/>
+      <c r="E176" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="16" t="s">
         <v>184</v>
       </c>
       <c r="B177" s="29"/>
-      <c r="C177" s="29"/>
-      <c r="D177" s="29"/>
+      <c r="C177" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="13"/>
+      <c r="E177" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="16" t="s">
         <v>185</v>
       </c>
       <c r="B178" s="29"/>
-      <c r="C178" s="29"/>
-      <c r="D178" s="29"/>
+      <c r="C178" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" s="13" t="n">
+        <v>3</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
@@ -14031,10 +14192,10 @@
   </sheetPr>
   <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G20" activeCellId="0" sqref="G20"/>
+      <selection pane="bottomLeft" activeCell="E77" activeCellId="0" sqref="E77:E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15127,6 +15288,9 @@
       <c r="D77" s="11" t="n">
         <v>1</v>
       </c>
+      <c r="E77" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
@@ -15139,6 +15303,9 @@
         <v>8</v>
       </c>
       <c r="D78" s="11"/>
+      <c r="E78" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="16" t="s">
@@ -15149,6 +15316,9 @@
         <v>8</v>
       </c>
       <c r="D79" s="13"/>
+      <c r="E79" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
@@ -15161,6 +15331,9 @@
       <c r="D80" s="11" t="n">
         <v>3</v>
       </c>
+      <c r="E80" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="16" t="s">
@@ -15247,6 +15420,9 @@
       </c>
       <c r="D86" s="10" t="n">
         <v>1</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Menaion_Vespers_notmetered" sheetId="1" state="visible" r:id="rId3"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1895" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1082">
   <si>
     <t xml:space="preserve">Not Metered</t>
   </si>
@@ -3763,10 +3763,10 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A138" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B136" activeCellId="0" sqref="B136"/>
+      <selection pane="bottomLeft" activeCell="D209" activeCellId="0" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3802,14 +3802,14 @@
       </c>
       <c r="D2" s="5" t="n">
         <f aca="false">SUM(D3:D856)</f>
-        <v>283</v>
+        <v>309</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">854-D2</f>
-        <v>571</v>
+        <v>545</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5697,6 +5697,9 @@
       <c r="D135" s="27" t="n">
         <v>1</v>
       </c>
+      <c r="E135" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A136" s="14" t="s">
@@ -5709,6 +5712,9 @@
         <v>8</v>
       </c>
       <c r="D136" s="29"/>
+      <c r="E136" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="14" t="s">
@@ -5719,6 +5725,9 @@
         <v>8</v>
       </c>
       <c r="D137" s="29"/>
+      <c r="E137" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A138" s="14" t="s">
@@ -5729,6 +5738,9 @@
         <v>8</v>
       </c>
       <c r="D138" s="29"/>
+      <c r="E138" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A139" s="14" t="s">
@@ -5739,6 +5751,9 @@
         <v>8</v>
       </c>
       <c r="D139" s="29"/>
+      <c r="E139" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="14" t="s">
@@ -5749,6 +5764,9 @@
         <v>8</v>
       </c>
       <c r="D140" s="29"/>
+      <c r="E140" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="14" t="s">
@@ -5761,6 +5779,9 @@
       <c r="D141" s="29" t="n">
         <v>6</v>
       </c>
+      <c r="E141" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="16" t="s">
@@ -6116,348 +6137,594 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="s">
+      <c r="A180" s="15" t="s">
         <v>187</v>
       </c>
+      <c r="B180" s="9" t="n">
+        <v>45685</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="10"/>
     </row>
     <row r="181" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="15" t="s">
         <v>188</v>
       </c>
+      <c r="B181" s="10"/>
+      <c r="C181" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" s="10"/>
     </row>
     <row r="182" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="s">
+      <c r="A182" s="15" t="s">
         <v>189</v>
       </c>
+      <c r="B182" s="10"/>
+      <c r="C182" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" s="10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="s">
+      <c r="A183" s="16" t="s">
         <v>190</v>
       </c>
+      <c r="B183" s="12" t="n">
+        <v>45685</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="13"/>
     </row>
     <row r="184" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="s">
+      <c r="A184" s="16" t="s">
         <v>191</v>
       </c>
+      <c r="B184" s="13"/>
+      <c r="C184" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" s="13"/>
     </row>
     <row r="185" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="s">
+      <c r="A185" s="16" t="s">
         <v>192</v>
       </c>
+      <c r="B185" s="13"/>
+      <c r="C185" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" s="13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="s">
+      <c r="A186" s="15" t="s">
         <v>193</v>
       </c>
+      <c r="B186" s="9" t="n">
+        <v>45685</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="10"/>
     </row>
     <row r="187" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="s">
+      <c r="A187" s="15" t="s">
         <v>194</v>
       </c>
+      <c r="B187" s="10"/>
+      <c r="C187" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" s="10"/>
     </row>
     <row r="188" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="s">
+      <c r="A188" s="15" t="s">
         <v>195</v>
       </c>
+      <c r="B188" s="10"/>
+      <c r="C188" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" s="10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="s">
+      <c r="A189" s="16" t="s">
         <v>196</v>
       </c>
+      <c r="B189" s="12" t="n">
+        <v>45685</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="13"/>
     </row>
     <row r="190" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="s">
+      <c r="A190" s="16" t="s">
         <v>197</v>
+      </c>
+      <c r="B190" s="13"/>
+      <c r="C190" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" s="13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
         <v>198</v>
       </c>
+      <c r="B191" s="30"/>
     </row>
     <row r="192" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
         <v>199</v>
       </c>
+      <c r="B192" s="30"/>
     </row>
     <row r="193" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
         <v>200</v>
       </c>
+      <c r="B193" s="30"/>
     </row>
     <row r="194" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="s">
+      <c r="A194" s="16" t="s">
         <v>201</v>
       </c>
+      <c r="B194" s="12" t="n">
+        <v>45686</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="13"/>
     </row>
     <row r="195" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="s">
+      <c r="A195" s="16" t="s">
         <v>202</v>
       </c>
+      <c r="B195" s="13"/>
+      <c r="C195" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="13"/>
     </row>
     <row r="196" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="s">
+      <c r="A196" s="16" t="s">
         <v>203</v>
       </c>
+      <c r="B196" s="13"/>
+      <c r="C196" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="s">
+      <c r="A197" s="15" t="s">
         <v>204</v>
       </c>
+      <c r="B197" s="9" t="n">
+        <v>45686</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="11"/>
     </row>
     <row r="198" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="s">
+      <c r="A198" s="15" t="s">
         <v>205</v>
       </c>
+      <c r="B198" s="11"/>
+      <c r="C198" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" s="11"/>
     </row>
     <row r="199" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="s">
+      <c r="A199" s="15" t="s">
         <v>206</v>
       </c>
+      <c r="B199" s="11"/>
+      <c r="C199" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="11"/>
     </row>
     <row r="200" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="1" t="s">
+      <c r="A200" s="15" t="s">
         <v>207</v>
       </c>
+      <c r="B200" s="9"/>
+      <c r="C200" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="10"/>
     </row>
     <row r="201" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="s">
+      <c r="A201" s="15" t="s">
         <v>208</v>
       </c>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="10"/>
     </row>
     <row r="202" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="s">
+      <c r="A202" s="15" t="s">
         <v>209</v>
       </c>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="1" t="s">
+      <c r="A203" s="16" t="s">
         <v>210</v>
       </c>
+      <c r="B203" s="12" t="n">
+        <v>45687</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="13"/>
     </row>
     <row r="204" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="1" t="s">
+      <c r="A204" s="16" t="s">
         <v>211</v>
       </c>
+      <c r="B204" s="13"/>
+      <c r="C204" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="13"/>
     </row>
     <row r="205" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="s">
+      <c r="A205" s="16" t="s">
         <v>212</v>
       </c>
+      <c r="B205" s="13"/>
+      <c r="C205" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="1" t="s">
+      <c r="A206" s="15" t="s">
         <v>213</v>
       </c>
+      <c r="B206" s="9" t="n">
+        <v>45687</v>
+      </c>
+      <c r="C206" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="11"/>
     </row>
     <row r="207" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="s">
+      <c r="A207" s="15" t="s">
         <v>214</v>
       </c>
+      <c r="B207" s="11"/>
+      <c r="C207" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="11"/>
     </row>
     <row r="208" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="s">
+      <c r="A208" s="15" t="s">
         <v>215</v>
+      </c>
+      <c r="B208" s="11"/>
+      <c r="C208" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
         <v>216</v>
       </c>
+      <c r="B209" s="30"/>
     </row>
     <row r="210" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
         <v>217</v>
       </c>
+      <c r="B210" s="30"/>
     </row>
     <row r="211" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="B211" s="30"/>
     </row>
     <row r="212" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="s">
+      <c r="A212" s="15" t="s">
         <v>219</v>
       </c>
+      <c r="B212" s="11"/>
+      <c r="C212" s="11"/>
+      <c r="D212" s="11"/>
     </row>
     <row r="213" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="15" t="s">
         <v>220</v>
       </c>
+      <c r="B213" s="11"/>
+      <c r="C213" s="11"/>
+      <c r="D213" s="11"/>
     </row>
     <row r="214" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="1" t="s">
+      <c r="A214" s="15" t="s">
         <v>221</v>
       </c>
+      <c r="B214" s="11"/>
+      <c r="C214" s="11"/>
+      <c r="D214" s="11"/>
     </row>
     <row r="215" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="1" t="s">
+      <c r="A215" s="15" t="s">
         <v>222</v>
       </c>
+      <c r="B215" s="11"/>
+      <c r="C215" s="11"/>
+      <c r="D215" s="11"/>
     </row>
     <row r="216" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="s">
+      <c r="A216" s="16" t="s">
         <v>223</v>
       </c>
+      <c r="B216" s="13"/>
+      <c r="C216" s="13"/>
+      <c r="D216" s="13"/>
     </row>
     <row r="217" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="1" t="s">
+      <c r="A217" s="16" t="s">
         <v>224</v>
       </c>
+      <c r="B217" s="13"/>
+      <c r="C217" s="13"/>
+      <c r="D217" s="13"/>
     </row>
     <row r="218" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="s">
+      <c r="A218" s="16" t="s">
         <v>225</v>
       </c>
+      <c r="B218" s="13"/>
+      <c r="C218" s="13"/>
+      <c r="D218" s="13"/>
     </row>
     <row r="219" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="B219" s="30"/>
     </row>
     <row r="220" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="B220" s="30"/>
     </row>
     <row r="221" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A221" s="1" t="s">
         <v>228</v>
       </c>
+      <c r="B221" s="30"/>
     </row>
     <row r="222" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="1" t="s">
+      <c r="A222" s="16" t="s">
         <v>229</v>
       </c>
+      <c r="B222" s="13"/>
+      <c r="C222" s="13"/>
+      <c r="D222" s="13"/>
     </row>
     <row r="223" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="s">
+      <c r="A223" s="16" t="s">
         <v>230</v>
       </c>
+      <c r="B223" s="13"/>
+      <c r="C223" s="13"/>
+      <c r="D223" s="13"/>
     </row>
     <row r="224" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="1" t="s">
+      <c r="A224" s="16" t="s">
         <v>231</v>
       </c>
+      <c r="B224" s="13"/>
+      <c r="C224" s="13"/>
+      <c r="D224" s="13"/>
     </row>
     <row r="225" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="s">
+      <c r="A225" s="15" t="s">
         <v>232</v>
       </c>
+      <c r="B225" s="11"/>
+      <c r="C225" s="11"/>
+      <c r="D225" s="11"/>
     </row>
     <row r="226" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A226" s="1" t="s">
+      <c r="A226" s="15" t="s">
         <v>233</v>
       </c>
+      <c r="B226" s="11"/>
+      <c r="C226" s="11"/>
+      <c r="D226" s="11"/>
     </row>
     <row r="227" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="s">
+      <c r="A227" s="15" t="s">
         <v>234</v>
       </c>
+      <c r="B227" s="11"/>
+      <c r="C227" s="11"/>
+      <c r="D227" s="11"/>
     </row>
     <row r="228" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="1" t="s">
+      <c r="A228" s="16" t="s">
         <v>235</v>
       </c>
+      <c r="B228" s="13"/>
+      <c r="C228" s="13"/>
+      <c r="D228" s="13"/>
     </row>
     <row r="229" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="s">
+      <c r="A229" s="16" t="s">
         <v>236</v>
       </c>
+      <c r="B229" s="13"/>
+      <c r="C229" s="13"/>
+      <c r="D229" s="13"/>
     </row>
     <row r="230" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="s">
+      <c r="A230" s="16" t="s">
         <v>237</v>
       </c>
+      <c r="B230" s="13"/>
+      <c r="C230" s="13"/>
+      <c r="D230" s="13"/>
     </row>
     <row r="231" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="s">
+      <c r="A231" s="15" t="s">
         <v>238</v>
       </c>
+      <c r="B231" s="11"/>
+      <c r="C231" s="11"/>
+      <c r="D231" s="11"/>
     </row>
     <row r="232" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A232" s="1" t="s">
+      <c r="A232" s="15" t="s">
         <v>239</v>
       </c>
+      <c r="B232" s="11"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
     </row>
     <row r="233" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="s">
+      <c r="A233" s="15" t="s">
         <v>240</v>
       </c>
+      <c r="B233" s="11"/>
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
     </row>
     <row r="234" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="1" t="s">
+      <c r="A234" s="16" t="s">
         <v>241</v>
       </c>
+      <c r="B234" s="13"/>
+      <c r="C234" s="13"/>
+      <c r="D234" s="13"/>
     </row>
     <row r="235" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="s">
+      <c r="A235" s="16" t="s">
         <v>242</v>
       </c>
+      <c r="B235" s="13"/>
+      <c r="C235" s="13"/>
+      <c r="D235" s="13"/>
     </row>
     <row r="236" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="s">
+      <c r="A236" s="16" t="s">
         <v>243</v>
       </c>
+      <c r="B236" s="13"/>
+      <c r="C236" s="13"/>
+      <c r="D236" s="13"/>
     </row>
     <row r="237" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
         <v>244</v>
       </c>
+      <c r="B237" s="30"/>
     </row>
     <row r="238" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
         <v>245</v>
       </c>
+      <c r="B238" s="30"/>
     </row>
     <row r="239" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A239" s="1" t="s">
         <v>246</v>
       </c>
+      <c r="B239" s="30"/>
     </row>
     <row r="240" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="s">
+      <c r="A240" s="15" t="s">
         <v>247</v>
       </c>
+      <c r="B240" s="11"/>
+      <c r="C240" s="11"/>
+      <c r="D240" s="11"/>
     </row>
     <row r="241" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="s">
+      <c r="A241" s="15" t="s">
         <v>248</v>
       </c>
+      <c r="B241" s="11"/>
+      <c r="C241" s="11"/>
+      <c r="D241" s="11"/>
     </row>
     <row r="242" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A242" s="1" t="s">
+      <c r="A242" s="15" t="s">
         <v>249</v>
       </c>
+      <c r="B242" s="11"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
     </row>
     <row r="243" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A243" s="1" t="s">
+      <c r="A243" s="15" t="s">
         <v>250</v>
       </c>
+      <c r="B243" s="11"/>
+      <c r="C243" s="11"/>
+      <c r="D243" s="11"/>
     </row>
     <row r="244" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="15" t="s">
+      <c r="A244" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="B244" s="11"/>
-      <c r="C244" s="11"/>
-      <c r="D244" s="11"/>
+      <c r="B244" s="30"/>
     </row>
     <row r="245" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A245" s="15" t="s">
+      <c r="A245" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="B245" s="11"/>
-      <c r="C245" s="11"/>
-      <c r="D245" s="11"/>
+      <c r="B245" s="30"/>
     </row>
     <row r="246" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A246" s="15" t="s">
+      <c r="A246" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="B246" s="11"/>
-      <c r="C246" s="11"/>
-      <c r="D246" s="11"/>
+      <c r="B246" s="30"/>
     </row>
     <row r="247" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A247" s="1" t="s">
@@ -6528,16 +6795,19 @@
       <c r="A260" s="1" t="s">
         <v>267</v>
       </c>
+      <c r="B260" s="30"/>
     </row>
     <row r="261" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
         <v>268</v>
       </c>
+      <c r="B261" s="30"/>
     </row>
     <row r="262" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A262" s="1" t="s">
         <v>269</v>
       </c>
+      <c r="B262" s="30"/>
     </row>
     <row r="263" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A263" s="1" t="s">
@@ -6608,41 +6878,49 @@
       <c r="A276" s="1" t="s">
         <v>283</v>
       </c>
+      <c r="B276" s="30"/>
     </row>
     <row r="277" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
         <v>284</v>
       </c>
+      <c r="B277" s="30"/>
     </row>
     <row r="278" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A278" s="1" t="s">
         <v>285</v>
       </c>
+      <c r="B278" s="30"/>
     </row>
     <row r="279" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A279" s="1" t="s">
         <v>286</v>
       </c>
+      <c r="B279" s="30"/>
     </row>
     <row r="280" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A280" s="1" t="s">
         <v>287</v>
       </c>
+      <c r="B280" s="30"/>
     </row>
     <row r="281" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A281" s="1" t="s">
         <v>288</v>
       </c>
+      <c r="B281" s="30"/>
     </row>
     <row r="282" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A282" s="1" t="s">
         <v>289</v>
       </c>
+      <c r="B282" s="30"/>
     </row>
     <row r="283" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A283" s="1" t="s">
         <v>290</v>
       </c>
+      <c r="B283" s="30"/>
     </row>
     <row r="284" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A284" s="1" t="s">
@@ -11172,10 +11450,10 @@
   </sheetPr>
   <dimension ref="A1:F218"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C93" activeCellId="0" sqref="C93"/>
+      <selection pane="bottomLeft" activeCell="C97" activeCellId="0" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11211,14 +11489,14 @@
       </c>
       <c r="D2" s="5" t="n">
         <f aca="false">SUM(D3:D218)</f>
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>864</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">212-D2</f>
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12416,6 +12694,9 @@
         <v>8</v>
       </c>
       <c r="D87" s="29"/>
+      <c r="E87" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12427,6 +12708,9 @@
         <v>8</v>
       </c>
       <c r="D88" s="29"/>
+      <c r="E88" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F88" s="1"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12438,6 +12722,9 @@
         <v>8</v>
       </c>
       <c r="D89" s="29"/>
+      <c r="E89" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12449,6 +12736,9 @@
         <v>8</v>
       </c>
       <c r="D90" s="29"/>
+      <c r="E90" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12460,6 +12750,9 @@
         <v>8</v>
       </c>
       <c r="D91" s="29"/>
+      <c r="E91" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12473,26 +12766,53 @@
       <c r="D92" s="29" t="n">
         <v>6</v>
       </c>
+      <c r="E92" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="F92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="15" t="s">
         <v>955</v>
       </c>
+      <c r="B93" s="9" t="n">
+        <v>45684</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="10"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="15" t="s">
         <v>956</v>
       </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="10"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="15" t="s">
         <v>957</v>
       </c>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="15" t="s">
         <v>958</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1938" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="1082">
   <si>
     <t xml:space="preserve">Not Metered</t>
   </si>
@@ -3764,9 +3764,9 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D209" activeCellId="0" sqref="D209"/>
+      <selection pane="bottomLeft" activeCell="D226" activeCellId="0" sqref="D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3802,14 +3802,14 @@
       </c>
       <c r="D2" s="5" t="n">
         <f aca="false">SUM(D3:D856)</f>
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">854-D2</f>
-        <v>545</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6468,8 +6468,12 @@
       <c r="A212" s="15" t="s">
         <v>219</v>
       </c>
-      <c r="B212" s="11"/>
-      <c r="C212" s="11"/>
+      <c r="B212" s="9" t="n">
+        <v>45688</v>
+      </c>
+      <c r="C212" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D212" s="11"/>
     </row>
     <row r="213" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6477,7 +6481,9 @@
         <v>220</v>
       </c>
       <c r="B213" s="11"/>
-      <c r="C213" s="11"/>
+      <c r="C213" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D213" s="11"/>
     </row>
     <row r="214" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6485,7 +6491,9 @@
         <v>221</v>
       </c>
       <c r="B214" s="11"/>
-      <c r="C214" s="11"/>
+      <c r="C214" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D214" s="11"/>
     </row>
     <row r="215" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6493,15 +6501,23 @@
         <v>222</v>
       </c>
       <c r="B215" s="11"/>
-      <c r="C215" s="11"/>
-      <c r="D215" s="11"/>
+      <c r="C215" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="B216" s="13"/>
-      <c r="C216" s="13"/>
+      <c r="B216" s="24" t="n">
+        <v>45688</v>
+      </c>
+      <c r="C216" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D216" s="13"/>
     </row>
     <row r="217" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6509,7 +6525,9 @@
         <v>224</v>
       </c>
       <c r="B217" s="13"/>
-      <c r="C217" s="13"/>
+      <c r="C217" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D217" s="13"/>
     </row>
     <row r="218" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6517,8 +6535,12 @@
         <v>225</v>
       </c>
       <c r="B218" s="13"/>
-      <c r="C218" s="13"/>
-      <c r="D218" s="13"/>
+      <c r="C218" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
@@ -6542,8 +6564,12 @@
       <c r="A222" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="B222" s="13"/>
-      <c r="C222" s="13"/>
+      <c r="B222" s="24" t="n">
+        <v>45688</v>
+      </c>
+      <c r="C222" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D222" s="13"/>
     </row>
     <row r="223" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6551,7 +6577,9 @@
         <v>230</v>
       </c>
       <c r="B223" s="13"/>
-      <c r="C223" s="13"/>
+      <c r="C223" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D223" s="13"/>
     </row>
     <row r="224" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6559,8 +6587,12 @@
         <v>231</v>
       </c>
       <c r="B224" s="13"/>
-      <c r="C224" s="13"/>
-      <c r="D224" s="13"/>
+      <c r="C224" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" s="13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="15" t="s">

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="1082">
   <si>
     <t xml:space="preserve">Not Metered</t>
   </si>
@@ -3413,7 +3413,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3542,8 +3542,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -3764,9 +3768,9 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D226" activeCellId="0" sqref="D226"/>
+      <selection pane="bottomLeft" activeCell="A287" activeCellId="0" sqref="A287:D289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3802,14 +3806,14 @@
       </c>
       <c r="D2" s="5" t="n">
         <f aca="false">SUM(D3:D856)</f>
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">854-D2</f>
-        <v>535</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6598,8 +6602,12 @@
       <c r="A225" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="B225" s="11"/>
-      <c r="C225" s="11"/>
+      <c r="B225" s="9" t="n">
+        <v>45691</v>
+      </c>
+      <c r="C225" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D225" s="11"/>
     </row>
     <row r="226" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6607,7 +6615,9 @@
         <v>233</v>
       </c>
       <c r="B226" s="11"/>
-      <c r="C226" s="11"/>
+      <c r="C226" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D226" s="11"/>
     </row>
     <row r="227" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6615,15 +6625,23 @@
         <v>234</v>
       </c>
       <c r="B227" s="11"/>
-      <c r="C227" s="11"/>
-      <c r="D227" s="11"/>
+      <c r="C227" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D227" s="11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="B228" s="13"/>
-      <c r="C228" s="13"/>
+      <c r="B228" s="24" t="n">
+        <v>45691</v>
+      </c>
+      <c r="C228" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D228" s="13"/>
     </row>
     <row r="229" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6631,7 +6649,9 @@
         <v>236</v>
       </c>
       <c r="B229" s="13"/>
-      <c r="C229" s="13"/>
+      <c r="C229" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D229" s="13"/>
     </row>
     <row r="230" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6639,15 +6659,23 @@
         <v>237</v>
       </c>
       <c r="B230" s="13"/>
-      <c r="C230" s="13"/>
-      <c r="D230" s="13"/>
+      <c r="C230" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D230" s="13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="15" t="s">
         <v>238</v>
       </c>
-      <c r="B231" s="11"/>
-      <c r="C231" s="11"/>
+      <c r="B231" s="9" t="n">
+        <v>45691</v>
+      </c>
+      <c r="C231" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D231" s="11"/>
     </row>
     <row r="232" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6655,7 +6683,9 @@
         <v>239</v>
       </c>
       <c r="B232" s="11"/>
-      <c r="C232" s="11"/>
+      <c r="C232" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D232" s="11"/>
     </row>
     <row r="233" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6663,15 +6693,23 @@
         <v>240</v>
       </c>
       <c r="B233" s="11"/>
-      <c r="C233" s="11"/>
-      <c r="D233" s="11"/>
+      <c r="C233" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D233" s="11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="B234" s="13"/>
-      <c r="C234" s="13"/>
+      <c r="B234" s="24" t="n">
+        <v>45691</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D234" s="13"/>
     </row>
     <row r="235" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6679,7 +6717,9 @@
         <v>242</v>
       </c>
       <c r="B235" s="13"/>
-      <c r="C235" s="13"/>
+      <c r="C235" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="D235" s="13"/>
     </row>
     <row r="236" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6687,8 +6727,12 @@
         <v>243</v>
       </c>
       <c r="B236" s="13"/>
-      <c r="C236" s="13"/>
-      <c r="D236" s="13"/>
+      <c r="C236" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D236" s="13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
@@ -6712,8 +6756,12 @@
       <c r="A240" s="15" t="s">
         <v>247</v>
       </c>
-      <c r="B240" s="11"/>
-      <c r="C240" s="11"/>
+      <c r="B240" s="9" t="n">
+        <v>45692</v>
+      </c>
+      <c r="C240" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D240" s="11"/>
     </row>
     <row r="241" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6721,7 +6769,9 @@
         <v>248</v>
       </c>
       <c r="B241" s="11"/>
-      <c r="C241" s="11"/>
+      <c r="C241" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D241" s="11"/>
     </row>
     <row r="242" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6729,7 +6779,9 @@
         <v>249</v>
       </c>
       <c r="B242" s="11"/>
-      <c r="C242" s="11"/>
+      <c r="C242" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D242" s="11"/>
     </row>
     <row r="243" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6737,8 +6789,12 @@
         <v>250</v>
       </c>
       <c r="B243" s="11"/>
-      <c r="C243" s="11"/>
-      <c r="D243" s="11"/>
+      <c r="C243" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D243" s="11" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="21" t="s">
@@ -6759,68 +6815,149 @@
       <c r="B246" s="30"/>
     </row>
     <row r="247" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="1" t="s">
+      <c r="A247" s="15" t="s">
         <v>254</v>
       </c>
+      <c r="B247" s="9" t="n">
+        <v>45692</v>
+      </c>
+      <c r="C247" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D247" s="10"/>
     </row>
     <row r="248" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="s">
+      <c r="A248" s="15" t="s">
         <v>255</v>
       </c>
+      <c r="B248" s="10"/>
+      <c r="C248" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D248" s="10"/>
     </row>
     <row r="249" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="s">
+      <c r="A249" s="15" t="s">
         <v>256</v>
       </c>
+      <c r="B249" s="10"/>
+      <c r="C249" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D249" s="10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="s">
+      <c r="A250" s="16" t="s">
         <v>257</v>
       </c>
+      <c r="B250" s="12" t="n">
+        <v>45692</v>
+      </c>
+      <c r="C250" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="13"/>
     </row>
     <row r="251" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A251" s="1" t="s">
+      <c r="A251" s="16" t="s">
         <v>258</v>
       </c>
+      <c r="B251" s="13"/>
+      <c r="C251" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" s="13"/>
     </row>
     <row r="252" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="s">
+      <c r="A252" s="16" t="s">
         <v>259</v>
       </c>
+      <c r="B252" s="13"/>
+      <c r="C252" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D252" s="13"/>
     </row>
     <row r="253" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A253" s="1" t="s">
+      <c r="A253" s="16" t="s">
         <v>260</v>
       </c>
+      <c r="B253" s="13"/>
+      <c r="C253" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D253" s="13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1" t="s">
+      <c r="A254" s="15" t="s">
         <v>261</v>
       </c>
+      <c r="B254" s="20" t="n">
+        <v>45693</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="10"/>
     </row>
     <row r="255" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="s">
+      <c r="A255" s="15" t="s">
         <v>262</v>
       </c>
+      <c r="B255" s="10"/>
+      <c r="C255" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D255" s="10"/>
     </row>
     <row r="256" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="s">
+      <c r="A256" s="15" t="s">
         <v>263</v>
       </c>
+      <c r="B256" s="10"/>
+      <c r="C256" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D256" s="10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="1" t="s">
+      <c r="A257" s="16" t="s">
         <v>264</v>
       </c>
+      <c r="B257" s="24" t="n">
+        <v>45693</v>
+      </c>
+      <c r="C257" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" s="13"/>
     </row>
     <row r="258" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="s">
+      <c r="A258" s="16" t="s">
         <v>265</v>
       </c>
+      <c r="B258" s="13"/>
+      <c r="C258" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D258" s="13"/>
     </row>
     <row r="259" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="s">
+      <c r="A259" s="16" t="s">
         <v>266</v>
+      </c>
+      <c r="B259" s="13"/>
+      <c r="C259" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D259" s="13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6842,68 +6979,145 @@
       <c r="B262" s="30"/>
     </row>
     <row r="263" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="1" t="s">
+      <c r="A263" s="16" t="s">
         <v>270</v>
       </c>
+      <c r="B263" s="24" t="n">
+        <v>45694</v>
+      </c>
+      <c r="C263" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D263" s="13"/>
     </row>
     <row r="264" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1" t="s">
+      <c r="A264" s="16" t="s">
         <v>271</v>
       </c>
+      <c r="B264" s="13"/>
+      <c r="C264" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D264" s="13"/>
     </row>
     <row r="265" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A265" s="1" t="s">
+      <c r="A265" s="16" t="s">
         <v>272</v>
       </c>
+      <c r="B265" s="13"/>
+      <c r="C265" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D265" s="13"/>
     </row>
     <row r="266" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1" t="s">
+      <c r="A266" s="16" t="s">
         <v>273</v>
       </c>
+      <c r="B266" s="24"/>
+      <c r="C266" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D266" s="13"/>
     </row>
     <row r="267" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="s">
+      <c r="A267" s="16" t="s">
         <v>274</v>
       </c>
+      <c r="B267" s="13"/>
+      <c r="C267" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D267" s="13"/>
     </row>
     <row r="268" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A268" s="1" t="s">
+      <c r="A268" s="16" t="s">
         <v>275</v>
       </c>
+      <c r="B268" s="13"/>
+      <c r="C268" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D268" s="13" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="s">
+      <c r="A269" s="15" t="s">
         <v>276</v>
       </c>
+      <c r="B269" s="20" t="n">
+        <v>45694</v>
+      </c>
+      <c r="C269" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="10"/>
     </row>
     <row r="270" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="s">
+      <c r="A270" s="15" t="s">
         <v>277</v>
       </c>
+      <c r="B270" s="10"/>
+      <c r="C270" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" s="10"/>
     </row>
     <row r="271" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A271" s="1" t="s">
+      <c r="A271" s="15" t="s">
         <v>278</v>
       </c>
+      <c r="B271" s="10"/>
+      <c r="C271" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" s="10" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="1" t="s">
+      <c r="A272" s="16" t="s">
         <v>279</v>
       </c>
+      <c r="B272" s="24" t="n">
+        <v>45664</v>
+      </c>
+      <c r="C272" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" s="13"/>
     </row>
     <row r="273" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A273" s="1" t="s">
+      <c r="A273" s="16" t="s">
         <v>280</v>
       </c>
+      <c r="B273" s="13"/>
+      <c r="C273" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D273" s="13"/>
     </row>
     <row r="274" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A274" s="1" t="s">
+      <c r="A274" s="16" t="s">
         <v>281</v>
       </c>
+      <c r="B274" s="13"/>
+      <c r="C274" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D274" s="13"/>
     </row>
     <row r="275" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="s">
+      <c r="A275" s="16" t="s">
         <v>282</v>
+      </c>
+      <c r="B275" s="13"/>
+      <c r="C275" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D275" s="13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6955,174 +7169,276 @@
       <c r="B283" s="30"/>
     </row>
     <row r="284" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A284" s="1" t="s">
+      <c r="A284" s="16" t="s">
         <v>291</v>
       </c>
+      <c r="B284" s="31"/>
+      <c r="C284" s="31"/>
+      <c r="D284" s="31"/>
     </row>
     <row r="285" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="s">
+      <c r="A285" s="16" t="s">
         <v>292</v>
       </c>
+      <c r="B285" s="31"/>
+      <c r="C285" s="31"/>
+      <c r="D285" s="31"/>
     </row>
     <row r="286" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A286" s="1" t="s">
+      <c r="A286" s="16" t="s">
         <v>293</v>
       </c>
+      <c r="B286" s="31"/>
+      <c r="C286" s="31"/>
+      <c r="D286" s="31"/>
     </row>
     <row r="287" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A287" s="1" t="s">
+      <c r="A287" s="15" t="s">
         <v>294</v>
       </c>
+      <c r="B287" s="11"/>
+      <c r="C287" s="11"/>
+      <c r="D287" s="11"/>
     </row>
     <row r="288" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A288" s="1" t="s">
+      <c r="A288" s="15" t="s">
         <v>295</v>
       </c>
+      <c r="B288" s="11"/>
+      <c r="C288" s="11"/>
+      <c r="D288" s="11"/>
     </row>
     <row r="289" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A289" s="1" t="s">
+      <c r="A289" s="15" t="s">
         <v>296</v>
       </c>
+      <c r="B289" s="11"/>
+      <c r="C289" s="11"/>
+      <c r="D289" s="11"/>
     </row>
     <row r="290" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="s">
+      <c r="A290" s="16" t="s">
         <v>297</v>
       </c>
+      <c r="B290" s="31"/>
+      <c r="C290" s="31"/>
+      <c r="D290" s="31"/>
     </row>
     <row r="291" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1" t="s">
+      <c r="A291" s="16" t="s">
         <v>298</v>
       </c>
+      <c r="B291" s="31"/>
+      <c r="C291" s="31"/>
+      <c r="D291" s="31"/>
     </row>
     <row r="292" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A292" s="1" t="s">
+      <c r="A292" s="16" t="s">
         <v>299</v>
       </c>
+      <c r="B292" s="31"/>
+      <c r="C292" s="31"/>
+      <c r="D292" s="31"/>
     </row>
     <row r="293" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A293" s="1" t="s">
+      <c r="A293" s="15" t="s">
         <v>300</v>
       </c>
+      <c r="B293" s="11"/>
+      <c r="C293" s="11"/>
+      <c r="D293" s="11"/>
     </row>
     <row r="294" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="15" t="s">
         <v>301</v>
       </c>
+      <c r="B294" s="11"/>
+      <c r="C294" s="11"/>
+      <c r="D294" s="11"/>
     </row>
     <row r="295" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A295" s="1" t="s">
+      <c r="A295" s="15" t="s">
         <v>302</v>
       </c>
+      <c r="B295" s="11"/>
+      <c r="C295" s="11"/>
+      <c r="D295" s="11"/>
     </row>
     <row r="296" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A296" s="1" t="s">
+      <c r="A296" s="16" t="s">
         <v>303</v>
       </c>
+      <c r="B296" s="31"/>
+      <c r="C296" s="31"/>
+      <c r="D296" s="31"/>
     </row>
     <row r="297" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A297" s="1" t="s">
+      <c r="A297" s="16" t="s">
         <v>304</v>
       </c>
+      <c r="B297" s="31"/>
+      <c r="C297" s="31"/>
+      <c r="D297" s="31"/>
     </row>
     <row r="298" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A298" s="1" t="s">
+      <c r="A298" s="16" t="s">
         <v>305</v>
       </c>
+      <c r="B298" s="31"/>
+      <c r="C298" s="31"/>
+      <c r="D298" s="31"/>
     </row>
     <row r="299" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A299" s="1" t="s">
+      <c r="A299" s="15" t="s">
         <v>306</v>
       </c>
+      <c r="B299" s="11"/>
+      <c r="C299" s="11"/>
+      <c r="D299" s="11"/>
     </row>
     <row r="300" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A300" s="1" t="s">
+      <c r="A300" s="15" t="s">
         <v>307</v>
       </c>
+      <c r="B300" s="11"/>
+      <c r="C300" s="11"/>
+      <c r="D300" s="11"/>
     </row>
     <row r="301" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A301" s="1" t="s">
+      <c r="A301" s="15" t="s">
         <v>308</v>
       </c>
+      <c r="B301" s="11"/>
+      <c r="C301" s="11"/>
+      <c r="D301" s="11"/>
     </row>
     <row r="302" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A302" s="1" t="s">
+      <c r="A302" s="16" t="s">
         <v>309</v>
       </c>
+      <c r="B302" s="31"/>
+      <c r="C302" s="31"/>
+      <c r="D302" s="31"/>
     </row>
     <row r="303" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A303" s="1" t="s">
+      <c r="A303" s="16" t="s">
         <v>310</v>
       </c>
+      <c r="B303" s="31"/>
+      <c r="C303" s="31"/>
+      <c r="D303" s="31"/>
     </row>
     <row r="304" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A304" s="1" t="s">
+      <c r="A304" s="16" t="s">
         <v>311</v>
       </c>
+      <c r="B304" s="31"/>
+      <c r="C304" s="31"/>
+      <c r="D304" s="31"/>
     </row>
     <row r="305" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A305" s="1" t="s">
+      <c r="A305" s="15" t="s">
         <v>312</v>
       </c>
+      <c r="B305" s="11"/>
+      <c r="C305" s="11"/>
+      <c r="D305" s="11"/>
     </row>
     <row r="306" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A306" s="1" t="s">
+      <c r="A306" s="15" t="s">
         <v>313</v>
       </c>
+      <c r="B306" s="11"/>
+      <c r="C306" s="11"/>
+      <c r="D306" s="11"/>
     </row>
     <row r="307" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A307" s="1" t="s">
+      <c r="A307" s="15" t="s">
         <v>314</v>
       </c>
+      <c r="B307" s="11"/>
+      <c r="C307" s="11"/>
+      <c r="D307" s="11"/>
     </row>
     <row r="308" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A308" s="1" t="s">
+      <c r="A308" s="16" t="s">
         <v>315</v>
       </c>
+      <c r="B308" s="31"/>
+      <c r="C308" s="31"/>
+      <c r="D308" s="31"/>
     </row>
     <row r="309" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A309" s="1" t="s">
+      <c r="A309" s="16" t="s">
         <v>316</v>
       </c>
+      <c r="B309" s="31"/>
+      <c r="C309" s="31"/>
+      <c r="D309" s="31"/>
     </row>
     <row r="310" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A310" s="1" t="s">
+      <c r="A310" s="16" t="s">
         <v>317</v>
       </c>
+      <c r="B310" s="31"/>
+      <c r="C310" s="31"/>
+      <c r="D310" s="31"/>
     </row>
     <row r="311" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A311" s="1" t="s">
+      <c r="A311" s="15" t="s">
         <v>318</v>
       </c>
+      <c r="B311" s="11"/>
+      <c r="C311" s="11"/>
+      <c r="D311" s="11"/>
     </row>
     <row r="312" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A312" s="1" t="s">
+      <c r="A312" s="15" t="s">
         <v>319</v>
       </c>
+      <c r="B312" s="11"/>
+      <c r="C312" s="11"/>
+      <c r="D312" s="11"/>
     </row>
     <row r="313" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A313" s="1" t="s">
+      <c r="A313" s="15" t="s">
         <v>320</v>
       </c>
+      <c r="B313" s="11"/>
+      <c r="C313" s="11"/>
+      <c r="D313" s="11"/>
     </row>
     <row r="314" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A314" s="1" t="s">
+      <c r="A314" s="16" t="s">
         <v>321</v>
       </c>
+      <c r="B314" s="31"/>
+      <c r="C314" s="31"/>
+      <c r="D314" s="31"/>
     </row>
     <row r="315" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A315" s="1" t="s">
+      <c r="A315" s="16" t="s">
         <v>322</v>
       </c>
+      <c r="B315" s="31"/>
+      <c r="C315" s="31"/>
+      <c r="D315" s="31"/>
     </row>
     <row r="316" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A316" s="1" t="s">
+      <c r="A316" s="16" t="s">
         <v>323</v>
       </c>
+      <c r="B316" s="31"/>
+      <c r="C316" s="31"/>
+      <c r="D316" s="31"/>
     </row>
     <row r="317" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A317" s="1" t="s">
+      <c r="A317" s="16" t="s">
         <v>324</v>
       </c>
+      <c r="B317" s="31"/>
+      <c r="C317" s="31"/>
+      <c r="D317" s="31"/>
     </row>
     <row r="318" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="32" t="s">
@@ -7131,30 +7447,30 @@
       <c r="B318" s="33"/>
       <c r="C318" s="33"/>
       <c r="D318" s="33"/>
-      <c r="E318" s="33"/>
-      <c r="F318" s="34"/>
+      <c r="E318" s="34"/>
+      <c r="F318" s="35"/>
     </row>
     <row r="319" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A319" s="16" t="s">
+      <c r="A319" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="B319" s="12" t="n">
+      <c r="B319" s="9" t="n">
         <v>45595</v>
       </c>
-      <c r="C319" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D319" s="31"/>
+      <c r="C319" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" s="11"/>
     </row>
     <row r="320" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A320" s="16" t="s">
+      <c r="A320" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="B320" s="31"/>
-      <c r="C320" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D320" s="13" t="n">
+      <c r="B320" s="11"/>
+      <c r="C320" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" s="10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -8850,7 +9166,7 @@
         <v>654</v>
       </c>
       <c r="B647" s="11"/>
-      <c r="C647" s="35" t="s">
+      <c r="C647" s="36" t="s">
         <v>8</v>
       </c>
       <c r="D647" s="11"/>
@@ -8863,7 +9179,7 @@
         <v>655</v>
       </c>
       <c r="B648" s="11"/>
-      <c r="C648" s="35" t="s">
+      <c r="C648" s="36" t="s">
         <v>8</v>
       </c>
       <c r="D648" s="11"/>
@@ -8876,7 +9192,7 @@
         <v>656</v>
       </c>
       <c r="B649" s="11"/>
-      <c r="C649" s="35" t="s">
+      <c r="C649" s="36" t="s">
         <v>8</v>
       </c>
       <c r="D649" s="11"/>
@@ -8889,10 +9205,10 @@
         <v>657</v>
       </c>
       <c r="B650" s="11"/>
-      <c r="C650" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D650" s="35"/>
+      <c r="C650" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D650" s="36"/>
       <c r="E650" s="2" t="s">
         <v>9</v>
       </c>
@@ -8902,10 +9218,10 @@
         <v>658</v>
       </c>
       <c r="B651" s="11"/>
-      <c r="C651" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D651" s="35"/>
+      <c r="C651" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D651" s="36"/>
       <c r="E651" s="2" t="s">
         <v>9</v>
       </c>
@@ -8915,10 +9231,10 @@
         <v>659</v>
       </c>
       <c r="B652" s="11"/>
-      <c r="C652" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D652" s="35" t="n">
+      <c r="C652" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D652" s="36" t="n">
         <v>8</v>
       </c>
       <c r="E652" s="2" t="s">
@@ -8935,7 +9251,7 @@
       <c r="C653" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D653" s="36"/>
+      <c r="D653" s="37"/>
       <c r="E653" s="2" t="s">
         <v>9</v>
       </c>
@@ -10134,31 +10450,31 @@
       <c r="A740" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B740" s="37"/>
+      <c r="B740" s="38"/>
     </row>
     <row r="741" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A741" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B741" s="37"/>
+      <c r="B741" s="38"/>
     </row>
     <row r="742" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B742" s="37"/>
+      <c r="B742" s="38"/>
     </row>
     <row r="743" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B743" s="37"/>
+      <c r="B743" s="38"/>
     </row>
     <row r="744" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A744" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B744" s="37"/>
+      <c r="B744" s="38"/>
     </row>
     <row r="745" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A745" s="1" t="s">
@@ -10233,25 +10549,25 @@
       <c r="A750" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="B750" s="37"/>
+      <c r="B750" s="38"/>
     </row>
     <row r="751" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A751" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="B751" s="37"/>
+      <c r="B751" s="38"/>
     </row>
     <row r="752" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A752" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="B752" s="37"/>
+      <c r="B752" s="38"/>
     </row>
     <row r="753" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A753" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="B753" s="37"/>
+      <c r="B753" s="38"/>
     </row>
     <row r="754" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A754" s="1" t="s">
@@ -10429,19 +10745,19 @@
       <c r="A766" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="B766" s="37"/>
+      <c r="B766" s="38"/>
     </row>
     <row r="767" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A767" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="B767" s="37"/>
+      <c r="B767" s="38"/>
     </row>
     <row r="768" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A768" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="B768" s="37"/>
+      <c r="B768" s="38"/>
     </row>
     <row r="769" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A769" s="1" t="s">
@@ -10462,7 +10778,7 @@
       <c r="A772" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B772" s="38" t="n">
+      <c r="B772" s="39" t="n">
         <v>45617</v>
       </c>
       <c r="C772" s="2" t="s">
@@ -10774,55 +11090,55 @@
       <c r="A820" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B820" s="37"/>
+      <c r="B820" s="38"/>
     </row>
     <row r="821" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B821" s="37"/>
+      <c r="B821" s="38"/>
     </row>
     <row r="822" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B822" s="37"/>
+      <c r="B822" s="38"/>
     </row>
     <row r="823" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A823" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B823" s="37"/>
+      <c r="B823" s="38"/>
     </row>
     <row r="824" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A824" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B824" s="37"/>
+      <c r="B824" s="38"/>
     </row>
     <row r="825" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A825" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B825" s="37"/>
+      <c r="B825" s="38"/>
     </row>
     <row r="826" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B826" s="37"/>
+      <c r="B826" s="38"/>
     </row>
     <row r="827" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A827" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B827" s="37"/>
+      <c r="B827" s="38"/>
     </row>
     <row r="828" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A828" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B828" s="37"/>
+      <c r="B828" s="38"/>
     </row>
     <row r="829" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A829" s="8" t="s">
@@ -11485,7 +11801,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C97" activeCellId="0" sqref="C97"/>
+      <selection pane="bottomLeft" activeCell="C97" activeCellId="1" sqref="A287:D289 C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11516,7 +11832,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="40" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="n">
@@ -12719,7 +13035,7 @@
       <c r="A87" s="14" t="s">
         <v>949</v>
       </c>
-      <c r="B87" s="40" t="n">
+      <c r="B87" s="41" t="n">
         <v>45684</v>
       </c>
       <c r="C87" s="29" t="s">
@@ -13408,13 +13724,13 @@
       <c r="A154" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="B154" s="37"/>
+      <c r="B154" s="38"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="14" t="s">
         <v>1017</v>
       </c>
-      <c r="B155" s="37"/>
+      <c r="B155" s="38"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
@@ -13571,13 +13887,13 @@
       <c r="A167" s="1" t="s">
         <v>1030</v>
       </c>
-      <c r="B167" s="37"/>
+      <c r="B167" s="38"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
         <v>1031</v>
       </c>
-      <c r="B168" s="37"/>
+      <c r="B168" s="38"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="14" t="s">
@@ -13668,49 +13984,49 @@
       <c r="A186" s="14" t="s">
         <v>1049</v>
       </c>
-      <c r="B186" s="37"/>
+      <c r="B186" s="38"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="14" t="s">
         <v>1050</v>
       </c>
-      <c r="B187" s="37"/>
+      <c r="B187" s="38"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="14" t="s">
         <v>1051</v>
       </c>
-      <c r="B188" s="37"/>
+      <c r="B188" s="38"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
         <v>1052</v>
       </c>
-      <c r="B189" s="37"/>
+      <c r="B189" s="38"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="14" t="s">
         <v>1053</v>
       </c>
-      <c r="B190" s="37"/>
+      <c r="B190" s="38"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="14" t="s">
         <v>1054</v>
       </c>
-      <c r="B191" s="37"/>
+      <c r="B191" s="38"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
         <v>1055</v>
       </c>
-      <c r="B192" s="37"/>
+      <c r="B192" s="38"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="14" t="s">
         <v>1056</v>
       </c>
-      <c r="B193" s="37"/>
+      <c r="B193" s="38"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
@@ -13791,31 +14107,31 @@
       <c r="A209" s="14" t="s">
         <v>1072</v>
       </c>
-      <c r="B209" s="37"/>
+      <c r="B209" s="38"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="14" t="s">
         <v>1073</v>
       </c>
-      <c r="B210" s="37"/>
+      <c r="B210" s="38"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="14" t="s">
         <v>1074</v>
       </c>
-      <c r="B211" s="37"/>
+      <c r="B211" s="38"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="14" t="s">
         <v>1075</v>
       </c>
-      <c r="B212" s="37"/>
+      <c r="B212" s="38"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="14" t="s">
         <v>1076</v>
       </c>
-      <c r="B213" s="37"/>
+      <c r="B213" s="38"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="1082">
   <si>
     <t xml:space="preserve">Not Metered</t>
   </si>
@@ -3768,9 +3768,9 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A314" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A287" activeCellId="0" sqref="A287:D289"/>
+      <selection pane="bottomLeft" activeCell="C288" activeCellId="0" sqref="C288:C289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7172,8 +7172,12 @@
       <c r="A284" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="B284" s="31"/>
-      <c r="C284" s="31"/>
+      <c r="B284" s="12" t="n">
+        <v>45698</v>
+      </c>
+      <c r="C284" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D284" s="31"/>
     </row>
     <row r="285" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7181,7 +7185,9 @@
         <v>292</v>
       </c>
       <c r="B285" s="31"/>
-      <c r="C285" s="31"/>
+      <c r="C285" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D285" s="31"/>
     </row>
     <row r="286" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7189,15 +7195,21 @@
         <v>293</v>
       </c>
       <c r="B286" s="31"/>
-      <c r="C286" s="31"/>
+      <c r="C286" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D286" s="31"/>
     </row>
     <row r="287" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="B287" s="11"/>
-      <c r="C287" s="11"/>
+      <c r="B287" s="9" t="n">
+        <v>45698</v>
+      </c>
+      <c r="C287" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D287" s="11"/>
     </row>
     <row r="288" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7205,7 +7217,9 @@
         <v>295</v>
       </c>
       <c r="B288" s="11"/>
-      <c r="C288" s="11"/>
+      <c r="C288" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D288" s="11"/>
     </row>
     <row r="289" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7213,7 +7227,9 @@
         <v>296</v>
       </c>
       <c r="B289" s="11"/>
-      <c r="C289" s="11"/>
+      <c r="C289" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D289" s="11"/>
     </row>
     <row r="290" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11801,7 +11817,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C97" activeCellId="1" sqref="A287:D289 C97"/>
+      <selection pane="bottomLeft" activeCell="C97" activeCellId="1" sqref="C288:C289 C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Menaion_Vespers_notmetered" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Meanion_Matins_notmetered" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Compare" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="1118">
   <si>
     <t xml:space="preserve">Not Metered</t>
   </si>
@@ -3267,6 +3269,137 @@
   </si>
   <si>
     <t xml:space="preserve"> me.m12.d30_en_US_oca.meMA.LaudsGlory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automelon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m06.d09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m07.d05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Τὴν Σοφίαν καὶ Λόγον ἐν σῇ γαστρί, συλλαβοῦσα 
+ἀφράστως 
+Μήτηρ Θεοῦ, τῷ κόσμῳ ἐκύησας, τὸν τὸν κόσμον 
+κατέχοντα· 
+καὶ ἐν ἀγκάλαις ἔσχες, τὸν πάντα συνέχοντα, 
+τὸν τροφοδότην πάντων, καὶ πλάστην καὶ Κύριον. 
+Ὅθεν δυσωπῶ σε, Παναγία Παρθένε, ῥυσθῆναι πταισμάτων μου, ὅταν μέλλω παρίστασθαι, πρὸ προσώπου τοῦ Κτίστου μου. Δέσποινα Παρθένε ἁγνή, τὴν σὴν βοήθειαν τότε μοι δώρησαι· 
+καὶ γὰρ δύνασαι, ὅσα θέλεις πανύμνητε.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Τὴν Σοφίαν καὶ Λόγον ἐν σῇ γαστρί, συλλαβοῦσα 
+ἀφράστως 
+Μήτηρ Θεοῦ, τῷ κόσμῳ ἐκύησας, τὸν τὸν κόσμον 
+κατέχοντα, 
+καὶ ἐν ἀγκάλαις ἔσχες, τὸν πάντα συνέχοντα, 
+καὶ ἐκ μαζῶν ἐθήλασας, τὸν πάντας ἐκτρέφοντα. 
+Ὅθεν δυσωπῶ σε, Παναγία Παρθένε, ῥυσθῆναι πταισμάτων μου, ὅταν μέλλω παρίστασθαι, πρὸ προσώπου τοῦ Κτίστου μου, Δέσποινα Παρθένε ἁγνὴ τὴν σὴν βοήθειαν τότε μοι δώρησαι· 
+καὶ γὰρ δύνασαι, ὅσα θέλεις πανύμνητε.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Τὴν Σοφίαν καὶ Λόγον ἐν σῇ γαστρί, συλλαβοῦσα 
+ἀφλέκτως 
+Μήτηρ Θεοῦ, τῷ κόσμῳ ἐκύησας, τὸν τὸν κόσμον 
+συνέχοντα, 
+καὶ ἐκ μαζῶν ἐθήλασας, τὸν πάντας ἐκτρέφοντα, 
+καὶ ἐν ἀγκάλαις ἔσχες, τὸν πάντα βαστάζοντα· 
+ὅθεν δυσωπῶ σε, Παναγία Παρθένε, ῥυσθῆναι πταισμάτων μου, ὅταν μέλλω παρίστασθαι, πρὸ προσώπου τοῦ Κτίστου μου, Δέσποινα Παρθένε ἁγνή, τὴν σὴν βοήθειαν τότε μοι δώρησαι· 
+σὲ γὰρ ἔχω ἐλπίδα ὁ δοῦλός σου.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Τὴν Σοφίαν καὶ Λόγον ἐν σῇ γαστρί, συλλαβοῦσα </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἀφράστως </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἀφλέκτως </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Μήτηρ Θεοῦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">τῷ κόσμῳ ἐκύησας, τὸν τὸν κόσμον </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ἀφράστως ἀπεκύησας, τὸν τὰ πάντα</t>
+  </si>
+  <si>
+    <t xml:space="preserve">κατέχοντα· </t>
+  </si>
+  <si>
+    <t xml:space="preserve">συνέχοντα,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ποιήσαντα</t>
+  </si>
+  <si>
+    <t xml:space="preserve">καὶ ἐν ἀγκάλαις ἔσχες, τὸν πάντα συνέχοντα, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">καὶ ἐκ μαζῶν ἐθήλασας, τὸν πάντας ἐκτρέφοντα, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">καὶ ἐν ἀγκάλαις ἔσχες, τὸν πάντα κατέχοντα </t>
+  </si>
+  <si>
+    <t xml:space="preserve">τὸν τροφοδότην πάντων, καὶ πλάστην καὶ Κύριον. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">καὶ ἐκ μαζῶν ἐθήλασας, τὸν πάντας ἐκτρέφοντα. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">καὶ ἐν ἀγκάλαις ἔσχες, τὸν πάντα βαστάζοντα· </t>
+  </si>
+  <si>
+    <t xml:space="preserve">καὶ ἐκ μαζῶν ἐθήλασας, τὸν κόσμον ἐκτρέφοντα. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">τὸν τροφοδότην πάντων, καὶ Πλάστην τῆς κτίσεως· 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ὅθεν δυσωπῶ σε, Παναγία Παρθένε, ῥυσθῆναι πταισμάτων μου, ὅταν μέλλω παρίστασθαι, πρὸ προσώπου τοῦ Κτίστου μου. Δέσποινα Παρθένε ἁγνή, τὴν σὴν βοήθειαν </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Α</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ὅθεν δυσωπῶ σε, Παναγία Παρθένε· Ἐν ὥρᾳ τῆς κρίσεως, ὅταν μέλλω παρίστασθαι, πρὸ προσώπου τοῦ Κτίστου μου. δώρησαί μοι τότε τὴν σήν, προστασίαν </t>
+  </si>
+  <si>
+    <t xml:space="preserve">τότε μοι δώρησαι·</t>
+  </si>
+  <si>
+    <t xml:space="preserve">τότε παράχσου μοι·</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Δέσποινα πανάχραντε·</t>
+  </si>
+  <si>
+    <t xml:space="preserve">καὶ γὰρ δύνασαι, ὅσα θέλεις πανύμνητε.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">σὲ γὰρ ἔχω ἐλπίδα ὁ δοῦλός σου.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">σὲ γὰρ ἔχω ἐλπίδα, ὁ ἀνάξιος δοῦλός σου.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m01.d17.Kathisma1T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m03.d06.Ode3T</t>
   </si>
 </sst>
 </file>
@@ -3277,7 +3410,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3320,6 +3453,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3413,7 +3551,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3580,6 +3718,30 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -3767,10 +3929,10 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C288" activeCellId="0" sqref="C288:C289"/>
+      <selection pane="bottomLeft" activeCell="A313" activeCellId="0" sqref="A313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7236,8 +7398,12 @@
       <c r="A290" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="B290" s="31"/>
-      <c r="C290" s="31"/>
+      <c r="B290" s="12" t="n">
+        <v>45699</v>
+      </c>
+      <c r="C290" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D290" s="31"/>
     </row>
     <row r="291" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7245,7 +7411,9 @@
         <v>298</v>
       </c>
       <c r="B291" s="31"/>
-      <c r="C291" s="31"/>
+      <c r="C291" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D291" s="31"/>
     </row>
     <row r="292" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7253,15 +7421,21 @@
         <v>299</v>
       </c>
       <c r="B292" s="31"/>
-      <c r="C292" s="31"/>
+      <c r="C292" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D292" s="31"/>
     </row>
     <row r="293" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="B293" s="11"/>
-      <c r="C293" s="11"/>
+      <c r="B293" s="9" t="n">
+        <v>45699</v>
+      </c>
+      <c r="C293" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D293" s="11"/>
     </row>
     <row r="294" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7269,7 +7443,9 @@
         <v>301</v>
       </c>
       <c r="B294" s="11"/>
-      <c r="C294" s="11"/>
+      <c r="C294" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D294" s="11"/>
     </row>
     <row r="295" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7277,15 +7453,21 @@
         <v>302</v>
       </c>
       <c r="B295" s="11"/>
-      <c r="C295" s="11"/>
+      <c r="C295" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D295" s="11"/>
     </row>
     <row r="296" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="B296" s="31"/>
-      <c r="C296" s="31"/>
+      <c r="B296" s="12" t="n">
+        <v>45699</v>
+      </c>
+      <c r="C296" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D296" s="31"/>
     </row>
     <row r="297" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7293,7 +7475,9 @@
         <v>304</v>
       </c>
       <c r="B297" s="31"/>
-      <c r="C297" s="31"/>
+      <c r="C297" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D297" s="31"/>
     </row>
     <row r="298" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7301,15 +7485,21 @@
         <v>305</v>
       </c>
       <c r="B298" s="31"/>
-      <c r="C298" s="31"/>
+      <c r="C298" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D298" s="31"/>
     </row>
     <row r="299" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="B299" s="11"/>
-      <c r="C299" s="11"/>
+      <c r="B299" s="9" t="n">
+        <v>45699</v>
+      </c>
+      <c r="C299" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D299" s="11"/>
     </row>
     <row r="300" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7317,7 +7507,9 @@
         <v>307</v>
       </c>
       <c r="B300" s="11"/>
-      <c r="C300" s="11"/>
+      <c r="C300" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D300" s="11"/>
     </row>
     <row r="301" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7325,15 +7517,21 @@
         <v>308</v>
       </c>
       <c r="B301" s="11"/>
-      <c r="C301" s="11"/>
+      <c r="C301" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D301" s="11"/>
     </row>
     <row r="302" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="B302" s="31"/>
-      <c r="C302" s="31"/>
+      <c r="B302" s="12" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C302" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D302" s="31"/>
     </row>
     <row r="303" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7341,7 +7539,9 @@
         <v>310</v>
       </c>
       <c r="B303" s="31"/>
-      <c r="C303" s="31"/>
+      <c r="C303" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D303" s="31"/>
     </row>
     <row r="304" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7349,15 +7549,21 @@
         <v>311</v>
       </c>
       <c r="B304" s="31"/>
-      <c r="C304" s="31"/>
+      <c r="C304" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D304" s="31"/>
     </row>
     <row r="305" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="15" t="s">
         <v>312</v>
       </c>
-      <c r="B305" s="11"/>
-      <c r="C305" s="11"/>
+      <c r="B305" s="9" t="n">
+        <v>45700</v>
+      </c>
+      <c r="C305" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D305" s="11"/>
     </row>
     <row r="306" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7365,7 +7571,9 @@
         <v>313</v>
       </c>
       <c r="B306" s="11"/>
-      <c r="C306" s="11"/>
+      <c r="C306" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D306" s="11"/>
     </row>
     <row r="307" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7373,15 +7581,21 @@
         <v>314</v>
       </c>
       <c r="B307" s="11"/>
-      <c r="C307" s="11"/>
+      <c r="C307" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D307" s="11"/>
     </row>
     <row r="308" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="B308" s="31"/>
-      <c r="C308" s="31"/>
+      <c r="B308" s="12" t="n">
+        <v>45701</v>
+      </c>
+      <c r="C308" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D308" s="31"/>
     </row>
     <row r="309" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7389,7 +7603,9 @@
         <v>316</v>
       </c>
       <c r="B309" s="31"/>
-      <c r="C309" s="31"/>
+      <c r="C309" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D309" s="31"/>
     </row>
     <row r="310" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7397,7 +7613,9 @@
         <v>317</v>
       </c>
       <c r="B310" s="31"/>
-      <c r="C310" s="31"/>
+      <c r="C310" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D310" s="31"/>
     </row>
     <row r="311" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7417,12 +7635,12 @@
       <c r="D312" s="11"/>
     </row>
     <row r="313" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A313" s="15" t="s">
+      <c r="A313" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="B313" s="11"/>
-      <c r="C313" s="11"/>
-      <c r="D313" s="11"/>
+      <c r="B313" s="31"/>
+      <c r="C313" s="31"/>
+      <c r="D313" s="31"/>
     </row>
     <row r="314" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="16" t="s">
@@ -11817,7 +12035,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C97" activeCellId="1" sqref="C288:C289 C97"/>
+      <selection pane="bottomLeft" activeCell="C97" activeCellId="0" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14183,4 +14401,272 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="42" width="35.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="42" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="42" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="43" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="44"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="45"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="28.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="46" width="28.66"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="47" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="47" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D2" s="46" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="47" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="47" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="47" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="47" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="47" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D7" s="47" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E7" s="47" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="47" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="47" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E9" s="46" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="47" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E10" s="47" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="46" t="s">
+        <v>1116</v>
+      </c>
+      <c r="E12" s="46" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Menaion_Vespers_notmetered" sheetId="1" state="visible" r:id="rId3"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2075" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="1118">
   <si>
     <t xml:space="preserve">Not Metered</t>
   </si>
@@ -3410,7 +3410,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3453,11 +3453,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3551,7 +3546,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3720,27 +3715,23 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3929,10 +3920,10 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A313" activeCellId="0" sqref="A313"/>
+      <selection pane="bottomLeft" activeCell="D319" activeCellId="0" sqref="D319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3968,14 +3959,14 @@
       </c>
       <c r="D2" s="5" t="n">
         <f aca="false">SUM(D3:D856)</f>
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">854-D2</f>
-        <v>493</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7360,7 +7351,9 @@
       <c r="C286" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D286" s="31"/>
+      <c r="D286" s="31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="15" t="s">
@@ -7392,7 +7385,9 @@
       <c r="C289" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D289" s="11"/>
+      <c r="D289" s="11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="16" t="s">
@@ -7424,7 +7419,9 @@
       <c r="C292" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D292" s="31"/>
+      <c r="D292" s="31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="15" t="s">
@@ -7456,7 +7453,9 @@
       <c r="C295" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D295" s="11"/>
+      <c r="D295" s="11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="16" t="s">
@@ -7488,7 +7487,9 @@
       <c r="C298" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D298" s="31"/>
+      <c r="D298" s="31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="15" t="s">
@@ -7520,7 +7521,9 @@
       <c r="C301" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D301" s="11"/>
+      <c r="D301" s="11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="16" t="s">
@@ -7552,7 +7555,9 @@
       <c r="C304" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D304" s="31"/>
+      <c r="D304" s="31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="15" t="s">
@@ -7584,7 +7589,9 @@
       <c r="C307" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D307" s="11"/>
+      <c r="D307" s="11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="16" t="s">
@@ -7616,14 +7623,20 @@
       <c r="C310" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D310" s="31"/>
+      <c r="D310" s="31" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="15" t="s">
         <v>318</v>
       </c>
-      <c r="B311" s="11"/>
-      <c r="C311" s="11"/>
+      <c r="B311" s="9" t="n">
+        <v>45702</v>
+      </c>
+      <c r="C311" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="D311" s="11"/>
     </row>
     <row r="312" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7631,15 +7644,23 @@
         <v>319</v>
       </c>
       <c r="B312" s="11"/>
-      <c r="C312" s="11"/>
-      <c r="D312" s="11"/>
+      <c r="C312" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D312" s="11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="B313" s="31"/>
-      <c r="C313" s="31"/>
+      <c r="B313" s="12" t="n">
+        <v>45702</v>
+      </c>
+      <c r="C313" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D313" s="31"/>
     </row>
     <row r="314" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7647,7 +7668,9 @@
         <v>321</v>
       </c>
       <c r="B314" s="31"/>
-      <c r="C314" s="31"/>
+      <c r="C314" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D314" s="31"/>
     </row>
     <row r="315" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7655,7 +7678,9 @@
         <v>322</v>
       </c>
       <c r="B315" s="31"/>
-      <c r="C315" s="31"/>
+      <c r="C315" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D315" s="31"/>
     </row>
     <row r="316" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7663,7 +7688,9 @@
         <v>323</v>
       </c>
       <c r="B316" s="31"/>
-      <c r="C316" s="31"/>
+      <c r="C316" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D316" s="31"/>
     </row>
     <row r="317" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7671,7 +7698,9 @@
         <v>324</v>
       </c>
       <c r="B317" s="31"/>
-      <c r="C317" s="31"/>
+      <c r="C317" s="31" t="s">
+        <v>8</v>
+      </c>
       <c r="D317" s="31"/>
     </row>
     <row r="318" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7679,8 +7708,12 @@
         <v>325</v>
       </c>
       <c r="B318" s="33"/>
-      <c r="C318" s="33"/>
-      <c r="D318" s="33"/>
+      <c r="C318" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D318" s="33" t="n">
+        <v>6</v>
+      </c>
       <c r="E318" s="34"/>
       <c r="F318" s="35"/>
     </row>
@@ -12033,7 +12066,7 @@
   <dimension ref="A1:F218"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="C97" activeCellId="0" sqref="C97"/>
     </sheetView>
@@ -14417,7 +14450,7 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="42" width="35.48"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="42" width="11.53"/>
   </cols>
   <sheetData>
@@ -14447,10 +14480,10 @@
       <c r="A6" s="44"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45"/>
+      <c r="A7" s="21"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0"/>
+      <c r="A8" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -14470,195 +14503,195 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="46" width="28.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="45" width="28.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>1088</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>1089</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>1089</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>1089</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="46" t="s">
         <v>1090</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="45" t="s">
         <v>1089</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>1091</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="45" t="s">
         <v>1092</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="45" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="47" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="46" t="s">
         <v>1093</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>1089</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>1089</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>1089</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="45" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="46" t="s">
         <v>1094</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="45" t="s">
         <v>1089</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>1089</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="45" t="s">
         <v>1095</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="45" t="s">
         <v>1089</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="s">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="46" t="s">
         <v>1096</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="45" t="s">
         <v>1089</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="46" t="s">
         <v>1097</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="45" t="s">
         <v>1098</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="45" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="46" t="s">
         <v>1099</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="45" t="s">
         <v>1089</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="46" t="s">
         <v>1100</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="46" t="s">
         <v>1101</v>
       </c>
-      <c r="E6" s="46" t="s">
+      <c r="E6" s="45" t="s">
         <v>1089</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="46" t="s">
         <v>1102</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="46" t="s">
         <v>1103</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="46" t="s">
         <v>1104</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="46" t="s">
         <v>1105</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="46" t="s">
         <v>1106</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="46" t="s">
         <v>1107</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>1108</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="45" t="s">
         <v>1108</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="45" t="s">
         <v>1108</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="46" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="46" t="s">
         <v>1110</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="45" t="s">
         <v>1108</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="45" t="s">
         <v>1108</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="45" t="s">
         <v>1111</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="45" t="s">
         <v>1112</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="46" t="s">
         <v>1113</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="45" t="s">
         <v>1089</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="46" t="s">
         <v>1114</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="45" t="s">
         <v>1089</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="46" t="s">
         <v>1115</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="46" t="s">
+      <c r="D12" s="45" t="s">
         <v>1116</v>
       </c>
-      <c r="E12" s="46" t="s">
+      <c r="E12" s="45" t="s">
         <v>1117</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0"/>
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2083" uniqueCount="1118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="1119">
   <si>
     <t xml:space="preserve">Not Metered</t>
   </si>
@@ -2876,6 +2876,9 @@
   </si>
   <si>
     <t xml:space="preserve"> me.m02.d26_en_US_andronache.alt1.meMA.Kathisma21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHAT ABOUT KONTAKIA?</t>
   </si>
   <si>
     <t xml:space="preserve"> me.m02.d26_en_US_andronache.alt1.meMA.Exaposteilarion1</t>
@@ -3546,7 +3549,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3684,11 +3687,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -3697,10 +3700,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -3921,9 +3920,9 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A299" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A436" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D319" activeCellId="0" sqref="D319"/>
+      <selection pane="bottomLeft" activeCell="A459" activeCellId="0" sqref="A459:D461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6304,6 +6303,9 @@
         <v>8</v>
       </c>
       <c r="D180" s="10"/>
+      <c r="E180" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="181" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="15" t="s">
@@ -6314,6 +6316,9 @@
         <v>8</v>
       </c>
       <c r="D181" s="10"/>
+      <c r="E181" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="182" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="15" t="s">
@@ -6326,6 +6331,9 @@
       <c r="D182" s="10" t="n">
         <v>3</v>
       </c>
+      <c r="E182" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="16" t="s">
@@ -6338,6 +6346,9 @@
         <v>8</v>
       </c>
       <c r="D183" s="13"/>
+      <c r="E183" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="16" t="s">
@@ -6348,6 +6359,9 @@
         <v>8</v>
       </c>
       <c r="D184" s="13"/>
+      <c r="E184" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="16" t="s">
@@ -6360,6 +6374,9 @@
       <c r="D185" s="13" t="n">
         <v>3</v>
       </c>
+      <c r="E185" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="15" t="s">
@@ -6372,6 +6389,9 @@
         <v>8</v>
       </c>
       <c r="D186" s="10"/>
+      <c r="E186" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="15" t="s">
@@ -6382,6 +6402,9 @@
         <v>8</v>
       </c>
       <c r="D187" s="10"/>
+      <c r="E187" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="188" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="15" t="s">
@@ -6394,6 +6417,9 @@
       <c r="D188" s="10" t="n">
         <v>3</v>
       </c>
+      <c r="E188" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="189" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="16" t="s">
@@ -6406,6 +6432,9 @@
         <v>8</v>
       </c>
       <c r="D189" s="13"/>
+      <c r="E189" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="190" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="16" t="s">
@@ -6418,6 +6447,9 @@
       <c r="D190" s="13" t="n">
         <v>2</v>
       </c>
+      <c r="E190" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="191" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
@@ -6448,6 +6480,9 @@
         <v>8</v>
       </c>
       <c r="D194" s="13"/>
+      <c r="E194" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="16" t="s">
@@ -6458,6 +6493,9 @@
         <v>8</v>
       </c>
       <c r="D195" s="13"/>
+      <c r="E195" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="16" t="s">
@@ -6470,6 +6508,9 @@
       <c r="D196" s="13" t="n">
         <v>3</v>
       </c>
+      <c r="E196" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="15" t="s">
@@ -6482,6 +6523,9 @@
         <v>8</v>
       </c>
       <c r="D197" s="11"/>
+      <c r="E197" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="15" t="s">
@@ -6492,6 +6536,9 @@
         <v>8</v>
       </c>
       <c r="D198" s="11"/>
+      <c r="E198" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="15" t="s">
@@ -6502,6 +6549,9 @@
         <v>8</v>
       </c>
       <c r="D199" s="11"/>
+      <c r="E199" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="15" t="s">
@@ -6512,6 +6562,9 @@
         <v>8</v>
       </c>
       <c r="D200" s="10"/>
+      <c r="E200" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="15" t="s">
@@ -6522,6 +6575,9 @@
         <v>8</v>
       </c>
       <c r="D201" s="10"/>
+      <c r="E201" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="15" t="s">
@@ -6534,6 +6590,9 @@
       <c r="D202" s="10" t="n">
         <v>6</v>
       </c>
+      <c r="E202" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="203" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="16" t="s">
@@ -6546,6 +6605,9 @@
         <v>8</v>
       </c>
       <c r="D203" s="13"/>
+      <c r="E203" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="204" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="16" t="s">
@@ -6556,6 +6618,9 @@
         <v>8</v>
       </c>
       <c r="D204" s="13"/>
+      <c r="E204" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="205" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="16" t="s">
@@ -6568,6 +6633,9 @@
       <c r="D205" s="13" t="n">
         <v>3</v>
       </c>
+      <c r="E205" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="206" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="15" t="s">
@@ -6580,6 +6648,9 @@
         <v>8</v>
       </c>
       <c r="D206" s="11"/>
+      <c r="E206" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="207" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="15" t="s">
@@ -6590,6 +6661,9 @@
         <v>8</v>
       </c>
       <c r="D207" s="11"/>
+      <c r="E207" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="208" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="15" t="s">
@@ -6602,6 +6676,9 @@
       <c r="D208" s="11" t="n">
         <v>3</v>
       </c>
+      <c r="E208" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="209" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
@@ -6632,6 +6709,9 @@
         <v>8</v>
       </c>
       <c r="D212" s="11"/>
+      <c r="E212" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="15" t="s">
@@ -6642,6 +6722,9 @@
         <v>8</v>
       </c>
       <c r="D213" s="11"/>
+      <c r="E213" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="15" t="s">
@@ -6652,6 +6735,9 @@
         <v>8</v>
       </c>
       <c r="D214" s="11"/>
+      <c r="E214" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="215" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="15" t="s">
@@ -6664,6 +6750,9 @@
       <c r="D215" s="11" t="n">
         <v>4</v>
       </c>
+      <c r="E215" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="216" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="16" t="s">
@@ -6676,6 +6765,9 @@
         <v>8</v>
       </c>
       <c r="D216" s="13"/>
+      <c r="E216" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="16" t="s">
@@ -6686,6 +6778,9 @@
         <v>8</v>
       </c>
       <c r="D217" s="13"/>
+      <c r="E217" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="218" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A218" s="16" t="s">
@@ -6698,6 +6793,9 @@
       <c r="D218" s="13" t="n">
         <v>3</v>
       </c>
+      <c r="E218" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="219" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A219" s="1" t="s">
@@ -6728,6 +6826,9 @@
         <v>8</v>
       </c>
       <c r="D222" s="13"/>
+      <c r="E222" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="223" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="16" t="s">
@@ -6738,6 +6839,9 @@
         <v>8</v>
       </c>
       <c r="D223" s="13"/>
+      <c r="E223" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="224" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A224" s="16" t="s">
@@ -6750,6 +6854,9 @@
       <c r="D224" s="13" t="n">
         <v>3</v>
       </c>
+      <c r="E224" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="225" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A225" s="15" t="s">
@@ -6762,6 +6869,9 @@
         <v>8</v>
       </c>
       <c r="D225" s="11"/>
+      <c r="E225" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="15" t="s">
@@ -6772,6 +6882,9 @@
         <v>8</v>
       </c>
       <c r="D226" s="11"/>
+      <c r="E226" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A227" s="15" t="s">
@@ -6784,6 +6897,9 @@
       <c r="D227" s="11" t="n">
         <v>3</v>
       </c>
+      <c r="E227" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="228" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A228" s="16" t="s">
@@ -6796,6 +6912,9 @@
         <v>8</v>
       </c>
       <c r="D228" s="13"/>
+      <c r="E228" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="229" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="16" t="s">
@@ -6806,6 +6925,9 @@
         <v>8</v>
       </c>
       <c r="D229" s="13"/>
+      <c r="E229" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="230" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A230" s="16" t="s">
@@ -6818,6 +6940,9 @@
       <c r="D230" s="13" t="n">
         <v>3</v>
       </c>
+      <c r="E230" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A231" s="15" t="s">
@@ -6830,6 +6955,9 @@
         <v>8</v>
       </c>
       <c r="D231" s="11"/>
+      <c r="E231" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="232" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="15" t="s">
@@ -6840,6 +6968,9 @@
         <v>8</v>
       </c>
       <c r="D232" s="11"/>
+      <c r="E232" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A233" s="15" t="s">
@@ -6852,6 +6983,9 @@
       <c r="D233" s="11" t="n">
         <v>3</v>
       </c>
+      <c r="E233" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A234" s="16" t="s">
@@ -6864,6 +6998,9 @@
         <v>8</v>
       </c>
       <c r="D234" s="13"/>
+      <c r="E234" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="16" t="s">
@@ -6874,6 +7011,9 @@
         <v>8</v>
       </c>
       <c r="D235" s="13"/>
+      <c r="E235" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A236" s="16" t="s">
@@ -6886,6 +7026,9 @@
       <c r="D236" s="13" t="n">
         <v>3</v>
       </c>
+      <c r="E236" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A237" s="1" t="s">
@@ -6916,6 +7059,9 @@
         <v>8</v>
       </c>
       <c r="D240" s="11"/>
+      <c r="E240" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="241" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="15" t="s">
@@ -6926,6 +7072,9 @@
         <v>8</v>
       </c>
       <c r="D241" s="11"/>
+      <c r="E241" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="242" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A242" s="15" t="s">
@@ -6936,6 +7085,9 @@
         <v>8</v>
       </c>
       <c r="D242" s="11"/>
+      <c r="E242" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="15" t="s">
@@ -6948,6 +7100,9 @@
       <c r="D243" s="11" t="n">
         <v>4</v>
       </c>
+      <c r="E243" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A244" s="21" t="s">
@@ -6978,6 +7133,9 @@
         <v>8</v>
       </c>
       <c r="D247" s="10"/>
+      <c r="E247" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="15" t="s">
@@ -6988,6 +7146,9 @@
         <v>8</v>
       </c>
       <c r="D248" s="10"/>
+      <c r="E248" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A249" s="15" t="s">
@@ -7000,6 +7161,9 @@
       <c r="D249" s="10" t="n">
         <v>3</v>
       </c>
+      <c r="E249" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="250" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A250" s="16" t="s">
@@ -7012,6 +7176,9 @@
         <v>8</v>
       </c>
       <c r="D250" s="13"/>
+      <c r="E250" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="16" t="s">
@@ -7022,6 +7189,9 @@
         <v>8</v>
       </c>
       <c r="D251" s="13"/>
+      <c r="E251" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="252" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A252" s="16" t="s">
@@ -7032,6 +7202,9 @@
         <v>8</v>
       </c>
       <c r="D252" s="13"/>
+      <c r="E252" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="253" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A253" s="16" t="s">
@@ -7044,6 +7217,9 @@
       <c r="D253" s="13" t="n">
         <v>4</v>
       </c>
+      <c r="E253" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="254" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A254" s="15" t="s">
@@ -7056,6 +7232,9 @@
         <v>8</v>
       </c>
       <c r="D254" s="10"/>
+      <c r="E254" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="255" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="15" t="s">
@@ -7066,6 +7245,9 @@
         <v>8</v>
       </c>
       <c r="D255" s="10"/>
+      <c r="E255" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="256" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A256" s="15" t="s">
@@ -7078,6 +7260,9 @@
       <c r="D256" s="10" t="n">
         <v>3</v>
       </c>
+      <c r="E256" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="257" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A257" s="16" t="s">
@@ -7090,6 +7275,9 @@
         <v>8</v>
       </c>
       <c r="D257" s="13"/>
+      <c r="E257" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="258" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="16" t="s">
@@ -7100,6 +7288,9 @@
         <v>8</v>
       </c>
       <c r="D258" s="13"/>
+      <c r="E258" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A259" s="16" t="s">
@@ -7112,6 +7303,9 @@
       <c r="D259" s="13" t="n">
         <v>3</v>
       </c>
+      <c r="E259" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A260" s="1" t="s">
@@ -7142,6 +7336,9 @@
         <v>8</v>
       </c>
       <c r="D263" s="13"/>
+      <c r="E263" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="264" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="16" t="s">
@@ -7152,6 +7349,9 @@
         <v>8</v>
       </c>
       <c r="D264" s="13"/>
+      <c r="E264" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="265" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A265" s="16" t="s">
@@ -7162,6 +7362,9 @@
         <v>8</v>
       </c>
       <c r="D265" s="13"/>
+      <c r="E265" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="266" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="16" t="s">
@@ -7172,6 +7375,9 @@
         <v>8</v>
       </c>
       <c r="D266" s="13"/>
+      <c r="E266" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="267" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="16" t="s">
@@ -7182,6 +7388,9 @@
         <v>8</v>
       </c>
       <c r="D267" s="13"/>
+      <c r="E267" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="268" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A268" s="16" t="s">
@@ -7194,6 +7403,9 @@
       <c r="D268" s="13" t="n">
         <v>6</v>
       </c>
+      <c r="E268" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A269" s="15" t="s">
@@ -7206,6 +7418,9 @@
         <v>8</v>
       </c>
       <c r="D269" s="10"/>
+      <c r="E269" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="15" t="s">
@@ -7216,6 +7431,9 @@
         <v>8</v>
       </c>
       <c r="D270" s="10"/>
+      <c r="E270" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="271" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A271" s="15" t="s">
@@ -7228,6 +7446,9 @@
       <c r="D271" s="10" t="n">
         <v>3</v>
       </c>
+      <c r="E271" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A272" s="16" t="s">
@@ -7240,6 +7461,9 @@
         <v>8</v>
       </c>
       <c r="D272" s="13"/>
+      <c r="E272" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="273" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="16" t="s">
@@ -7250,6 +7474,9 @@
         <v>8</v>
       </c>
       <c r="D273" s="13"/>
+      <c r="E273" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A274" s="16" t="s">
@@ -7260,6 +7487,9 @@
         <v>8</v>
       </c>
       <c r="D274" s="13"/>
+      <c r="E274" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A275" s="16" t="s">
@@ -7272,6 +7502,9 @@
       <c r="D275" s="13" t="n">
         <v>4</v>
       </c>
+      <c r="E275" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="276" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A276" s="1" t="s">
@@ -7332,6 +7565,9 @@
         <v>8</v>
       </c>
       <c r="D284" s="31"/>
+      <c r="E284" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="16" t="s">
@@ -7342,6 +7578,9 @@
         <v>8</v>
       </c>
       <c r="D285" s="31"/>
+      <c r="E285" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="286" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A286" s="16" t="s">
@@ -7354,6 +7593,9 @@
       <c r="D286" s="31" t="n">
         <v>3</v>
       </c>
+      <c r="E286" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A287" s="15" t="s">
@@ -7366,6 +7608,9 @@
         <v>8</v>
       </c>
       <c r="D287" s="11"/>
+      <c r="E287" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="288" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="15" t="s">
@@ -7376,6 +7621,9 @@
         <v>8</v>
       </c>
       <c r="D288" s="11"/>
+      <c r="E288" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="289" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A289" s="15" t="s">
@@ -7388,6 +7636,9 @@
       <c r="D289" s="11" t="n">
         <v>3</v>
       </c>
+      <c r="E289" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="290" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A290" s="16" t="s">
@@ -7400,6 +7651,9 @@
         <v>8</v>
       </c>
       <c r="D290" s="31"/>
+      <c r="E290" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="291" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="16" t="s">
@@ -7410,6 +7664,9 @@
         <v>8</v>
       </c>
       <c r="D291" s="31"/>
+      <c r="E291" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="292" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A292" s="16" t="s">
@@ -7422,6 +7679,9 @@
       <c r="D292" s="31" t="n">
         <v>3</v>
       </c>
+      <c r="E292" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A293" s="15" t="s">
@@ -7434,6 +7694,9 @@
         <v>8</v>
       </c>
       <c r="D293" s="11"/>
+      <c r="E293" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="15" t="s">
@@ -7444,6 +7707,9 @@
         <v>8</v>
       </c>
       <c r="D294" s="11"/>
+      <c r="E294" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A295" s="15" t="s">
@@ -7456,6 +7722,9 @@
       <c r="D295" s="11" t="n">
         <v>3</v>
       </c>
+      <c r="E295" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="296" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A296" s="16" t="s">
@@ -7468,6 +7737,9 @@
         <v>8</v>
       </c>
       <c r="D296" s="31"/>
+      <c r="E296" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="16" t="s">
@@ -7478,6 +7750,9 @@
         <v>8</v>
       </c>
       <c r="D297" s="31"/>
+      <c r="E297" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A298" s="16" t="s">
@@ -7490,6 +7765,9 @@
       <c r="D298" s="31" t="n">
         <v>3</v>
       </c>
+      <c r="E298" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A299" s="15" t="s">
@@ -7502,6 +7780,9 @@
         <v>8</v>
       </c>
       <c r="D299" s="11"/>
+      <c r="E299" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="15" t="s">
@@ -7512,6 +7793,9 @@
         <v>8</v>
       </c>
       <c r="D300" s="11"/>
+      <c r="E300" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="301" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A301" s="15" t="s">
@@ -7524,6 +7808,9 @@
       <c r="D301" s="11" t="n">
         <v>3</v>
       </c>
+      <c r="E301" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="302" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A302" s="16" t="s">
@@ -7536,6 +7823,9 @@
         <v>8</v>
       </c>
       <c r="D302" s="31"/>
+      <c r="E302" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="303" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="16" t="s">
@@ -7546,6 +7836,9 @@
         <v>8</v>
       </c>
       <c r="D303" s="31"/>
+      <c r="E303" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="304" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A304" s="16" t="s">
@@ -7558,6 +7851,9 @@
       <c r="D304" s="31" t="n">
         <v>3</v>
       </c>
+      <c r="E304" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="305" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A305" s="15" t="s">
@@ -7570,6 +7866,9 @@
         <v>8</v>
       </c>
       <c r="D305" s="11"/>
+      <c r="E305" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="306" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="15" t="s">
@@ -7580,6 +7879,9 @@
         <v>8</v>
       </c>
       <c r="D306" s="11"/>
+      <c r="E306" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="307" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A307" s="15" t="s">
@@ -7592,6 +7894,9 @@
       <c r="D307" s="11" t="n">
         <v>3</v>
       </c>
+      <c r="E307" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="308" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A308" s="16" t="s">
@@ -7604,6 +7909,9 @@
         <v>8</v>
       </c>
       <c r="D308" s="31"/>
+      <c r="E308" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="309" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="16" t="s">
@@ -7614,6 +7922,9 @@
         <v>8</v>
       </c>
       <c r="D309" s="31"/>
+      <c r="E309" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="310" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A310" s="16" t="s">
@@ -7626,6 +7937,9 @@
       <c r="D310" s="31" t="n">
         <v>3</v>
       </c>
+      <c r="E310" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="311" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A311" s="15" t="s">
@@ -7638,6 +7952,9 @@
         <v>8</v>
       </c>
       <c r="D311" s="11"/>
+      <c r="E311" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="312" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="15" t="s">
@@ -7650,6 +7967,9 @@
       <c r="D312" s="11" t="n">
         <v>2</v>
       </c>
+      <c r="E312" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="313" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A313" s="16" t="s">
@@ -7662,6 +7982,9 @@
         <v>8</v>
       </c>
       <c r="D313" s="31"/>
+      <c r="E313" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="314" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="16" t="s">
@@ -7672,6 +7995,9 @@
         <v>8</v>
       </c>
       <c r="D314" s="31"/>
+      <c r="E314" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="315" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A315" s="16" t="s">
@@ -7682,6 +8008,9 @@
         <v>8</v>
       </c>
       <c r="D315" s="31"/>
+      <c r="E315" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="316" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A316" s="16" t="s">
@@ -7692,6 +8021,9 @@
         <v>8</v>
       </c>
       <c r="D316" s="31"/>
+      <c r="E316" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="317" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A317" s="16" t="s">
@@ -7702,6 +8034,9 @@
         <v>8</v>
       </c>
       <c r="D317" s="31"/>
+      <c r="E317" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="318" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A318" s="32" t="s">
@@ -7714,8 +8049,10 @@
       <c r="D318" s="33" t="n">
         <v>6</v>
       </c>
-      <c r="E318" s="34"/>
-      <c r="F318" s="35"/>
+      <c r="E318" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F318" s="34"/>
     </row>
     <row r="319" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A319" s="15" t="s">
@@ -7742,19 +8079,28 @@
       </c>
     </row>
     <row r="321" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A321" s="1" t="s">
+      <c r="A321" s="16" t="s">
         <v>328</v>
       </c>
+      <c r="B321" s="31"/>
+      <c r="C321" s="31"/>
+      <c r="D321" s="31"/>
     </row>
     <row r="322" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A322" s="1" t="s">
+      <c r="A322" s="16" t="s">
         <v>329</v>
       </c>
+      <c r="B322" s="31"/>
+      <c r="C322" s="31"/>
+      <c r="D322" s="31"/>
     </row>
     <row r="323" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A323" s="1" t="s">
+      <c r="A323" s="16" t="s">
         <v>330</v>
       </c>
+      <c r="B323" s="31"/>
+      <c r="C323" s="31"/>
+      <c r="D323" s="31"/>
     </row>
     <row r="324" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A324" s="1" t="s">
@@ -7777,19 +8123,28 @@
       </c>
     </row>
     <row r="328" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A328" s="1" t="s">
+      <c r="A328" s="16" t="s">
         <v>335</v>
       </c>
+      <c r="B328" s="31"/>
+      <c r="C328" s="31"/>
+      <c r="D328" s="31"/>
     </row>
     <row r="329" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A329" s="1" t="s">
+      <c r="A329" s="16" t="s">
         <v>336</v>
       </c>
+      <c r="B329" s="31"/>
+      <c r="C329" s="31"/>
+      <c r="D329" s="31"/>
     </row>
     <row r="330" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A330" s="1" t="s">
+      <c r="A330" s="16" t="s">
         <v>337</v>
       </c>
+      <c r="B330" s="31"/>
+      <c r="C330" s="31"/>
+      <c r="D330" s="31"/>
     </row>
     <row r="331" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A331" s="1" t="s">
@@ -7807,49 +8162,70 @@
       </c>
     </row>
     <row r="334" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A334" s="1" t="s">
+      <c r="A334" s="16" t="s">
         <v>341</v>
       </c>
+      <c r="B334" s="31"/>
+      <c r="C334" s="31"/>
+      <c r="D334" s="31"/>
     </row>
     <row r="335" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A335" s="1" t="s">
+      <c r="A335" s="16" t="s">
         <v>342</v>
       </c>
+      <c r="B335" s="31"/>
+      <c r="C335" s="31"/>
+      <c r="D335" s="31"/>
     </row>
     <row r="336" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A336" s="1" t="s">
+      <c r="A336" s="16" t="s">
         <v>343</v>
       </c>
+      <c r="B336" s="31"/>
+      <c r="C336" s="31"/>
+      <c r="D336" s="31"/>
     </row>
     <row r="337" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A337" s="1" t="s">
         <v>344</v>
       </c>
+      <c r="B337" s="35"/>
     </row>
     <row r="338" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
         <v>345</v>
       </c>
+      <c r="B338" s="35"/>
     </row>
     <row r="339" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A339" s="1" t="s">
         <v>346</v>
       </c>
+      <c r="B339" s="35"/>
     </row>
     <row r="340" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A340" s="1" t="s">
+      <c r="A340" s="16" t="s">
         <v>347</v>
       </c>
+      <c r="B340" s="31"/>
+      <c r="C340" s="31"/>
+      <c r="D340" s="31"/>
     </row>
     <row r="341" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A341" s="1" t="s">
+      <c r="A341" s="16" t="s">
         <v>348</v>
       </c>
+      <c r="B341" s="31"/>
+      <c r="C341" s="31"/>
+      <c r="D341" s="31"/>
     </row>
     <row r="342" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A342" s="1" t="s">
+      <c r="A342" s="16" t="s">
         <v>349</v>
       </c>
+      <c r="B342" s="31"/>
+      <c r="C342" s="31"/>
+      <c r="D342" s="31"/>
     </row>
     <row r="343" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A343" s="1" t="s">
@@ -7867,19 +8243,28 @@
       </c>
     </row>
     <row r="346" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A346" s="1" t="s">
+      <c r="A346" s="16" t="s">
         <v>353</v>
       </c>
+      <c r="B346" s="31"/>
+      <c r="C346" s="31"/>
+      <c r="D346" s="31"/>
     </row>
     <row r="347" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A347" s="1" t="s">
+      <c r="A347" s="16" t="s">
         <v>354</v>
       </c>
+      <c r="B347" s="31"/>
+      <c r="C347" s="31"/>
+      <c r="D347" s="31"/>
     </row>
     <row r="348" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A348" s="1" t="s">
+      <c r="A348" s="16" t="s">
         <v>355</v>
       </c>
+      <c r="B348" s="31"/>
+      <c r="C348" s="31"/>
+      <c r="D348" s="31"/>
     </row>
     <row r="349" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A349" s="1" t="s">
@@ -7897,19 +8282,28 @@
       </c>
     </row>
     <row r="352" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="1" t="s">
+      <c r="A352" s="16" t="s">
         <v>359</v>
       </c>
+      <c r="B352" s="31"/>
+      <c r="C352" s="31"/>
+      <c r="D352" s="31"/>
     </row>
     <row r="353" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A353" s="1" t="s">
+      <c r="A353" s="16" t="s">
         <v>360</v>
       </c>
+      <c r="B353" s="31"/>
+      <c r="C353" s="31"/>
+      <c r="D353" s="31"/>
     </row>
     <row r="354" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A354" s="1" t="s">
+      <c r="A354" s="16" t="s">
         <v>361</v>
       </c>
+      <c r="B354" s="31"/>
+      <c r="C354" s="31"/>
+      <c r="D354" s="31"/>
     </row>
     <row r="355" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A355" s="1" t="s">
@@ -7927,19 +8321,28 @@
       </c>
     </row>
     <row r="358" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A358" s="1" t="s">
+      <c r="A358" s="16" t="s">
         <v>365</v>
       </c>
+      <c r="B358" s="31"/>
+      <c r="C358" s="31"/>
+      <c r="D358" s="31"/>
     </row>
     <row r="359" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A359" s="1" t="s">
+      <c r="A359" s="16" t="s">
         <v>366</v>
       </c>
+      <c r="B359" s="31"/>
+      <c r="C359" s="31"/>
+      <c r="D359" s="31"/>
     </row>
     <row r="360" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A360" s="1" t="s">
+      <c r="A360" s="16" t="s">
         <v>367</v>
       </c>
+      <c r="B360" s="31"/>
+      <c r="C360" s="31"/>
+      <c r="D360" s="31"/>
     </row>
     <row r="361" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A361" s="1" t="s">
@@ -7957,19 +8360,28 @@
       </c>
     </row>
     <row r="364" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A364" s="1" t="s">
+      <c r="A364" s="16" t="s">
         <v>371</v>
       </c>
+      <c r="B364" s="31"/>
+      <c r="C364" s="31"/>
+      <c r="D364" s="31"/>
     </row>
     <row r="365" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A365" s="1" t="s">
+      <c r="A365" s="16" t="s">
         <v>372</v>
       </c>
+      <c r="B365" s="31"/>
+      <c r="C365" s="31"/>
+      <c r="D365" s="31"/>
     </row>
     <row r="366" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A366" s="1" t="s">
+      <c r="A366" s="16" t="s">
         <v>373</v>
       </c>
+      <c r="B366" s="31"/>
+      <c r="C366" s="31"/>
+      <c r="D366" s="31"/>
     </row>
     <row r="367" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A367" s="1" t="s">
@@ -8002,29 +8414,44 @@
       </c>
     </row>
     <row r="373" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A373" s="1" t="s">
+      <c r="A373" s="16" t="s">
         <v>380</v>
       </c>
+      <c r="B373" s="31"/>
+      <c r="C373" s="31"/>
+      <c r="D373" s="31"/>
     </row>
     <row r="374" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="16" t="s">
         <v>381</v>
       </c>
+      <c r="B374" s="31"/>
+      <c r="C374" s="31"/>
+      <c r="D374" s="31"/>
     </row>
     <row r="375" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A375" s="1" t="s">
+      <c r="A375" s="16" t="s">
         <v>382</v>
       </c>
+      <c r="B375" s="31"/>
+      <c r="C375" s="31"/>
+      <c r="D375" s="31"/>
     </row>
     <row r="376" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A376" s="1" t="s">
+      <c r="A376" s="16" t="s">
         <v>383</v>
       </c>
+      <c r="B376" s="35"/>
+      <c r="C376" s="31"/>
+      <c r="D376" s="31"/>
     </row>
     <row r="377" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A377" s="1" t="s">
+      <c r="A377" s="16" t="s">
         <v>384</v>
       </c>
+      <c r="B377" s="35"/>
+      <c r="C377" s="31"/>
+      <c r="D377" s="31"/>
     </row>
     <row r="378" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A378" s="1" t="s">
@@ -8042,34 +8469,52 @@
       </c>
     </row>
     <row r="381" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A381" s="1" t="s">
+      <c r="A381" s="16" t="s">
         <v>388</v>
       </c>
+      <c r="B381" s="31"/>
+      <c r="C381" s="31"/>
+      <c r="D381" s="31"/>
     </row>
     <row r="382" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A382" s="1" t="s">
+      <c r="A382" s="16" t="s">
         <v>389</v>
       </c>
+      <c r="B382" s="31"/>
+      <c r="C382" s="31"/>
+      <c r="D382" s="31"/>
     </row>
     <row r="383" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A383" s="1" t="s">
+      <c r="A383" s="16" t="s">
         <v>390</v>
       </c>
+      <c r="B383" s="31"/>
+      <c r="C383" s="31"/>
+      <c r="D383" s="31"/>
     </row>
     <row r="384" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A384" s="1" t="s">
+      <c r="A384" s="16" t="s">
         <v>391</v>
       </c>
+      <c r="B384" s="31"/>
+      <c r="C384" s="31"/>
+      <c r="D384" s="31"/>
     </row>
     <row r="385" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A385" s="1" t="s">
+      <c r="A385" s="16" t="s">
         <v>392</v>
       </c>
+      <c r="B385" s="31"/>
+      <c r="C385" s="31"/>
+      <c r="D385" s="31"/>
     </row>
     <row r="386" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A386" s="1" t="s">
+      <c r="A386" s="16" t="s">
         <v>393</v>
       </c>
+      <c r="B386" s="31"/>
+      <c r="C386" s="31"/>
+      <c r="D386" s="31"/>
     </row>
     <row r="387" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="s">
@@ -8102,19 +8547,28 @@
       </c>
     </row>
     <row r="393" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A393" s="1" t="s">
+      <c r="A393" s="16" t="s">
         <v>400</v>
       </c>
+      <c r="B393" s="31"/>
+      <c r="C393" s="31"/>
+      <c r="D393" s="31"/>
     </row>
     <row r="394" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A394" s="1" t="s">
+      <c r="A394" s="16" t="s">
         <v>401</v>
       </c>
+      <c r="B394" s="31"/>
+      <c r="C394" s="31"/>
+      <c r="D394" s="31"/>
     </row>
     <row r="395" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A395" s="1" t="s">
+      <c r="A395" s="16" t="s">
         <v>402</v>
       </c>
+      <c r="B395" s="31"/>
+      <c r="C395" s="31"/>
+      <c r="D395" s="31"/>
     </row>
     <row r="396" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A396" s="1" t="s">
@@ -8132,34 +8586,52 @@
       </c>
     </row>
     <row r="399" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A399" s="1" t="s">
+      <c r="A399" s="16" t="s">
         <v>406</v>
       </c>
+      <c r="B399" s="35"/>
+      <c r="C399" s="31"/>
+      <c r="D399" s="31"/>
     </row>
     <row r="400" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A400" s="1" t="s">
+      <c r="A400" s="16" t="s">
         <v>407</v>
       </c>
+      <c r="B400" s="35"/>
+      <c r="C400" s="31"/>
+      <c r="D400" s="31"/>
     </row>
     <row r="401" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A401" s="1" t="s">
+      <c r="A401" s="16" t="s">
         <v>408</v>
       </c>
+      <c r="B401" s="35"/>
+      <c r="C401" s="31"/>
+      <c r="D401" s="31"/>
     </row>
     <row r="402" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A402" s="1" t="s">
+      <c r="A402" s="16" t="s">
         <v>409</v>
       </c>
+      <c r="B402" s="35"/>
+      <c r="C402" s="31"/>
+      <c r="D402" s="31"/>
     </row>
     <row r="403" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A403" s="1" t="s">
+      <c r="A403" s="16" t="s">
         <v>410</v>
       </c>
+      <c r="B403" s="35"/>
+      <c r="C403" s="31"/>
+      <c r="D403" s="31"/>
     </row>
     <row r="404" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A404" s="1" t="s">
+      <c r="A404" s="16" t="s">
         <v>411</v>
       </c>
+      <c r="B404" s="35"/>
+      <c r="C404" s="31"/>
+      <c r="D404" s="31"/>
     </row>
     <row r="405" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A405" s="1" t="s">
@@ -8177,34 +8649,52 @@
       </c>
     </row>
     <row r="408" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A408" s="1" t="s">
+      <c r="A408" s="16" t="s">
         <v>415</v>
       </c>
+      <c r="B408" s="31"/>
+      <c r="C408" s="31"/>
+      <c r="D408" s="31"/>
     </row>
     <row r="409" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A409" s="1" t="s">
+      <c r="A409" s="16" t="s">
         <v>416</v>
       </c>
+      <c r="B409" s="31"/>
+      <c r="C409" s="31"/>
+      <c r="D409" s="31"/>
     </row>
     <row r="410" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A410" s="1" t="s">
+      <c r="A410" s="16" t="s">
         <v>417</v>
       </c>
+      <c r="B410" s="31"/>
+      <c r="C410" s="31"/>
+      <c r="D410" s="31"/>
     </row>
     <row r="411" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A411" s="1" t="s">
+      <c r="A411" s="16" t="s">
         <v>418</v>
       </c>
+      <c r="B411" s="31"/>
+      <c r="C411" s="31"/>
+      <c r="D411" s="31"/>
     </row>
     <row r="412" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A412" s="1" t="s">
+      <c r="A412" s="16" t="s">
         <v>419</v>
       </c>
+      <c r="B412" s="31"/>
+      <c r="C412" s="31"/>
+      <c r="D412" s="31"/>
     </row>
     <row r="413" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A413" s="1" t="s">
+      <c r="A413" s="16" t="s">
         <v>420</v>
       </c>
+      <c r="B413" s="31"/>
+      <c r="C413" s="31"/>
+      <c r="D413" s="31"/>
     </row>
     <row r="414" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A414" s="1" t="s">
@@ -8237,19 +8727,28 @@
       </c>
     </row>
     <row r="420" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A420" s="1" t="s">
+      <c r="A420" s="16" t="s">
         <v>427</v>
       </c>
+      <c r="B420" s="35"/>
+      <c r="C420" s="31"/>
+      <c r="D420" s="31"/>
     </row>
     <row r="421" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A421" s="1" t="s">
+      <c r="A421" s="16" t="s">
         <v>428</v>
       </c>
+      <c r="B421" s="35"/>
+      <c r="C421" s="31"/>
+      <c r="D421" s="31"/>
     </row>
     <row r="422" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A422" s="1" t="s">
+      <c r="A422" s="16" t="s">
         <v>429</v>
       </c>
+      <c r="B422" s="35"/>
+      <c r="C422" s="31"/>
+      <c r="D422" s="31"/>
     </row>
     <row r="423" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A423" s="1" t="s">
@@ -8282,34 +8781,52 @@
       </c>
     </row>
     <row r="429" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A429" s="1" t="s">
+      <c r="A429" s="16" t="s">
         <v>436</v>
       </c>
+      <c r="B429" s="31"/>
+      <c r="C429" s="31"/>
+      <c r="D429" s="31"/>
     </row>
     <row r="430" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A430" s="1" t="s">
+      <c r="A430" s="16" t="s">
         <v>437</v>
       </c>
+      <c r="B430" s="31"/>
+      <c r="C430" s="31"/>
+      <c r="D430" s="31"/>
     </row>
     <row r="431" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A431" s="1" t="s">
+      <c r="A431" s="16" t="s">
         <v>438</v>
       </c>
+      <c r="B431" s="31"/>
+      <c r="C431" s="31"/>
+      <c r="D431" s="31"/>
     </row>
     <row r="432" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A432" s="1" t="s">
+      <c r="A432" s="16" t="s">
         <v>439</v>
       </c>
+      <c r="B432" s="31"/>
+      <c r="C432" s="31"/>
+      <c r="D432" s="31"/>
     </row>
     <row r="433" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A433" s="1" t="s">
+      <c r="A433" s="16" t="s">
         <v>440</v>
       </c>
+      <c r="B433" s="31"/>
+      <c r="C433" s="31"/>
+      <c r="D433" s="31"/>
     </row>
     <row r="434" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A434" s="1" t="s">
+      <c r="A434" s="16" t="s">
         <v>441</v>
       </c>
+      <c r="B434" s="31"/>
+      <c r="C434" s="31"/>
+      <c r="D434" s="31"/>
     </row>
     <row r="435" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A435" s="1" t="s">
@@ -8342,19 +8859,28 @@
       </c>
     </row>
     <row r="441" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A441" s="1" t="s">
+      <c r="A441" s="16" t="s">
         <v>448</v>
       </c>
+      <c r="B441" s="31"/>
+      <c r="C441" s="31"/>
+      <c r="D441" s="31"/>
     </row>
     <row r="442" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A442" s="1" t="s">
+      <c r="A442" s="16" t="s">
         <v>449</v>
       </c>
+      <c r="B442" s="31"/>
+      <c r="C442" s="31"/>
+      <c r="D442" s="31"/>
     </row>
     <row r="443" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A443" s="1" t="s">
+      <c r="A443" s="16" t="s">
         <v>450</v>
       </c>
+      <c r="B443" s="31"/>
+      <c r="C443" s="31"/>
+      <c r="D443" s="31"/>
     </row>
     <row r="444" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A444" s="1" t="s">
@@ -8372,19 +8898,28 @@
       </c>
     </row>
     <row r="447" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A447" s="1" t="s">
+      <c r="A447" s="16" t="s">
         <v>454</v>
       </c>
+      <c r="B447" s="31"/>
+      <c r="C447" s="31"/>
+      <c r="D447" s="31"/>
     </row>
     <row r="448" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A448" s="1" t="s">
+      <c r="A448" s="16" t="s">
         <v>455</v>
       </c>
+      <c r="B448" s="31"/>
+      <c r="C448" s="31"/>
+      <c r="D448" s="31"/>
     </row>
     <row r="449" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A449" s="1" t="s">
+      <c r="A449" s="16" t="s">
         <v>456</v>
       </c>
+      <c r="B449" s="31"/>
+      <c r="C449" s="31"/>
+      <c r="D449" s="31"/>
     </row>
     <row r="450" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A450" s="1" t="s">
@@ -8402,19 +8937,28 @@
       </c>
     </row>
     <row r="453" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A453" s="1" t="s">
+      <c r="A453" s="16" t="s">
         <v>460</v>
       </c>
+      <c r="B453" s="31"/>
+      <c r="C453" s="31"/>
+      <c r="D453" s="31"/>
     </row>
     <row r="454" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A454" s="1" t="s">
+      <c r="A454" s="16" t="s">
         <v>461</v>
       </c>
+      <c r="B454" s="31"/>
+      <c r="C454" s="31"/>
+      <c r="D454" s="31"/>
     </row>
     <row r="455" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A455" s="1" t="s">
+      <c r="A455" s="16" t="s">
         <v>462</v>
       </c>
+      <c r="B455" s="31"/>
+      <c r="C455" s="31"/>
+      <c r="D455" s="31"/>
     </row>
     <row r="456" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A456" s="1" t="s">
@@ -8432,19 +8976,28 @@
       </c>
     </row>
     <row r="459" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A459" s="1" t="s">
+      <c r="A459" s="16" t="s">
         <v>466</v>
       </c>
+      <c r="B459" s="31"/>
+      <c r="C459" s="31"/>
+      <c r="D459" s="31"/>
     </row>
     <row r="460" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A460" s="1" t="s">
+      <c r="A460" s="16" t="s">
         <v>467</v>
       </c>
+      <c r="B460" s="31"/>
+      <c r="C460" s="31"/>
+      <c r="D460" s="31"/>
     </row>
     <row r="461" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A461" s="1" t="s">
+      <c r="A461" s="16" t="s">
         <v>468</v>
       </c>
+      <c r="B461" s="31"/>
+      <c r="C461" s="31"/>
+      <c r="D461" s="31"/>
     </row>
     <row r="462" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A462" s="1" t="s">
@@ -10717,31 +11270,31 @@
       <c r="A740" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="B740" s="38"/>
+      <c r="B740" s="35"/>
     </row>
     <row r="741" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A741" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="B741" s="38"/>
+      <c r="B741" s="35"/>
     </row>
     <row r="742" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="B742" s="38"/>
+      <c r="B742" s="35"/>
     </row>
     <row r="743" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A743" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="B743" s="38"/>
+      <c r="B743" s="35"/>
     </row>
     <row r="744" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A744" s="1" t="s">
         <v>751</v>
       </c>
-      <c r="B744" s="38"/>
+      <c r="B744" s="35"/>
     </row>
     <row r="745" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A745" s="1" t="s">
@@ -10816,25 +11369,25 @@
       <c r="A750" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="B750" s="38"/>
+      <c r="B750" s="35"/>
     </row>
     <row r="751" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A751" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="B751" s="38"/>
+      <c r="B751" s="35"/>
     </row>
     <row r="752" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A752" s="8" t="s">
         <v>759</v>
       </c>
-      <c r="B752" s="38"/>
+      <c r="B752" s="35"/>
     </row>
     <row r="753" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A753" s="8" t="s">
         <v>760</v>
       </c>
-      <c r="B753" s="38"/>
+      <c r="B753" s="35"/>
     </row>
     <row r="754" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A754" s="1" t="s">
@@ -11012,19 +11565,19 @@
       <c r="A766" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="B766" s="38"/>
+      <c r="B766" s="35"/>
     </row>
     <row r="767" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A767" s="8" t="s">
         <v>774</v>
       </c>
-      <c r="B767" s="38"/>
+      <c r="B767" s="35"/>
     </row>
     <row r="768" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A768" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="B768" s="38"/>
+      <c r="B768" s="35"/>
     </row>
     <row r="769" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A769" s="1" t="s">
@@ -11045,7 +11598,7 @@
       <c r="A772" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B772" s="39" t="n">
+      <c r="B772" s="38" t="n">
         <v>45617</v>
       </c>
       <c r="C772" s="2" t="s">
@@ -11357,55 +11910,55 @@
       <c r="A820" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="B820" s="38"/>
+      <c r="B820" s="35"/>
     </row>
     <row r="821" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="B821" s="38"/>
+      <c r="B821" s="35"/>
     </row>
     <row r="822" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="1" t="s">
         <v>829</v>
       </c>
-      <c r="B822" s="38"/>
+      <c r="B822" s="35"/>
     </row>
     <row r="823" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A823" s="1" t="s">
         <v>830</v>
       </c>
-      <c r="B823" s="38"/>
+      <c r="B823" s="35"/>
     </row>
     <row r="824" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A824" s="1" t="s">
         <v>831</v>
       </c>
-      <c r="B824" s="38"/>
+      <c r="B824" s="35"/>
     </row>
     <row r="825" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A825" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="B825" s="38"/>
+      <c r="B825" s="35"/>
     </row>
     <row r="826" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A826" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="B826" s="38"/>
+      <c r="B826" s="35"/>
     </row>
     <row r="827" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A827" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="B827" s="38"/>
+      <c r="B827" s="35"/>
     </row>
     <row r="828" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A828" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="B828" s="38"/>
+      <c r="B828" s="35"/>
     </row>
     <row r="829" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A829" s="8" t="s">
@@ -12063,12 +12616,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F218"/>
+  <dimension ref="A1:H218"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C97" activeCellId="0" sqref="C97"/>
+      <selection pane="bottomLeft" activeCell="E96" activeCellId="1" sqref="A459:D461 E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12099,7 +12652,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="n">
@@ -13302,7 +13855,7 @@
       <c r="A87" s="14" t="s">
         <v>949</v>
       </c>
-      <c r="B87" s="41" t="n">
+      <c r="B87" s="40" t="n">
         <v>45684</v>
       </c>
       <c r="C87" s="29" t="s">
@@ -13327,10 +13880,13 @@
         <v>9</v>
       </c>
       <c r="F88" s="1"/>
+      <c r="H88" s="1" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="14" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B89" s="29"/>
       <c r="C89" s="29" t="s">
@@ -13344,7 +13900,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="14" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B90" s="29"/>
       <c r="C90" s="29" t="s">
@@ -13358,7 +13914,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="14" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B91" s="29"/>
       <c r="C91" s="29" t="s">
@@ -13372,7 +13928,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="14" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B92" s="29"/>
       <c r="C92" s="29" t="s">
@@ -13388,7 +13944,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="15" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B93" s="9" t="n">
         <v>45684</v>
@@ -13397,30 +13953,39 @@
         <v>8</v>
       </c>
       <c r="D93" s="10"/>
+      <c r="E93" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="15" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="10"/>
+      <c r="E94" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D95" s="10"/>
+      <c r="E95" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="15" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="10" t="s">
@@ -13429,140 +13994,143 @@
       <c r="D96" s="10" t="n">
         <v>4</v>
       </c>
+      <c r="E96" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B123" s="12" t="n">
         <v>45589</v>
@@ -13577,7 +14145,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B124" s="13"/>
       <c r="C124" s="13" t="s">
@@ -13590,7 +14158,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B125" s="13"/>
       <c r="C125" s="13" t="s">
@@ -13603,7 +14171,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B126" s="13"/>
       <c r="C126" s="13" t="s">
@@ -13616,7 +14184,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B127" s="13"/>
       <c r="C127" s="13" t="s">
@@ -13629,7 +14197,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B128" s="13"/>
       <c r="C128" s="13" t="s">
@@ -13642,7 +14210,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B129" s="13"/>
       <c r="C129" s="13" t="s">
@@ -13655,7 +14223,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B130" s="13"/>
       <c r="C130" s="13" t="s">
@@ -13668,7 +14236,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="13" t="s">
@@ -13683,7 +14251,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B132" s="9" t="n">
         <v>45590</v>
@@ -13698,7 +14266,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="10" t="s">
@@ -13711,7 +14279,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="10" t="s">
@@ -13724,7 +14292,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="10" t="s">
@@ -13737,7 +14305,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B136" s="11"/>
       <c r="C136" s="10" t="s">
@@ -13750,7 +14318,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B137" s="11"/>
       <c r="C137" s="10" t="s">
@@ -13763,7 +14331,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="10" t="s">
@@ -13776,7 +14344,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="10" t="s">
@@ -13789,7 +14357,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="10" t="s">
@@ -13802,7 +14370,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="10" t="s">
@@ -13815,7 +14383,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="10" t="s">
@@ -13830,7 +14398,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B143" s="12" t="n">
         <v>45591</v>
@@ -13845,7 +14413,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B144" s="13"/>
       <c r="C144" s="13" t="s">
@@ -13860,7 +14428,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B145" s="9" t="n">
         <v>45595</v>
@@ -13875,7 +14443,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="10" t="s">
@@ -13888,7 +14456,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="10" t="s">
@@ -13901,7 +14469,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="10" t="s">
@@ -13916,7 +14484,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="14" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B149" s="9" t="n">
         <v>45609</v>
@@ -13931,7 +14499,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="14" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="10" t="s">
@@ -13944,7 +14512,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="14" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="11" t="s">
@@ -13959,7 +14527,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B152" s="12" t="n">
         <v>45611</v>
@@ -13974,7 +14542,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B153" s="13"/>
       <c r="C153" s="13" t="s">
@@ -13989,19 +14557,19 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="14" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B154" s="38"/>
+        <v>1017</v>
+      </c>
+      <c r="B154" s="35"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="14" t="s">
-        <v>1017</v>
-      </c>
-      <c r="B155" s="38"/>
+        <v>1018</v>
+      </c>
+      <c r="B155" s="35"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B156" s="12" t="n">
         <v>45614</v>
@@ -14016,7 +14584,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B157" s="13"/>
       <c r="C157" s="13" t="s">
@@ -14029,7 +14597,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="14" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B158" s="13"/>
       <c r="C158" s="13" t="s">
@@ -14042,11 +14610,11 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="14" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B159" s="13"/>
       <c r="C159" s="13" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="D159" s="13"/>
       <c r="E159" s="2" t="s">
@@ -14055,7 +14623,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="13" t="s">
@@ -14070,7 +14638,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B161" s="9" t="n">
         <v>45621</v>
@@ -14085,7 +14653,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B162" s="10"/>
       <c r="C162" s="10" t="s">
@@ -14098,7 +14666,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B163" s="10"/>
       <c r="C163" s="10" t="s">
@@ -14111,7 +14679,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B164" s="10"/>
       <c r="C164" s="10" t="s">
@@ -14124,7 +14692,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B165" s="10"/>
       <c r="C165" s="10" t="s">
@@ -14137,7 +14705,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B166" s="10"/>
       <c r="C166" s="10" t="s">
@@ -14152,277 +14720,277 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B167" s="38"/>
+        <v>1031</v>
+      </c>
+      <c r="B167" s="35"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="B168" s="38"/>
+        <v>1032</v>
+      </c>
+      <c r="B168" s="35"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="14" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="14" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="14" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="14" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="14" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="14" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="14" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="14" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="14" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B186" s="38"/>
+        <v>1050</v>
+      </c>
+      <c r="B186" s="35"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="14" t="s">
-        <v>1050</v>
-      </c>
-      <c r="B187" s="38"/>
+        <v>1051</v>
+      </c>
+      <c r="B187" s="35"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="14" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B188" s="38"/>
+        <v>1052</v>
+      </c>
+      <c r="B188" s="35"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B189" s="38"/>
+        <v>1053</v>
+      </c>
+      <c r="B189" s="35"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="14" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B190" s="38"/>
+        <v>1054</v>
+      </c>
+      <c r="B190" s="35"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="14" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B191" s="38"/>
+        <v>1055</v>
+      </c>
+      <c r="B191" s="35"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B192" s="38"/>
+        <v>1056</v>
+      </c>
+      <c r="B192" s="35"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="14" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B193" s="38"/>
+        <v>1057</v>
+      </c>
+      <c r="B193" s="35"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="14" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="14" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="14" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="14" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="14" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B209" s="38"/>
+        <v>1073</v>
+      </c>
+      <c r="B209" s="35"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="14" t="s">
-        <v>1073</v>
-      </c>
-      <c r="B210" s="38"/>
+        <v>1074</v>
+      </c>
+      <c r="B210" s="35"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="14" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B211" s="38"/>
+        <v>1075</v>
+      </c>
+      <c r="B211" s="35"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="14" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B212" s="38"/>
+        <v>1076</v>
+      </c>
+      <c r="B212" s="35"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="14" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B213" s="38"/>
+        <v>1077</v>
+      </c>
+      <c r="B213" s="35"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
   </sheetData>
@@ -14444,40 +15012,40 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A459:D461 C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="42" width="35.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="41" width="35.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="42" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="41" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="42" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>1083</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="41" t="s">
         <v>1084</v>
       </c>
+      <c r="C1" s="41" t="s">
+        <v>1085</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="43" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>1086</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>1087</v>
       </c>
+      <c r="C2" s="42" t="s">
+        <v>1088</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21"/>
@@ -14504,190 +15072,190 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="A459:D461 E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="45" width="28.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="44" width="28.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="45" t="s">
         <v>1089</v>
       </c>
-      <c r="C1" s="45" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D1" s="45" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E1" s="45" t="s">
-        <v>1089</v>
+      <c r="B1" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B2" s="44" t="s">
         <v>1090</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D2" s="45" t="s">
+      <c r="C2" s="45" t="s">
         <v>1092</v>
       </c>
-      <c r="E2" s="45" t="s">
-        <v>1089</v>
+      <c r="D2" s="44" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D3" s="45" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>1089</v>
+      <c r="A3" s="45" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D4" s="45" t="s">
+      <c r="A4" s="45" t="s">
         <v>1095</v>
       </c>
-      <c r="E4" s="45" t="s">
-        <v>1089</v>
+      <c r="B4" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D4" s="44" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="45" t="s">
         <v>1097</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="B5" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C5" s="45" t="s">
         <v>1098</v>
       </c>
-      <c r="E5" s="45" t="s">
-        <v>1089</v>
+      <c r="D5" s="44" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C6" s="46" t="s">
+      <c r="A6" s="45" t="s">
         <v>1100</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="B6" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>1101</v>
       </c>
-      <c r="E6" s="45" t="s">
-        <v>1089</v>
+      <c r="D6" s="45" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E6" s="44" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B7" s="46" t="s">
+      <c r="A7" s="45" t="s">
         <v>1103</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="45" t="s">
         <v>1104</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="C7" s="45" t="s">
         <v>1105</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="D7" s="45" t="s">
         <v>1106</v>
       </c>
+      <c r="E7" s="45" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="s">
-        <v>1107</v>
-      </c>
-      <c r="B8" s="45" t="s">
+      <c r="A8" s="45" t="s">
         <v>1108</v>
       </c>
-      <c r="C8" s="45" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D8" s="45" t="s">
-        <v>1108</v>
-      </c>
-      <c r="E8" s="46" t="s">
+      <c r="B8" s="44" t="s">
         <v>1109</v>
       </c>
+      <c r="C8" s="44" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>1110</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D9" s="45" t="s">
+      <c r="A9" s="45" t="s">
         <v>1111</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="B9" s="44" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D9" s="44" t="s">
         <v>1112</v>
       </c>
+      <c r="E9" s="44" t="s">
+        <v>1113</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>1114</v>
       </c>
-      <c r="D10" s="45" t="s">
-        <v>1089</v>
-      </c>
-      <c r="E10" s="46" t="s">
+      <c r="B10" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>1115</v>
       </c>
+      <c r="D10" s="44" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E10" s="45" t="s">
+        <v>1116</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="45" t="s">
-        <v>1116</v>
-      </c>
-      <c r="E12" s="45" t="s">
+      <c r="D12" s="44" t="s">
         <v>1117</v>
+      </c>
+      <c r="E12" s="44" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="1120">
   <si>
     <t xml:space="preserve">Not Metered</t>
   </si>
@@ -1873,9 +1873,6 @@
     <t xml:space="preserve">me.m10.d23_en_US_oca.meVE.Stichera03 </t>
   </si>
   <si>
-    <t xml:space="preserve">me.m10.d24_en_US_dedes.meVE.AposStavrotheotokion </t>
-  </si>
-  <si>
     <t xml:space="preserve">me.m10.d24_en_US_oca.meVE.Stichera01 </t>
   </si>
   <si>
@@ -2003,6 +2000,12 @@
   </si>
   <si>
     <t xml:space="preserve">me.m11.d07_en_US_oca.meVE.Stichera06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me.m11.d07_en_US_oca.meVE.SticStavrotheotokion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">me.m11.d07_en_US_oca.meVE.AposStavrotheotokion</t>
   </si>
   <si>
     <t xml:space="preserve">me.m11.d10_en_US_oca.meVE.Stichera01 </t>
@@ -3413,7 +3416,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3456,6 +3459,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3549,7 +3557,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3695,6 +3703,22 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3920,9 +3944,9 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A436" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A459" activeCellId="0" sqref="A459:D461"/>
+      <selection pane="bottomLeft" activeCell="B652" activeCellId="0" sqref="B652"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3957,15 +3981,15 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="n">
-        <f aca="false">SUM(D3:D856)</f>
-        <v>396</v>
+        <f aca="false">SUM(D3:D857)</f>
+        <v>397</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">854-D2</f>
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9799,12 +9823,12 @@
         <v>628</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
         <v>630</v>
       </c>
@@ -9893,18 +9917,29 @@
       <c r="A640" s="1" t="s">
         <v>647</v>
       </c>
+      <c r="B640" s="12" t="n">
+        <v>45595</v>
+      </c>
+      <c r="C640" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D640" s="13"/>
+      <c r="E640" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G640" s="1"/>
     </row>
     <row r="641" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B641" s="12" t="n">
-        <v>45595</v>
-      </c>
+      <c r="B641" s="13"/>
       <c r="C641" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D641" s="13"/>
+      <c r="D641" s="13" t="n">
+        <v>2</v>
+      </c>
       <c r="E641" s="2" t="s">
         <v>9</v>
       </c>
@@ -9914,52 +9949,49 @@
       <c r="A642" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B642" s="13"/>
-      <c r="C642" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D642" s="13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E642" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B642" s="27"/>
+      <c r="C642" s="27"/>
+      <c r="D642" s="27"/>
       <c r="G642" s="1"/>
     </row>
     <row r="643" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B643" s="27"/>
-      <c r="C643" s="27"/>
-      <c r="D643" s="27"/>
+      <c r="B643" s="12" t="n">
+        <v>45595</v>
+      </c>
+      <c r="C643" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D643" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E643" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="G643" s="1"/>
     </row>
     <row r="644" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B644" s="12" t="n">
-        <v>45595</v>
-      </c>
-      <c r="C644" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D644" s="13" t="n">
-        <v>1</v>
-      </c>
+      <c r="B644" s="9" t="n">
+        <v>45596</v>
+      </c>
+      <c r="C644" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D644" s="11"/>
       <c r="E644" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G644" s="1"/>
     </row>
     <row r="645" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B645" s="9" t="n">
-        <v>45596</v>
-      </c>
+      <c r="B645" s="11"/>
       <c r="C645" s="10" t="s">
         <v>8</v>
       </c>
@@ -9973,7 +10005,7 @@
         <v>653</v>
       </c>
       <c r="B646" s="11"/>
-      <c r="C646" s="10" t="s">
+      <c r="C646" s="36" t="s">
         <v>8</v>
       </c>
       <c r="D646" s="11"/>
@@ -10015,7 +10047,7 @@
       <c r="C649" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D649" s="11"/>
+      <c r="D649" s="36"/>
       <c r="E649" s="2" t="s">
         <v>9</v>
       </c>
@@ -10041,37 +10073,34 @@
       <c r="C651" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D651" s="36"/>
+      <c r="D651" s="36" t="n">
+        <v>8</v>
+      </c>
       <c r="E651" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A652" s="1" t="s">
+      <c r="A652" s="37" t="s">
         <v>659</v>
       </c>
-      <c r="B652" s="11"/>
-      <c r="C652" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D652" s="36" t="n">
-        <v>8</v>
-      </c>
-      <c r="E652" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B652" s="38"/>
+      <c r="C652" s="39"/>
+      <c r="D652" s="39"/>
     </row>
     <row r="653" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A653" s="1" t="s">
+      <c r="A653" s="37" t="s">
         <v>660</v>
       </c>
-      <c r="B653" s="12" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C653" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D653" s="37"/>
+      <c r="B653" s="40" t="n">
+        <v>45717</v>
+      </c>
+      <c r="C653" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D653" s="39" t="n">
+        <v>1</v>
+      </c>
       <c r="E653" s="2" t="s">
         <v>9</v>
       </c>
@@ -10080,11 +10109,13 @@
       <c r="A654" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="B654" s="13"/>
+      <c r="B654" s="12" t="n">
+        <v>45597</v>
+      </c>
       <c r="C654" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D654" s="13"/>
+      <c r="D654" s="41"/>
       <c r="E654" s="2" t="s">
         <v>9</v>
       </c>
@@ -10136,9 +10167,7 @@
       <c r="C658" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D658" s="13" t="n">
-        <v>6</v>
-      </c>
+      <c r="D658" s="13"/>
       <c r="E658" s="2" t="s">
         <v>9</v>
       </c>
@@ -10147,13 +10176,13 @@
       <c r="A659" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="B659" s="9" t="n">
-        <v>45599</v>
-      </c>
-      <c r="C659" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D659" s="11"/>
+      <c r="B659" s="13"/>
+      <c r="C659" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D659" s="13" t="n">
+        <v>6</v>
+      </c>
       <c r="E659" s="2" t="s">
         <v>9</v>
       </c>
@@ -10162,7 +10191,9 @@
       <c r="A660" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B660" s="11"/>
+      <c r="B660" s="9" t="n">
+        <v>45599</v>
+      </c>
       <c r="C660" s="10" t="s">
         <v>8</v>
       </c>
@@ -10179,9 +10210,7 @@
       <c r="C661" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D661" s="10" t="n">
-        <v>3</v>
-      </c>
+      <c r="D661" s="11"/>
       <c r="E661" s="2" t="s">
         <v>9</v>
       </c>
@@ -10190,13 +10219,13 @@
       <c r="A662" s="1" t="s">
         <v>669</v>
       </c>
-      <c r="B662" s="12" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C662" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D662" s="13"/>
+      <c r="B662" s="11"/>
+      <c r="C662" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D662" s="10" t="n">
+        <v>3</v>
+      </c>
       <c r="E662" s="2" t="s">
         <v>9</v>
       </c>
@@ -10205,13 +10234,13 @@
       <c r="A663" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B663" s="13"/>
+      <c r="B663" s="12" t="n">
+        <v>45597</v>
+      </c>
       <c r="C663" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D663" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="D663" s="13"/>
       <c r="E663" s="2" t="s">
         <v>9</v>
       </c>
@@ -10220,14 +10249,12 @@
       <c r="A664" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B664" s="9" t="n">
-        <v>45598</v>
-      </c>
-      <c r="C664" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D664" s="10" t="n">
-        <v>1</v>
+      <c r="B664" s="13"/>
+      <c r="C664" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D664" s="13" t="n">
+        <v>2</v>
       </c>
       <c r="E664" s="2" t="s">
         <v>9</v>
@@ -10237,13 +10264,15 @@
       <c r="A665" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B665" s="12" t="n">
-        <v>45600</v>
-      </c>
-      <c r="C665" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D665" s="13"/>
+      <c r="B665" s="9" t="n">
+        <v>45598</v>
+      </c>
+      <c r="C665" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D665" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E665" s="2" t="s">
         <v>9</v>
       </c>
@@ -10252,7 +10281,9 @@
       <c r="A666" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B666" s="13"/>
+      <c r="B666" s="12" t="n">
+        <v>45600</v>
+      </c>
       <c r="C666" s="13" t="s">
         <v>8</v>
       </c>
@@ -10360,9 +10391,7 @@
       <c r="C674" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D674" s="13" t="n">
-        <v>10</v>
-      </c>
+      <c r="D674" s="13"/>
       <c r="E674" s="2" t="s">
         <v>9</v>
       </c>
@@ -10371,13 +10400,13 @@
       <c r="A675" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="B675" s="9" t="n">
-        <v>45601</v>
-      </c>
-      <c r="C675" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D675" s="11"/>
+      <c r="B675" s="13"/>
+      <c r="C675" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D675" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="E675" s="2" t="s">
         <v>9</v>
       </c>
@@ -10386,7 +10415,9 @@
       <c r="A676" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B676" s="11"/>
+      <c r="B676" s="9" t="n">
+        <v>45601</v>
+      </c>
       <c r="C676" s="10" t="s">
         <v>8</v>
       </c>
@@ -10442,9 +10473,7 @@
       <c r="C680" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D680" s="10" t="n">
-        <v>6</v>
-      </c>
+      <c r="D680" s="11"/>
       <c r="E680" s="2" t="s">
         <v>9</v>
       </c>
@@ -10453,13 +10482,13 @@
       <c r="A681" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="B681" s="24" t="n">
-        <v>45602</v>
-      </c>
-      <c r="C681" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D681" s="13"/>
+      <c r="B681" s="11"/>
+      <c r="C681" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D681" s="10" t="n">
+        <v>6</v>
+      </c>
       <c r="E681" s="2" t="s">
         <v>9</v>
       </c>
@@ -10468,7 +10497,9 @@
       <c r="A682" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B682" s="13"/>
+      <c r="B682" s="24" t="n">
+        <v>45602</v>
+      </c>
       <c r="C682" s="13" t="s">
         <v>8</v>
       </c>
@@ -10477,7 +10508,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="683" s="1" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A683" s="1" t="s">
         <v>690</v>
       </c>
@@ -10489,7 +10520,6 @@
       <c r="E683" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G683" s="2"/>
     </row>
     <row r="684" s="1" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A684" s="1" t="s">
@@ -10534,7 +10564,7 @@
       <c r="G686" s="2"/>
     </row>
     <row r="687" s="1" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A687" s="14" t="s">
+      <c r="A687" s="1" t="s">
         <v>694</v>
       </c>
       <c r="B687" s="13"/>
@@ -10561,7 +10591,7 @@
       </c>
       <c r="G688" s="2"/>
     </row>
-    <row r="689" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="689" s="1" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A689" s="14" t="s">
         <v>696</v>
       </c>
@@ -10569,25 +10599,23 @@
       <c r="C689" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D689" s="13" t="n">
-        <v>9</v>
-      </c>
+      <c r="D689" s="13"/>
       <c r="E689" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F689" s="1"/>
+      <c r="G689" s="2"/>
     </row>
     <row r="690" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A690" s="14" t="s">
         <v>697</v>
       </c>
-      <c r="B690" s="9" t="n">
-        <v>45603</v>
-      </c>
-      <c r="C690" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D690" s="11"/>
+      <c r="B690" s="13"/>
+      <c r="C690" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D690" s="13" t="n">
+        <v>9</v>
+      </c>
       <c r="E690" s="2" t="s">
         <v>9</v>
       </c>
@@ -10597,7 +10625,9 @@
       <c r="A691" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="B691" s="11"/>
+      <c r="B691" s="9" t="n">
+        <v>45603</v>
+      </c>
       <c r="C691" s="11" t="s">
         <v>8</v>
       </c>
@@ -10622,7 +10652,7 @@
       <c r="F692" s="1"/>
     </row>
     <row r="693" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A693" s="1" t="s">
+      <c r="A693" s="14" t="s">
         <v>700</v>
       </c>
       <c r="B693" s="11"/>
@@ -10633,6 +10663,7 @@
       <c r="E693" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="F693" s="1"/>
     </row>
     <row r="694" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A694" s="1" t="s">
@@ -10733,24 +10764,22 @@
       <c r="C701" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D701" s="11" t="n">
+      <c r="D701" s="11"/>
+      <c r="E701" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A702" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="B702" s="11"/>
+      <c r="C702" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D702" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="E701" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="702" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A702" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="B702" s="12" t="n">
-        <v>45604</v>
-      </c>
-      <c r="C702" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D702" s="13"/>
       <c r="E702" s="2" t="s">
         <v>9</v>
       </c>
@@ -10759,7 +10788,9 @@
       <c r="A703" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="B703" s="13"/>
+      <c r="B703" s="12" t="n">
+        <v>45604</v>
+      </c>
       <c r="C703" s="13" t="s">
         <v>8</v>
       </c>
@@ -10854,24 +10885,22 @@
       <c r="C710" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D710" s="13" t="n">
-        <v>9</v>
-      </c>
+      <c r="D710" s="13"/>
       <c r="E710" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A711" s="1" t="s">
+      <c r="A711" s="8" t="s">
         <v>718</v>
       </c>
-      <c r="B711" s="9" t="n">
-        <v>45606</v>
-      </c>
-      <c r="C711" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D711" s="10"/>
+      <c r="B711" s="13"/>
+      <c r="C711" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D711" s="13" t="n">
+        <v>9</v>
+      </c>
       <c r="E711" s="2" t="s">
         <v>9</v>
       </c>
@@ -10880,7 +10909,9 @@
       <c r="A712" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="B712" s="10"/>
+      <c r="B712" s="9" t="n">
+        <v>45606</v>
+      </c>
       <c r="C712" s="10" t="s">
         <v>8</v>
       </c>
@@ -10897,9 +10928,7 @@
       <c r="C713" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D713" s="10" t="n">
-        <v>3</v>
-      </c>
+      <c r="D713" s="10"/>
       <c r="E713" s="2" t="s">
         <v>9</v>
       </c>
@@ -10908,14 +10937,12 @@
       <c r="A714" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B714" s="12" t="n">
-        <v>45604</v>
-      </c>
-      <c r="C714" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D714" s="13" t="n">
-        <v>1</v>
+      <c r="B714" s="10"/>
+      <c r="C714" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D714" s="10" t="n">
+        <v>3</v>
       </c>
       <c r="E714" s="2" t="s">
         <v>9</v>
@@ -10925,13 +10952,15 @@
       <c r="A715" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B715" s="9" t="n">
-        <v>45605</v>
-      </c>
-      <c r="C715" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D715" s="10"/>
+      <c r="B715" s="12" t="n">
+        <v>45604</v>
+      </c>
+      <c r="C715" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D715" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="E715" s="2" t="s">
         <v>9</v>
       </c>
@@ -10940,7 +10969,9 @@
       <c r="A716" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B716" s="10"/>
+      <c r="B716" s="9" t="n">
+        <v>45605</v>
+      </c>
       <c r="C716" s="10" t="s">
         <v>8</v>
       </c>
@@ -10983,24 +11014,22 @@
       <c r="C719" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D719" s="10" t="n">
+      <c r="D719" s="10"/>
+      <c r="E719" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A720" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="B720" s="10"/>
+      <c r="C720" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D720" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E719" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="720" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A720" s="8" t="s">
-        <v>727</v>
-      </c>
-      <c r="B720" s="12" t="n">
-        <v>45607</v>
-      </c>
-      <c r="C720" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D720" s="13"/>
       <c r="E720" s="2" t="s">
         <v>9</v>
       </c>
@@ -11009,7 +11038,9 @@
       <c r="A721" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="B721" s="13"/>
+      <c r="B721" s="12" t="n">
+        <v>45607</v>
+      </c>
       <c r="C721" s="13" t="s">
         <v>8</v>
       </c>
@@ -11065,24 +11096,22 @@
       <c r="C725" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D725" s="13" t="n">
+      <c r="D725" s="13"/>
+      <c r="E725" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A726" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="B726" s="13"/>
+      <c r="C726" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D726" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="E725" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="726" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A726" s="1" t="s">
-        <v>733</v>
-      </c>
-      <c r="B726" s="9" t="n">
-        <v>45608</v>
-      </c>
-      <c r="C726" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D726" s="10"/>
       <c r="E726" s="2" t="s">
         <v>9</v>
       </c>
@@ -11091,7 +11120,9 @@
       <c r="A727" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="B727" s="10"/>
+      <c r="B727" s="9" t="n">
+        <v>45608</v>
+      </c>
       <c r="C727" s="10" t="s">
         <v>8</v>
       </c>
@@ -11114,7 +11145,7 @@
       </c>
     </row>
     <row r="729" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A729" s="8" t="s">
+      <c r="A729" s="1" t="s">
         <v>736</v>
       </c>
       <c r="B729" s="10"/>
@@ -11147,24 +11178,22 @@
       <c r="C731" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D731" s="10" t="n">
+      <c r="D731" s="10"/>
+      <c r="E731" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A732" s="8" t="s">
+        <v>739</v>
+      </c>
+      <c r="B732" s="10"/>
+      <c r="C732" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D732" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="E731" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="732" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A732" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="B732" s="12" t="n">
-        <v>45609</v>
-      </c>
-      <c r="C732" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D732" s="13"/>
       <c r="E732" s="2" t="s">
         <v>9</v>
       </c>
@@ -11173,7 +11202,9 @@
       <c r="A733" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B733" s="13"/>
+      <c r="B733" s="12" t="n">
+        <v>45609</v>
+      </c>
       <c r="C733" s="13" t="s">
         <v>8</v>
       </c>
@@ -11190,24 +11221,22 @@
       <c r="C734" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D734" s="13" t="n">
+      <c r="D734" s="13"/>
+      <c r="E734" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A735" s="1" t="s">
+        <v>742</v>
+      </c>
+      <c r="B735" s="13"/>
+      <c r="C735" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D735" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E734" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="735" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A735" s="8" t="s">
-        <v>742</v>
-      </c>
-      <c r="B735" s="9" t="n">
-        <v>45610</v>
-      </c>
-      <c r="C735" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D735" s="10"/>
       <c r="E735" s="2" t="s">
         <v>9</v>
       </c>
@@ -11216,7 +11245,9 @@
       <c r="A736" s="8" t="s">
         <v>743</v>
       </c>
-      <c r="B736" s="10"/>
+      <c r="B736" s="9" t="n">
+        <v>45610</v>
+      </c>
       <c r="C736" s="10" t="s">
         <v>8</v>
       </c>
@@ -11259,18 +11290,25 @@
       <c r="C739" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D739" s="10" t="n">
+      <c r="D739" s="10"/>
+      <c r="E739" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A740" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="B740" s="10"/>
+      <c r="C740" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D740" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E739" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="740" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A740" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="B740" s="35"/>
+      <c r="E740" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="741" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A741" s="1" t="s">
@@ -11300,22 +11338,15 @@
       <c r="A745" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="B745" s="9" t="n">
-        <v>45614</v>
-      </c>
-      <c r="C745" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D745" s="10"/>
-      <c r="E745" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B745" s="35"/>
     </row>
     <row r="746" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A746" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B746" s="10"/>
+      <c r="B746" s="9" t="n">
+        <v>45614</v>
+      </c>
       <c r="C746" s="10" t="s">
         <v>8</v>
       </c>
@@ -11338,14 +11369,14 @@
       </c>
     </row>
     <row r="748" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A748" s="8" t="s">
+      <c r="A748" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="B748" s="11"/>
-      <c r="C748" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D748" s="11"/>
+      <c r="B748" s="10"/>
+      <c r="C748" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D748" s="10"/>
       <c r="E748" s="2" t="s">
         <v>9</v>
       </c>
@@ -11358,9 +11389,7 @@
       <c r="C749" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D749" s="11" t="n">
-        <v>5</v>
-      </c>
+      <c r="D749" s="11"/>
       <c r="E749" s="2" t="s">
         <v>9</v>
       </c>
@@ -11369,7 +11398,16 @@
       <c r="A750" s="8" t="s">
         <v>757</v>
       </c>
-      <c r="B750" s="35"/>
+      <c r="B750" s="11"/>
+      <c r="C750" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D750" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E750" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="751" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A751" s="8" t="s">
@@ -11390,25 +11428,18 @@
       <c r="B753" s="35"/>
     </row>
     <row r="754" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A754" s="1" t="s">
+      <c r="A754" s="8" t="s">
         <v>761</v>
       </c>
-      <c r="B754" s="9" t="n">
-        <v>45616</v>
-      </c>
-      <c r="C754" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D754" s="10"/>
-      <c r="E754" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B754" s="35"/>
     </row>
     <row r="755" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A755" s="1" t="s">
         <v>762</v>
       </c>
-      <c r="B755" s="10"/>
+      <c r="B755" s="9" t="n">
+        <v>45616</v>
+      </c>
       <c r="C755" s="10" t="s">
         <v>8</v>
       </c>
@@ -11425,9 +11456,7 @@
       <c r="C756" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D756" s="10" t="n">
-        <v>3</v>
-      </c>
+      <c r="D756" s="10"/>
       <c r="E756" s="2" t="s">
         <v>9</v>
       </c>
@@ -11436,14 +11465,12 @@
       <c r="A757" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="B757" s="12" t="n">
-        <v>45615</v>
-      </c>
-      <c r="C757" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D757" s="13" t="n">
-        <v>1</v>
+      <c r="B757" s="10"/>
+      <c r="C757" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D757" s="10" t="n">
+        <v>3</v>
       </c>
       <c r="E757" s="2" t="s">
         <v>9</v>
@@ -11453,13 +11480,15 @@
       <c r="A758" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B758" s="9" t="n">
-        <v>45616</v>
-      </c>
-      <c r="C758" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D758" s="10"/>
+      <c r="B758" s="12" t="n">
+        <v>45615</v>
+      </c>
+      <c r="C758" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D758" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="E758" s="2" t="s">
         <v>9</v>
       </c>
@@ -11468,28 +11497,28 @@
       <c r="A759" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B759" s="10"/>
+      <c r="B759" s="9" t="n">
+        <v>45616</v>
+      </c>
       <c r="C759" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D759" s="10" t="n">
+      <c r="D759" s="10"/>
+      <c r="E759" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="760" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A760" s="1" t="s">
+        <v>767</v>
+      </c>
+      <c r="B760" s="10"/>
+      <c r="C760" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D760" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="E759" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="760" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A760" s="8" t="s">
-        <v>767</v>
-      </c>
-      <c r="B760" s="12" t="n">
-        <v>45617</v>
-      </c>
-      <c r="C760" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D760" s="13"/>
       <c r="E760" s="2" t="s">
         <v>9</v>
       </c>
@@ -11498,7 +11527,9 @@
       <c r="A761" s="8" t="s">
         <v>768</v>
       </c>
-      <c r="B761" s="13"/>
+      <c r="B761" s="12" t="n">
+        <v>45617</v>
+      </c>
       <c r="C761" s="13" t="s">
         <v>8</v>
       </c>
@@ -11521,7 +11552,7 @@
       </c>
     </row>
     <row r="763" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A763" s="1" t="s">
+      <c r="A763" s="8" t="s">
         <v>770</v>
       </c>
       <c r="B763" s="13"/>
@@ -11554,18 +11585,25 @@
       <c r="C765" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D765" s="13" t="n">
+      <c r="D765" s="13"/>
+      <c r="E765" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A766" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="B766" s="13"/>
+      <c r="C766" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D766" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="E765" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="766" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A766" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="B766" s="35"/>
+      <c r="E766" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="767" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A767" s="8" t="s">
@@ -11580,9 +11618,10 @@
       <c r="B768" s="35"/>
     </row>
     <row r="769" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A769" s="1" t="s">
+      <c r="A769" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="B769" s="35"/>
     </row>
     <row r="770" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A770" s="1" t="s">
@@ -11598,23 +11637,23 @@
       <c r="A772" s="1" t="s">
         <v>779</v>
       </c>
-      <c r="B772" s="38" t="n">
-        <v>45617</v>
-      </c>
-      <c r="C772" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D772" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E772" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="773" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A773" s="1" t="s">
         <v>780</v>
       </c>
+      <c r="B773" s="42" t="n">
+        <v>45617</v>
+      </c>
+      <c r="C773" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D773" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E773" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="774" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A774" s="1" t="s">
@@ -11637,7 +11676,7 @@
       </c>
     </row>
     <row r="778" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A778" s="8" t="s">
+      <c r="A778" s="1" t="s">
         <v>785</v>
       </c>
     </row>
@@ -11667,7 +11706,7 @@
       </c>
     </row>
     <row r="784" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A784" s="1" t="s">
+      <c r="A784" s="8" t="s">
         <v>791</v>
       </c>
     </row>
@@ -11682,25 +11721,17 @@
       </c>
     </row>
     <row r="787" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A787" s="8" t="s">
+      <c r="A787" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="B787" s="9" t="n">
-        <v>45621</v>
-      </c>
-      <c r="C787" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D787" s="10"/>
-      <c r="E787" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A788" s="8" t="s">
         <v>795</v>
       </c>
-      <c r="B788" s="10"/>
+      <c r="B788" s="9" t="n">
+        <v>45621</v>
+      </c>
       <c r="C788" s="10" t="s">
         <v>8</v>
       </c>
@@ -11769,9 +11800,7 @@
       <c r="C793" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D793" s="10" t="n">
-        <v>7</v>
-      </c>
+      <c r="D793" s="10"/>
       <c r="E793" s="2" t="s">
         <v>9</v>
       </c>
@@ -11780,6 +11809,16 @@
       <c r="A794" s="8" t="s">
         <v>801</v>
       </c>
+      <c r="B794" s="10"/>
+      <c r="C794" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D794" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E794" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="795" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A795" s="8" t="s">
@@ -11822,7 +11861,7 @@
       </c>
     </row>
     <row r="803" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A803" s="1" t="s">
+      <c r="A803" s="8" t="s">
         <v>810</v>
       </c>
     </row>
@@ -11837,7 +11876,7 @@
       </c>
     </row>
     <row r="806" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A806" s="8" t="s">
+      <c r="A806" s="1" t="s">
         <v>813</v>
       </c>
     </row>
@@ -11852,7 +11891,7 @@
       </c>
     </row>
     <row r="809" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A809" s="1" t="s">
+      <c r="A809" s="8" t="s">
         <v>816</v>
       </c>
     </row>
@@ -11862,7 +11901,7 @@
       </c>
     </row>
     <row r="811" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A811" s="8" t="s">
+      <c r="A811" s="1" t="s">
         <v>818</v>
       </c>
     </row>
@@ -11907,10 +11946,9 @@
       </c>
     </row>
     <row r="820" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A820" s="1" t="s">
+      <c r="A820" s="8" t="s">
         <v>827</v>
       </c>
-      <c r="B820" s="35"/>
     </row>
     <row r="821" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A821" s="1" t="s">
@@ -11961,9 +11999,10 @@
       <c r="B828" s="35"/>
     </row>
     <row r="829" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A829" s="8" t="s">
+      <c r="A829" s="1" t="s">
         <v>836</v>
       </c>
+      <c r="B829" s="35"/>
     </row>
     <row r="830" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A830" s="8" t="s">
@@ -12006,7 +12045,7 @@
       </c>
     </row>
     <row r="838" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A838" s="1" t="s">
+      <c r="A838" s="8" t="s">
         <v>845</v>
       </c>
     </row>
@@ -12051,22 +12090,17 @@
       </c>
     </row>
     <row r="847" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A847" s="8" t="s">
+      <c r="A847" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="B847" s="12" t="n">
-        <v>45615</v>
-      </c>
-      <c r="C847" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D847" s="13"/>
     </row>
     <row r="848" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A848" s="8" t="s">
         <v>855</v>
       </c>
-      <c r="B848" s="13"/>
+      <c r="B848" s="12" t="n">
+        <v>45615</v>
+      </c>
       <c r="C848" s="13" t="s">
         <v>8</v>
       </c>
@@ -12083,10 +12117,10 @@
       <c r="D849" s="13"/>
     </row>
     <row r="850" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A850" s="1" t="s">
+      <c r="A850" s="8" t="s">
         <v>857</v>
       </c>
-      <c r="B850" s="12"/>
+      <c r="B850" s="13"/>
       <c r="C850" s="13" t="s">
         <v>8</v>
       </c>
@@ -12096,7 +12130,7 @@
       <c r="A851" s="1" t="s">
         <v>858</v>
       </c>
-      <c r="B851" s="13"/>
+      <c r="B851" s="12"/>
       <c r="C851" s="13" t="s">
         <v>8</v>
       </c>
@@ -12110,41 +12144,41 @@
       <c r="C852" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D852" s="13" t="n">
+      <c r="D852" s="13"/>
+    </row>
+    <row r="853" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A853" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B853" s="13"/>
+      <c r="C853" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D853" s="13" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="853" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A853" s="8" t="s">
-        <v>860</v>
-      </c>
-      <c r="B853" s="9" t="n">
-        <v>45614</v>
-      </c>
-      <c r="C853" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D853" s="11" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A854" s="8" t="s">
         <v>861</v>
       </c>
-      <c r="B854" s="12" t="n">
-        <v>45615</v>
-      </c>
-      <c r="C854" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D854" s="13"/>
+      <c r="B854" s="9" t="n">
+        <v>45614</v>
+      </c>
+      <c r="C854" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D854" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="855" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A855" s="8" t="s">
         <v>862</v>
       </c>
-      <c r="B855" s="13"/>
+      <c r="B855" s="12" t="n">
+        <v>45615</v>
+      </c>
       <c r="C855" s="13" t="s">
         <v>8</v>
       </c>
@@ -12158,11 +12192,20 @@
       <c r="C856" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D856" s="13" t="n">
+      <c r="D856" s="13"/>
+    </row>
+    <row r="857" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A857" s="8" t="s">
+        <v>864</v>
+      </c>
+      <c r="B857" s="13"/>
+      <c r="C857" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D857" s="13" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="1048139" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048141" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048142" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -12621,7 +12664,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E96" activeCellId="1" sqref="A459:D461 E96"/>
+      <selection pane="bottomLeft" activeCell="E96" activeCellId="0" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12652,7 +12695,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="43" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="n">
@@ -12660,7 +12703,7 @@
         <v>136</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">212-D2</f>
@@ -12669,7 +12712,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B3" s="9" t="n">
         <v>45657</v>
@@ -12684,7 +12727,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
@@ -12697,7 +12740,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
@@ -12710,7 +12753,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
@@ -12723,7 +12766,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -12736,7 +12779,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
@@ -12749,7 +12792,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
@@ -12764,7 +12807,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B10" s="12" t="n">
         <v>45657</v>
@@ -12779,7 +12822,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
@@ -12792,7 +12835,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
@@ -12805,7 +12848,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
@@ -12818,7 +12861,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
@@ -12831,7 +12874,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
@@ -12844,7 +12887,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
@@ -12857,7 +12900,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
@@ -12870,7 +12913,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
@@ -12883,7 +12926,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13" t="s">
@@ -12896,7 +12939,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13" t="s">
@@ -12911,7 +12954,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B21" s="9" t="n">
         <v>45656</v>
@@ -12926,7 +12969,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
@@ -12939,7 +12982,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11" t="s">
@@ -12954,7 +12997,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B24" s="12" t="n">
         <v>45658</v>
@@ -12969,7 +13012,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13" t="s">
@@ -12982,7 +13025,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
@@ -12997,7 +13040,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B27" s="24" t="n">
         <v>45659</v>
@@ -13012,7 +13055,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13" t="s">
@@ -13025,7 +13068,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13" t="s">
@@ -13038,7 +13081,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13" t="s">
@@ -13051,7 +13094,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13" t="s">
@@ -13064,7 +13107,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13" t="s">
@@ -13077,7 +13120,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13" t="s">
@@ -13092,7 +13135,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B34" s="9" t="n">
         <v>45656</v>
@@ -13107,7 +13150,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
@@ -13120,7 +13163,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="15" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11" t="s">
@@ -13135,7 +13178,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B37" s="22" t="n">
         <v>45662</v>
@@ -13150,7 +13193,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="23" t="s">
@@ -13163,7 +13206,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="23" t="s">
@@ -13176,7 +13219,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="23" t="s">
@@ -13189,7 +13232,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="23" t="s">
@@ -13202,7 +13245,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="23" t="s">
@@ -13215,7 +13258,7 @@
     </row>
     <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="23" t="s">
@@ -13228,7 +13271,7 @@
     </row>
     <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="23" t="s">
@@ -13241,7 +13284,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="23" t="s">
@@ -13254,7 +13297,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="23" t="s">
@@ -13267,7 +13310,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="23" t="s">
@@ -13282,7 +13325,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B48" s="9" t="n">
         <v>45659</v>
@@ -13299,7 +13342,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B49" s="12" t="n">
         <v>45659</v>
@@ -13314,7 +13357,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="13" t="s">
@@ -13327,7 +13370,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="14" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13" t="s">
@@ -13340,7 +13383,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13" t="s">
@@ -13353,7 +13396,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="14" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="13" t="s">
@@ -13366,7 +13409,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="14" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="13" t="s">
@@ -13379,7 +13422,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="14" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="13" t="s">
@@ -13394,7 +13437,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B56" s="9" t="n">
         <v>45660</v>
@@ -13409,7 +13452,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11" t="s">
@@ -13422,7 +13465,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11" t="s">
@@ -13437,7 +13480,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B59" s="9" t="n">
         <v>45656</v>
@@ -13452,7 +13495,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11" t="s">
@@ -13467,7 +13510,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="16" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B61" s="12" t="n">
         <v>45294</v>
@@ -13484,7 +13527,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="16" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B62" s="24" t="n">
         <v>45661</v>
@@ -13499,7 +13542,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="16" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="13" t="s">
@@ -13512,7 +13555,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="16" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="13" t="s">
@@ -13527,7 +13570,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B65" s="22" t="n">
         <v>45663</v>
@@ -13542,7 +13585,7 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="21" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="23" t="s">
@@ -13555,7 +13598,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="21" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="23" t="s">
@@ -13568,7 +13611,7 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="23" t="s">
@@ -13581,7 +13624,7 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="21" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="23" t="s">
@@ -13596,7 +13639,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B70" s="9" t="n">
         <v>45661</v>
@@ -13611,7 +13654,7 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11" t="s">
@@ -13624,7 +13667,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="11" t="s">
@@ -13639,7 +13682,7 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="16" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B73" s="12" t="n">
         <v>45665</v>
@@ -13656,7 +13699,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B74" s="9" t="n">
         <v>45638</v>
@@ -13671,7 +13714,7 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10" t="s">
@@ -13686,7 +13729,7 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="16" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B76" s="12" t="n">
         <v>45665</v>
@@ -13703,7 +13746,7 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B77" s="9" t="n">
         <v>45636</v>
@@ -13720,7 +13763,7 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B78" s="20" t="n">
         <v>45667</v>
@@ -13735,7 +13778,7 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="16" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13" t="s">
@@ -13748,7 +13791,7 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10" t="s">
@@ -13763,7 +13806,7 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="16" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B81" s="12" t="n">
         <v>45636</v>
@@ -13780,7 +13823,7 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="16" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B82" s="12" t="n">
         <v>45637</v>
@@ -13795,7 +13838,7 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="16" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="13" t="s">
@@ -13808,7 +13851,7 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="16" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="13" t="s">
@@ -13821,7 +13864,7 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="16" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="13" t="s">
@@ -13836,7 +13879,7 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="15" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B86" s="20" t="n">
         <v>45671</v>
@@ -13853,9 +13896,9 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="14" t="s">
-        <v>949</v>
-      </c>
-      <c r="B87" s="40" t="n">
+        <v>950</v>
+      </c>
+      <c r="B87" s="44" t="n">
         <v>45684</v>
       </c>
       <c r="C87" s="29" t="s">
@@ -13869,7 +13912,7 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="14" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B88" s="29"/>
       <c r="C88" s="29" t="s">
@@ -13881,12 +13924,12 @@
       </c>
       <c r="F88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="14" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B89" s="29"/>
       <c r="C89" s="29" t="s">
@@ -13900,7 +13943,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="14" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B90" s="29"/>
       <c r="C90" s="29" t="s">
@@ -13914,7 +13957,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="14" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B91" s="29"/>
       <c r="C91" s="29" t="s">
@@ -13928,7 +13971,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="14" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B92" s="29"/>
       <c r="C92" s="29" t="s">
@@ -13944,7 +13987,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="15" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B93" s="9" t="n">
         <v>45684</v>
@@ -13959,7 +14002,7 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="15" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="10" t="s">
@@ -13972,7 +14015,7 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10" t="s">
@@ -13985,7 +14028,7 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="15" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="10" t="s">
@@ -14000,137 +14043,137 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B123" s="12" t="n">
         <v>45589</v>
@@ -14145,7 +14188,7 @@
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B124" s="13"/>
       <c r="C124" s="13" t="s">
@@ -14158,7 +14201,7 @@
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B125" s="13"/>
       <c r="C125" s="13" t="s">
@@ -14171,7 +14214,7 @@
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B126" s="13"/>
       <c r="C126" s="13" t="s">
@@ -14184,7 +14227,7 @@
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B127" s="13"/>
       <c r="C127" s="13" t="s">
@@ -14197,7 +14240,7 @@
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B128" s="13"/>
       <c r="C128" s="13" t="s">
@@ -14210,7 +14253,7 @@
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B129" s="13"/>
       <c r="C129" s="13" t="s">
@@ -14223,7 +14266,7 @@
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B130" s="13"/>
       <c r="C130" s="13" t="s">
@@ -14236,7 +14279,7 @@
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="13" t="s">
@@ -14251,7 +14294,7 @@
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B132" s="9" t="n">
         <v>45590</v>
@@ -14266,7 +14309,7 @@
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="10" t="s">
@@ -14279,7 +14322,7 @@
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="10" t="s">
@@ -14292,7 +14335,7 @@
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="10" t="s">
@@ -14305,7 +14348,7 @@
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B136" s="11"/>
       <c r="C136" s="10" t="s">
@@ -14318,7 +14361,7 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B137" s="11"/>
       <c r="C137" s="10" t="s">
@@ -14331,7 +14374,7 @@
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="10" t="s">
@@ -14344,7 +14387,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="10" t="s">
@@ -14357,7 +14400,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="10" t="s">
@@ -14370,7 +14413,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="10" t="s">
@@ -14383,7 +14426,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="10" t="s">
@@ -14398,7 +14441,7 @@
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B143" s="12" t="n">
         <v>45591</v>
@@ -14413,7 +14456,7 @@
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B144" s="13"/>
       <c r="C144" s="13" t="s">
@@ -14428,7 +14471,7 @@
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B145" s="9" t="n">
         <v>45595</v>
@@ -14443,7 +14486,7 @@
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="10" t="s">
@@ -14456,7 +14499,7 @@
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="10" t="s">
@@ -14469,7 +14512,7 @@
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="10" t="s">
@@ -14484,7 +14527,7 @@
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="14" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B149" s="9" t="n">
         <v>45609</v>
@@ -14499,7 +14542,7 @@
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="14" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="10" t="s">
@@ -14512,7 +14555,7 @@
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="14" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="11" t="s">
@@ -14527,7 +14570,7 @@
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B152" s="12" t="n">
         <v>45611</v>
@@ -14542,7 +14585,7 @@
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B153" s="13"/>
       <c r="C153" s="13" t="s">
@@ -14557,19 +14600,19 @@
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="14" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B154" s="35"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="14" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B155" s="35"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B156" s="12" t="n">
         <v>45614</v>
@@ -14584,7 +14627,7 @@
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B157" s="13"/>
       <c r="C157" s="13" t="s">
@@ -14597,7 +14640,7 @@
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="14" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B158" s="13"/>
       <c r="C158" s="13" t="s">
@@ -14610,11 +14653,11 @@
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="14" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B159" s="13"/>
       <c r="C159" s="13" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D159" s="13"/>
       <c r="E159" s="2" t="s">
@@ -14623,7 +14666,7 @@
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="13" t="s">
@@ -14638,7 +14681,7 @@
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B161" s="9" t="n">
         <v>45621</v>
@@ -14653,7 +14696,7 @@
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B162" s="10"/>
       <c r="C162" s="10" t="s">
@@ -14666,7 +14709,7 @@
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B163" s="10"/>
       <c r="C163" s="10" t="s">
@@ -14679,7 +14722,7 @@
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B164" s="10"/>
       <c r="C164" s="10" t="s">
@@ -14692,7 +14735,7 @@
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B165" s="10"/>
       <c r="C165" s="10" t="s">
@@ -14705,7 +14748,7 @@
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B166" s="10"/>
       <c r="C166" s="10" t="s">
@@ -14720,277 +14763,277 @@
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B167" s="35"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B168" s="35"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="14" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="14" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="14" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="14" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="14" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="14" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="14" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="14" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="14" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B186" s="35"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="14" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B187" s="35"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="14" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B188" s="35"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B189" s="35"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="14" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B190" s="35"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="14" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B191" s="35"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B192" s="35"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="14" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B193" s="35"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="14" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="14" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="14" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="14" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="14" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="B209" s="35"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="14" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B210" s="35"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="14" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B211" s="35"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="14" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B212" s="35"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="14" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B213" s="35"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
   </sheetData>
@@ -15012,40 +15055,40 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="1" sqref="A459:D461 C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="41" width="35.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="45" width="35.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="41" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="45" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="41" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>1084</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="45" t="s">
         <v>1085</v>
       </c>
+      <c r="C1" s="45" t="s">
+        <v>1086</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="42" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B2" s="42" t="s">
+      <c r="A2" s="46" t="s">
         <v>1087</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="B2" s="46" t="s">
         <v>1088</v>
       </c>
+      <c r="C2" s="46" t="s">
+        <v>1089</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="43"/>
+      <c r="A6" s="47"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21"/>
@@ -15072,190 +15115,190 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="1" sqref="A459:D461 E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="44" width="28.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="48" width="28.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>1090</v>
       </c>
-      <c r="C1" s="44" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>1090</v>
+      <c r="B1" s="48" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D1" s="48" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E1" s="48" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="49" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>1091</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C2" s="45" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D2" s="44" t="s">
+      <c r="C2" s="49" t="s">
         <v>1093</v>
       </c>
-      <c r="E2" s="44" t="s">
-        <v>1090</v>
+      <c r="D2" s="48" t="s">
+        <v>1094</v>
+      </c>
+      <c r="E2" s="48" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="45" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E3" s="44" t="s">
-        <v>1090</v>
+      <c r="A3" s="49" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E3" s="48" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D4" s="44" t="s">
+      <c r="A4" s="49" t="s">
         <v>1096</v>
       </c>
-      <c r="E4" s="44" t="s">
-        <v>1090</v>
+      <c r="B4" s="48" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="45" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C5" s="45" t="s">
+      <c r="A5" s="49" t="s">
         <v>1098</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="B5" s="48" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>1099</v>
       </c>
-      <c r="E5" s="44" t="s">
-        <v>1090</v>
+      <c r="D5" s="48" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="45" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C6" s="45" t="s">
+      <c r="A6" s="49" t="s">
         <v>1101</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="B6" s="48" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C6" s="49" t="s">
         <v>1102</v>
       </c>
-      <c r="E6" s="44" t="s">
-        <v>1090</v>
+      <c r="D6" s="49" t="s">
+        <v>1103</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="45" t="s">
-        <v>1103</v>
-      </c>
-      <c r="B7" s="45" t="s">
+      <c r="A7" s="49" t="s">
         <v>1104</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="49" t="s">
         <v>1105</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="C7" s="49" t="s">
         <v>1106</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="D7" s="49" t="s">
         <v>1107</v>
       </c>
+      <c r="E7" s="49" t="s">
+        <v>1108</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="45" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B8" s="44" t="s">
+      <c r="A8" s="49" t="s">
         <v>1109</v>
       </c>
-      <c r="C8" s="44" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>1109</v>
-      </c>
-      <c r="E8" s="45" t="s">
+      <c r="B8" s="48" t="s">
         <v>1110</v>
       </c>
+      <c r="C8" s="48" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D8" s="48" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E8" s="49" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="45" t="s">
-        <v>1111</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D9" s="44" t="s">
+      <c r="A9" s="49" t="s">
         <v>1112</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="B9" s="48" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D9" s="48" t="s">
         <v>1113</v>
       </c>
+      <c r="E9" s="48" t="s">
+        <v>1114</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="45" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C10" s="45" t="s">
+      <c r="A10" s="49" t="s">
         <v>1115</v>
       </c>
-      <c r="D10" s="44" t="s">
-        <v>1090</v>
-      </c>
-      <c r="E10" s="45" t="s">
+      <c r="B10" s="48" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C10" s="49" t="s">
         <v>1116</v>
       </c>
+      <c r="D10" s="48" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>1117</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="44" t="s">
-        <v>1117</v>
-      </c>
-      <c r="E12" s="44" t="s">
+      <c r="D12" s="48" t="s">
         <v>1118</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
+++ b/net.ages.liturgical.workbench.system/MyWorkFiles/Meanion_nonmetered.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2204" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="1121">
   <si>
     <t xml:space="preserve">Not Metered</t>
   </si>
@@ -43,7 +43,7 @@
     <t xml:space="preserve">Total so far:</t>
   </si>
   <si>
-    <t xml:space="preserve">of 854</t>
+    <t xml:space="preserve">of 855</t>
   </si>
   <si>
     <t xml:space="preserve">me.m01.d01_en_US_oca.meVE.Stichera03 </t>
@@ -52,12 +52,12 @@
     <t xml:space="preserve">goadedes</t>
   </si>
   <si>
+    <t xml:space="preserve">me.m01.d01_en_US_oca.meVE.Stichera04 </t>
+  </si>
+  <si>
     <t xml:space="preserve">x</t>
   </si>
   <si>
-    <t xml:space="preserve">me.m01.d01_en_US_oca.meVE.Stichera04 </t>
-  </si>
-  <si>
     <t xml:space="preserve">me.m01.d01_en_US_oca.meVE.Stichera05 </t>
   </si>
   <si>
@@ -509,6 +509,9 @@
   </si>
   <si>
     <t xml:space="preserve">me.m04.d03_en_US_oca.meVE.Stichera03 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">me.m04.d11_en_US_dedes.meVE.SticStavrotheotokion </t>
   </si>
   <si>
     <t xml:space="preserve">me.m04.d12_en_US_dedes.meVE.Stichera01 </t>
@@ -3416,7 +3419,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3459,11 +3462,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3557,7 +3555,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3706,14 +3704,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3724,10 +3714,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -3944,9 +3930,9 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B652" activeCellId="0" sqref="B652"/>
+      <selection pane="bottomLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3981,14 +3967,14 @@
         <v>5</v>
       </c>
       <c r="D2" s="5" t="n">
-        <f aca="false">SUM(D3:D857)</f>
-        <v>397</v>
+        <f aca="false">SUM(D3:D858)</f>
+        <v>398</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="7" t="n">
-        <f aca="false">854-D2</f>
+        <f aca="false">855-D2</f>
         <v>457</v>
       </c>
     </row>
@@ -4003,13 +3989,13 @@
         <v>8</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="E3" s="2" t="s">
-        <v>9</v>
+      <c r="E3" s="2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="10" t="s">
@@ -4017,7 +4003,7 @@
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4032,7 +4018,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4047,7 +4033,7 @@
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4060,7 +4046,7 @@
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4075,7 +4061,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4090,7 +4076,7 @@
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4103,7 +4089,7 @@
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4118,7 +4104,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4133,7 +4119,7 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4146,7 +4132,7 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4161,7 +4147,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4176,7 +4162,7 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4189,7 +4175,7 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4204,7 +4190,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4219,7 +4205,7 @@
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4232,7 +4218,7 @@
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4247,7 +4233,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4262,7 +4248,7 @@
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4275,7 +4261,7 @@
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4290,7 +4276,7 @@
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4305,7 +4291,7 @@
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4318,7 +4304,7 @@
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4331,7 +4317,7 @@
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4344,7 +4330,7 @@
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4357,7 +4343,7 @@
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4372,7 +4358,7 @@
         <v>6</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4387,7 +4373,7 @@
       </c>
       <c r="D30" s="10"/>
       <c r="E30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4400,7 +4386,7 @@
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4415,7 +4401,7 @@
       </c>
       <c r="D32" s="10"/>
       <c r="E32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4428,7 +4414,7 @@
       </c>
       <c r="D33" s="10"/>
       <c r="E33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4441,7 +4427,7 @@
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4456,7 +4442,7 @@
         <v>3</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4471,7 +4457,7 @@
       </c>
       <c r="D36" s="23"/>
       <c r="E36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4484,7 +4470,7 @@
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4497,7 +4483,7 @@
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4510,7 +4496,7 @@
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4523,7 +4509,7 @@
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4538,7 +4524,7 @@
         <v>6</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4553,7 +4539,7 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4566,7 +4552,7 @@
       </c>
       <c r="D43" s="11"/>
       <c r="E43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4581,7 +4567,7 @@
         <v>3</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4596,7 +4582,7 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4609,7 +4595,7 @@
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4624,7 +4610,7 @@
         <v>3</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4639,7 +4625,7 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4652,7 +4638,7 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4667,7 +4653,7 @@
         <v>3</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4682,7 +4668,7 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4697,7 +4683,7 @@
         <v>2</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4712,7 +4698,7 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4725,7 +4711,7 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4738,7 +4724,7 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4751,7 +4737,7 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4764,7 +4750,7 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4777,7 +4763,7 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4790,7 +4776,7 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4803,7 +4789,7 @@
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4818,7 +4804,7 @@
         <v>9</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4833,7 +4819,7 @@
       </c>
       <c r="D62" s="10"/>
       <c r="E62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4846,7 +4832,7 @@
       </c>
       <c r="D63" s="10"/>
       <c r="E63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4861,7 +4847,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4876,7 +4862,7 @@
       </c>
       <c r="D65" s="10"/>
       <c r="E65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4889,7 +4875,7 @@
       </c>
       <c r="D66" s="10"/>
       <c r="E66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4904,7 +4890,7 @@
         <v>3</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4919,7 +4905,7 @@
       </c>
       <c r="D68" s="10"/>
       <c r="E68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4932,7 +4918,7 @@
       </c>
       <c r="D69" s="10"/>
       <c r="E69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4947,7 +4933,7 @@
         <v>3</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4962,7 +4948,7 @@
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4975,7 +4961,7 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4988,7 +4974,7 @@
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5003,7 +4989,7 @@
         <v>4</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5020,7 +5006,7 @@
         <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5035,7 +5021,7 @@
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5048,7 +5034,7 @@
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5061,7 +5047,7 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5076,7 +5062,7 @@
         <v>4</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5091,7 +5077,7 @@
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5104,7 +5090,7 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5119,7 +5105,7 @@
         <v>3</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5168,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5183,7 +5169,7 @@
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5198,7 +5184,7 @@
         <v>2</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5215,7 +5201,7 @@
         <v>1</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5230,7 +5216,7 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5245,7 +5231,7 @@
         <v>2</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" s="1" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5296,7 +5282,7 @@
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5309,7 +5295,7 @@
       </c>
       <c r="D96" s="10"/>
       <c r="E96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5324,7 +5310,7 @@
         <v>3</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5339,7 +5325,7 @@
       </c>
       <c r="D98" s="10"/>
       <c r="E98" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5352,7 +5338,7 @@
       </c>
       <c r="D99" s="10"/>
       <c r="E99" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5365,7 +5351,7 @@
       </c>
       <c r="D100" s="10"/>
       <c r="E100" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5380,7 +5366,7 @@
         <v>4</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5397,7 +5383,7 @@
         <v>1</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5412,7 +5398,7 @@
       </c>
       <c r="D103" s="11"/>
       <c r="E103" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5425,7 +5411,7 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5440,7 +5426,7 @@
         <v>3</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5455,7 +5441,7 @@
       </c>
       <c r="D106" s="13"/>
       <c r="E106" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5468,7 +5454,7 @@
       </c>
       <c r="D107" s="13"/>
       <c r="E107" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5483,7 +5469,7 @@
         <v>3</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5498,7 +5484,7 @@
       </c>
       <c r="D109" s="10"/>
       <c r="E109" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5511,7 +5497,7 @@
       </c>
       <c r="D110" s="10"/>
       <c r="E110" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5526,7 +5512,7 @@
         <v>3</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5543,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5558,7 +5544,7 @@
       </c>
       <c r="D113" s="10"/>
       <c r="E113" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5573,7 +5559,7 @@
         <v>2</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5588,7 +5574,7 @@
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5603,7 +5589,7 @@
         <v>2</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5618,7 +5604,7 @@
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5631,7 +5617,7 @@
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5644,7 +5630,7 @@
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5659,7 +5645,7 @@
         <v>4</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5676,7 +5662,7 @@
         <v>1</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5691,7 +5677,7 @@
       </c>
       <c r="D122" s="10"/>
       <c r="E122" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5704,7 +5690,7 @@
       </c>
       <c r="D123" s="10"/>
       <c r="E123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5717,7 +5703,7 @@
       </c>
       <c r="D124" s="10"/>
       <c r="E124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5730,7 +5716,7 @@
       </c>
       <c r="D125" s="10"/>
       <c r="E125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5745,7 +5731,7 @@
         <v>5</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5760,7 +5746,7 @@
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5773,7 +5759,7 @@
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5786,7 +5772,7 @@
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5801,7 +5787,7 @@
         <v>4</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5818,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5833,7 +5819,7 @@
       </c>
       <c r="D132" s="13"/>
       <c r="E132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5846,7 +5832,7 @@
       </c>
       <c r="D133" s="13"/>
       <c r="E133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5861,7 +5847,7 @@
         <v>3</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5878,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5893,7 +5879,7 @@
       </c>
       <c r="D136" s="29"/>
       <c r="E136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5906,7 +5892,7 @@
       </c>
       <c r="D137" s="29"/>
       <c r="E137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5919,7 +5905,7 @@
       </c>
       <c r="D138" s="29"/>
       <c r="E138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5932,7 +5918,7 @@
       </c>
       <c r="D139" s="29"/>
       <c r="E139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5945,7 +5931,7 @@
       </c>
       <c r="D140" s="29"/>
       <c r="E140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5960,7 +5946,7 @@
         <v>6</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5975,7 +5961,7 @@
       </c>
       <c r="D142" s="13"/>
       <c r="E142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5988,7 +5974,7 @@
       </c>
       <c r="D143" s="13"/>
       <c r="E143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6003,7 +5989,7 @@
         <v>3</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6018,7 +6004,7 @@
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6031,7 +6017,7 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6046,7 +6032,7 @@
         <v>3</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6061,7 +6047,7 @@
       </c>
       <c r="D148" s="13"/>
       <c r="E148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6074,7 +6060,7 @@
       </c>
       <c r="D149" s="13"/>
       <c r="E149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6089,7 +6075,7 @@
         <v>3</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6126,7 +6112,15 @@
       <c r="A156" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B156" s="30"/>
+      <c r="B156" s="22" t="n">
+        <v>45748</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
@@ -6231,31 +6225,24 @@
       <c r="B173" s="30"/>
     </row>
     <row r="174" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="15" t="s">
+      <c r="A174" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B174" s="9" t="n">
-        <v>45673</v>
-      </c>
-      <c r="C174" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D174" s="11"/>
-      <c r="E174" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B174" s="30"/>
     </row>
     <row r="175" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="B175" s="11"/>
+      <c r="B175" s="9" t="n">
+        <v>45673</v>
+      </c>
       <c r="C175" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="11"/>
       <c r="E175" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6266,39 +6253,39 @@
       <c r="C176" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D176" s="11" t="n">
+      <c r="D176" s="11"/>
+      <c r="E176" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A177" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B177" s="11"/>
+      <c r="C177" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="B177" s="12" t="n">
-        <v>45673</v>
-      </c>
-      <c r="C177" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D177" s="13"/>
       <c r="E177" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="B178" s="31"/>
+      <c r="B178" s="12" t="n">
+        <v>45673</v>
+      </c>
       <c r="C178" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="13"/>
       <c r="E178" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6309,39 +6296,39 @@
       <c r="C179" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D179" s="13" t="n">
+      <c r="D179" s="13"/>
+      <c r="E179" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A180" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B180" s="31"/>
+      <c r="C180" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B180" s="9" t="n">
-        <v>45685</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D180" s="10"/>
       <c r="E180" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B181" s="10"/>
+      <c r="B181" s="9" t="n">
+        <v>45685</v>
+      </c>
       <c r="C181" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="10"/>
       <c r="E181" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6352,39 +6339,39 @@
       <c r="C182" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D182" s="10" t="n">
+      <c r="D182" s="10"/>
+      <c r="E182" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A183" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B183" s="10"/>
+      <c r="C183" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B183" s="12" t="n">
-        <v>45685</v>
-      </c>
-      <c r="C183" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D183" s="13"/>
       <c r="E183" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="B184" s="13"/>
+      <c r="B184" s="12" t="n">
+        <v>45685</v>
+      </c>
       <c r="C184" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="13"/>
       <c r="E184" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6395,39 +6382,39 @@
       <c r="C185" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D185" s="13" t="n">
+      <c r="D185" s="13"/>
+      <c r="E185" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A186" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B186" s="13"/>
+      <c r="C186" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A186" s="15" t="s">
-        <v>193</v>
-      </c>
-      <c r="B186" s="9" t="n">
-        <v>45685</v>
-      </c>
-      <c r="C186" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D186" s="10"/>
       <c r="E186" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B187" s="10"/>
+      <c r="B187" s="9" t="n">
+        <v>45685</v>
+      </c>
       <c r="C187" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="10"/>
       <c r="E187" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6438,48 +6425,55 @@
       <c r="C188" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D188" s="10" t="n">
+      <c r="D188" s="10"/>
+      <c r="E188" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A189" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B189" s="10"/>
+      <c r="C189" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A189" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="B189" s="12" t="n">
-        <v>45685</v>
-      </c>
-      <c r="C189" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D189" s="13"/>
       <c r="E189" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="B190" s="13"/>
+      <c r="B190" s="12" t="n">
+        <v>45685</v>
+      </c>
       <c r="C190" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D190" s="13" t="n">
+      <c r="D190" s="13"/>
+      <c r="E190" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A191" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B191" s="13"/>
+      <c r="C191" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" s="13" t="n">
         <v>2</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B191" s="30"/>
+      <c r="E191" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="192" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
@@ -6494,31 +6488,24 @@
       <c r="B193" s="30"/>
     </row>
     <row r="194" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A194" s="16" t="s">
+      <c r="A194" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B194" s="12" t="n">
-        <v>45686</v>
-      </c>
-      <c r="C194" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D194" s="13"/>
-      <c r="E194" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B194" s="30"/>
     </row>
     <row r="195" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="B195" s="13"/>
+      <c r="B195" s="12" t="n">
+        <v>45686</v>
+      </c>
       <c r="C195" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="13"/>
       <c r="E195" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6529,39 +6516,39 @@
       <c r="C196" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D196" s="13" t="n">
+      <c r="D196" s="13"/>
+      <c r="E196" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A197" s="16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B197" s="13"/>
+      <c r="C197" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E196" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B197" s="9" t="n">
-        <v>45686</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D197" s="11"/>
       <c r="E197" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="B198" s="11"/>
+      <c r="B198" s="9" t="n">
+        <v>45686</v>
+      </c>
       <c r="C198" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="11"/>
       <c r="E198" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6574,33 +6561,33 @@
       </c>
       <c r="D199" s="11"/>
       <c r="E199" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="B200" s="9"/>
+      <c r="B200" s="11"/>
       <c r="C200" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D200" s="10"/>
+      <c r="D200" s="11"/>
       <c r="E200" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="B201" s="10"/>
+      <c r="B201" s="9"/>
       <c r="C201" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="10"/>
       <c r="E201" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6611,39 +6598,39 @@
       <c r="C202" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D202" s="10" t="n">
+      <c r="D202" s="10"/>
+      <c r="E202" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="E202" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="16" t="s">
-        <v>210</v>
-      </c>
-      <c r="B203" s="12" t="n">
-        <v>45687</v>
-      </c>
-      <c r="C203" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D203" s="13"/>
       <c r="E203" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B204" s="13"/>
+      <c r="B204" s="12" t="n">
+        <v>45687</v>
+      </c>
       <c r="C204" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="13"/>
       <c r="E204" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6654,39 +6641,39 @@
       <c r="C205" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D205" s="13" t="n">
+      <c r="D205" s="13"/>
+      <c r="E205" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A206" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="B206" s="13"/>
+      <c r="C206" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B206" s="9" t="n">
-        <v>45687</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D206" s="11"/>
       <c r="E206" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="B207" s="11"/>
+      <c r="B207" s="9" t="n">
+        <v>45687</v>
+      </c>
       <c r="C207" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="11"/>
       <c r="E207" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6697,18 +6684,25 @@
       <c r="C208" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D208" s="11" t="n">
+      <c r="D208" s="11"/>
+      <c r="E208" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A209" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="B209" s="11"/>
+      <c r="C209" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E208" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B209" s="30"/>
+      <c r="E209" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="210" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
@@ -6723,31 +6717,24 @@
       <c r="B211" s="30"/>
     </row>
     <row r="212" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="15" t="s">
+      <c r="A212" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B212" s="9" t="n">
-        <v>45688</v>
-      </c>
-      <c r="C212" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D212" s="11"/>
-      <c r="E212" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B212" s="30"/>
     </row>
     <row r="213" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="B213" s="11"/>
+      <c r="B213" s="9" t="n">
+        <v>45688</v>
+      </c>
       <c r="C213" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="11"/>
       <c r="E213" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6760,7 +6747,7 @@
       </c>
       <c r="D214" s="11"/>
       <c r="E214" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6771,39 +6758,39 @@
       <c r="C215" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D215" s="11" t="n">
+      <c r="D215" s="11"/>
+      <c r="E215" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A216" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="B216" s="11"/>
+      <c r="C216" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E215" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="16" t="s">
-        <v>223</v>
-      </c>
-      <c r="B216" s="24" t="n">
-        <v>45688</v>
-      </c>
-      <c r="C216" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D216" s="13"/>
       <c r="E216" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A217" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="B217" s="13"/>
+      <c r="B217" s="24" t="n">
+        <v>45688</v>
+      </c>
       <c r="C217" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="13"/>
       <c r="E217" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6814,18 +6801,25 @@
       <c r="C218" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D218" s="13" t="n">
+      <c r="D218" s="13"/>
+      <c r="E218" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A219" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="B219" s="13"/>
+      <c r="C219" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E218" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B219" s="30"/>
+      <c r="E219" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="220" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A220" s="1" t="s">
@@ -6840,31 +6834,24 @@
       <c r="B221" s="30"/>
     </row>
     <row r="222" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="16" t="s">
+      <c r="A222" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B222" s="24" t="n">
-        <v>45688</v>
-      </c>
-      <c r="C222" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D222" s="13"/>
-      <c r="E222" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B222" s="30"/>
     </row>
     <row r="223" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A223" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="B223" s="13"/>
+      <c r="B223" s="24" t="n">
+        <v>45688</v>
+      </c>
       <c r="C223" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="13"/>
       <c r="E223" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6875,39 +6862,39 @@
       <c r="C224" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D224" s="13" t="n">
+      <c r="D224" s="13"/>
+      <c r="E224" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A225" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="B225" s="13"/>
+      <c r="C225" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E224" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="B225" s="9" t="n">
-        <v>45691</v>
-      </c>
-      <c r="C225" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D225" s="11"/>
       <c r="E225" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A226" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="B226" s="11"/>
+      <c r="B226" s="9" t="n">
+        <v>45691</v>
+      </c>
       <c r="C226" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="11"/>
       <c r="E226" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6918,39 +6905,39 @@
       <c r="C227" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D227" s="11" t="n">
+      <c r="D227" s="11"/>
+      <c r="E227" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A228" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="B228" s="11"/>
+      <c r="C228" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D228" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E227" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A228" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="B228" s="24" t="n">
-        <v>45691</v>
-      </c>
-      <c r="C228" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D228" s="13"/>
       <c r="E228" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A229" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="B229" s="13"/>
+      <c r="B229" s="24" t="n">
+        <v>45691</v>
+      </c>
       <c r="C229" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D229" s="13"/>
       <c r="E229" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6961,39 +6948,39 @@
       <c r="C230" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D230" s="13" t="n">
+      <c r="D230" s="13"/>
+      <c r="E230" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A231" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="B231" s="13"/>
+      <c r="C231" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D231" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E230" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A231" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="B231" s="9" t="n">
-        <v>45691</v>
-      </c>
-      <c r="C231" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D231" s="11"/>
       <c r="E231" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A232" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="B232" s="11"/>
+      <c r="B232" s="9" t="n">
+        <v>45691</v>
+      </c>
       <c r="C232" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="11"/>
       <c r="E232" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7004,39 +6991,39 @@
       <c r="C233" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D233" s="11" t="n">
+      <c r="D233" s="11"/>
+      <c r="E233" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A234" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="B234" s="11"/>
+      <c r="C234" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D234" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E233" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A234" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B234" s="24" t="n">
-        <v>45691</v>
-      </c>
-      <c r="C234" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D234" s="13"/>
       <c r="E234" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A235" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="B235" s="13"/>
+      <c r="B235" s="24" t="n">
+        <v>45691</v>
+      </c>
       <c r="C235" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="13"/>
       <c r="E235" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7047,18 +7034,25 @@
       <c r="C236" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D236" s="13" t="n">
+      <c r="D236" s="13"/>
+      <c r="E236" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A237" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B237" s="13"/>
+      <c r="C237" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D237" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E236" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B237" s="30"/>
+      <c r="E237" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A238" s="1" t="s">
@@ -7073,31 +7067,24 @@
       <c r="B239" s="30"/>
     </row>
     <row r="240" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A240" s="15" t="s">
+      <c r="A240" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="B240" s="9" t="n">
-        <v>45692</v>
-      </c>
-      <c r="C240" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D240" s="11"/>
-      <c r="E240" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B240" s="30"/>
     </row>
     <row r="241" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="B241" s="11"/>
+      <c r="B241" s="9" t="n">
+        <v>45692</v>
+      </c>
       <c r="C241" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D241" s="11"/>
       <c r="E241" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7110,7 +7097,7 @@
       </c>
       <c r="D242" s="11"/>
       <c r="E242" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7121,18 +7108,25 @@
       <c r="C243" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D243" s="11" t="n">
+      <c r="D243" s="11"/>
+      <c r="E243" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A244" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="B244" s="11"/>
+      <c r="C244" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D244" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="E243" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A244" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="B244" s="30"/>
+      <c r="E244" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="245" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A245" s="21" t="s">
@@ -7147,31 +7141,24 @@
       <c r="B246" s="30"/>
     </row>
     <row r="247" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A247" s="15" t="s">
+      <c r="A247" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="B247" s="9" t="n">
-        <v>45692</v>
-      </c>
-      <c r="C247" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D247" s="10"/>
-      <c r="E247" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B247" s="30"/>
     </row>
     <row r="248" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A248" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="B248" s="10"/>
+      <c r="B248" s="9" t="n">
+        <v>45692</v>
+      </c>
       <c r="C248" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D248" s="10"/>
       <c r="E248" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7182,39 +7169,39 @@
       <c r="C249" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D249" s="10" t="n">
+      <c r="D249" s="10"/>
+      <c r="E249" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A250" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B250" s="10"/>
+      <c r="C250" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D250" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E249" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A250" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="B250" s="12" t="n">
-        <v>45692</v>
-      </c>
-      <c r="C250" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D250" s="13"/>
       <c r="E250" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A251" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="B251" s="13"/>
+      <c r="B251" s="12" t="n">
+        <v>45692</v>
+      </c>
       <c r="C251" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D251" s="13"/>
       <c r="E251" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7227,7 +7214,7 @@
       </c>
       <c r="D252" s="13"/>
       <c r="E252" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7238,39 +7225,39 @@
       <c r="C253" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D253" s="13" t="n">
+      <c r="D253" s="13"/>
+      <c r="E253" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A254" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="B254" s="13"/>
+      <c r="C254" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D254" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="E253" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A254" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B254" s="20" t="n">
-        <v>45693</v>
-      </c>
-      <c r="C254" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D254" s="10"/>
       <c r="E254" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A255" s="15" t="s">
         <v>262</v>
       </c>
-      <c r="B255" s="10"/>
+      <c r="B255" s="20" t="n">
+        <v>45693</v>
+      </c>
       <c r="C255" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D255" s="10"/>
       <c r="E255" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7281,39 +7268,39 @@
       <c r="C256" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D256" s="10" t="n">
+      <c r="D256" s="10"/>
+      <c r="E256" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A257" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="B257" s="10"/>
+      <c r="C257" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D257" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E256" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A257" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="B257" s="24" t="n">
-        <v>45693</v>
-      </c>
-      <c r="C257" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D257" s="13"/>
       <c r="E257" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A258" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="B258" s="13"/>
+      <c r="B258" s="24" t="n">
+        <v>45693</v>
+      </c>
       <c r="C258" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D258" s="13"/>
       <c r="E258" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7324,18 +7311,25 @@
       <c r="C259" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D259" s="13" t="n">
+      <c r="D259" s="13"/>
+      <c r="E259" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A260" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B260" s="13"/>
+      <c r="C260" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D260" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E259" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B260" s="30"/>
+      <c r="E260" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A261" s="1" t="s">
@@ -7350,31 +7344,24 @@
       <c r="B262" s="30"/>
     </row>
     <row r="263" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A263" s="16" t="s">
+      <c r="A263" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B263" s="24" t="n">
-        <v>45694</v>
-      </c>
-      <c r="C263" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D263" s="13"/>
-      <c r="E263" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B263" s="30"/>
     </row>
     <row r="264" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="B264" s="13"/>
+      <c r="B264" s="24" t="n">
+        <v>45694</v>
+      </c>
       <c r="C264" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D264" s="13"/>
       <c r="E264" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7387,33 +7374,33 @@
       </c>
       <c r="D265" s="13"/>
       <c r="E265" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A266" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="B266" s="24"/>
+      <c r="B266" s="13"/>
       <c r="C266" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D266" s="13"/>
       <c r="E266" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A267" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="B267" s="13"/>
+      <c r="B267" s="24"/>
       <c r="C267" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D267" s="13"/>
       <c r="E267" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7424,39 +7411,39 @@
       <c r="C268" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D268" s="13" t="n">
+      <c r="D268" s="13"/>
+      <c r="E268" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A269" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B269" s="13"/>
+      <c r="C269" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D269" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="E268" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A269" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B269" s="20" t="n">
-        <v>45694</v>
-      </c>
-      <c r="C269" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D269" s="10"/>
       <c r="E269" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A270" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="B270" s="10"/>
+      <c r="B270" s="20" t="n">
+        <v>45694</v>
+      </c>
       <c r="C270" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D270" s="10"/>
       <c r="E270" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7467,39 +7454,39 @@
       <c r="C271" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D271" s="10" t="n">
+      <c r="D271" s="10"/>
+      <c r="E271" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A272" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B272" s="10"/>
+      <c r="C272" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D272" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E271" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="272" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A272" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="B272" s="24" t="n">
-        <v>45664</v>
-      </c>
-      <c r="C272" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D272" s="13"/>
       <c r="E272" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A273" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="B273" s="13"/>
+      <c r="B273" s="24" t="n">
+        <v>45664</v>
+      </c>
       <c r="C273" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D273" s="13"/>
       <c r="E273" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7512,7 +7499,7 @@
       </c>
       <c r="D274" s="13"/>
       <c r="E274" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7523,18 +7510,25 @@
       <c r="C275" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D275" s="13" t="n">
+      <c r="D275" s="13"/>
+      <c r="E275" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A276" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B276" s="13"/>
+      <c r="C276" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D276" s="13" t="n">
         <v>4</v>
       </c>
-      <c r="E275" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="276" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A276" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B276" s="30"/>
+      <c r="E276" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A277" s="1" t="s">
@@ -7579,31 +7573,24 @@
       <c r="B283" s="30"/>
     </row>
     <row r="284" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A284" s="16" t="s">
+      <c r="A284" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B284" s="12" t="n">
-        <v>45698</v>
-      </c>
-      <c r="C284" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D284" s="31"/>
-      <c r="E284" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B284" s="30"/>
     </row>
     <row r="285" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A285" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="B285" s="31"/>
+      <c r="B285" s="12" t="n">
+        <v>45698</v>
+      </c>
       <c r="C285" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="31"/>
       <c r="E285" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7614,39 +7601,39 @@
       <c r="C286" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D286" s="31" t="n">
+      <c r="D286" s="31"/>
+      <c r="E286" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A287" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B287" s="31"/>
+      <c r="C287" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D287" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="E286" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="287" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A287" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="B287" s="9" t="n">
-        <v>45698</v>
-      </c>
-      <c r="C287" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D287" s="11"/>
       <c r="E287" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A288" s="15" t="s">
         <v>295</v>
       </c>
-      <c r="B288" s="11"/>
+      <c r="B288" s="9" t="n">
+        <v>45698</v>
+      </c>
       <c r="C288" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="11"/>
       <c r="E288" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7657,39 +7644,39 @@
       <c r="C289" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D289" s="11" t="n">
+      <c r="D289" s="11"/>
+      <c r="E289" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A290" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B290" s="11"/>
+      <c r="C290" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E289" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="290" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A290" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="B290" s="12" t="n">
-        <v>45699</v>
-      </c>
-      <c r="C290" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D290" s="31"/>
       <c r="E290" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A291" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="B291" s="31"/>
+      <c r="B291" s="12" t="n">
+        <v>45699</v>
+      </c>
       <c r="C291" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="31"/>
       <c r="E291" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7700,39 +7687,39 @@
       <c r="C292" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D292" s="31" t="n">
+      <c r="D292" s="31"/>
+      <c r="E292" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A293" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B293" s="31"/>
+      <c r="C293" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="E292" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="293" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A293" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="B293" s="9" t="n">
-        <v>45699</v>
-      </c>
-      <c r="C293" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D293" s="11"/>
       <c r="E293" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A294" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="B294" s="11"/>
+      <c r="B294" s="9" t="n">
+        <v>45699</v>
+      </c>
       <c r="C294" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D294" s="11"/>
       <c r="E294" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7743,39 +7730,39 @@
       <c r="C295" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D295" s="11" t="n">
+      <c r="D295" s="11"/>
+      <c r="E295" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A296" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B296" s="11"/>
+      <c r="C296" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E295" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="296" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A296" s="16" t="s">
-        <v>303</v>
-      </c>
-      <c r="B296" s="12" t="n">
-        <v>45699</v>
-      </c>
-      <c r="C296" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D296" s="31"/>
       <c r="E296" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A297" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="B297" s="31"/>
+      <c r="B297" s="12" t="n">
+        <v>45699</v>
+      </c>
       <c r="C297" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="31"/>
       <c r="E297" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7786,39 +7773,39 @@
       <c r="C298" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D298" s="31" t="n">
+      <c r="D298" s="31"/>
+      <c r="E298" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A299" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="B299" s="31"/>
+      <c r="C299" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="E298" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="299" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A299" s="15" t="s">
-        <v>306</v>
-      </c>
-      <c r="B299" s="9" t="n">
-        <v>45699</v>
-      </c>
-      <c r="C299" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D299" s="11"/>
       <c r="E299" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A300" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="B300" s="11"/>
+      <c r="B300" s="9" t="n">
+        <v>45699</v>
+      </c>
       <c r="C300" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="11"/>
       <c r="E300" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7829,39 +7816,39 @@
       <c r="C301" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D301" s="11" t="n">
+      <c r="D301" s="11"/>
+      <c r="E301" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A302" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B302" s="11"/>
+      <c r="C302" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D302" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E301" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="302" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A302" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="B302" s="12" t="n">
-        <v>45700</v>
-      </c>
-      <c r="C302" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D302" s="31"/>
       <c r="E302" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A303" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="B303" s="31"/>
+      <c r="B303" s="12" t="n">
+        <v>45700</v>
+      </c>
       <c r="C303" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="31"/>
       <c r="E303" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7872,39 +7859,39 @@
       <c r="C304" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D304" s="31" t="n">
+      <c r="D304" s="31"/>
+      <c r="E304" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A305" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B305" s="31"/>
+      <c r="C305" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="E304" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="305" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A305" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B305" s="9" t="n">
-        <v>45700</v>
-      </c>
-      <c r="C305" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D305" s="11"/>
       <c r="E305" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A306" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="B306" s="11"/>
+      <c r="B306" s="9" t="n">
+        <v>45700</v>
+      </c>
       <c r="C306" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="11"/>
       <c r="E306" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7915,39 +7902,39 @@
       <c r="C307" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D307" s="11" t="n">
+      <c r="D307" s="11"/>
+      <c r="E307" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A308" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="B308" s="11"/>
+      <c r="C308" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D308" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E307" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="308" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A308" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="B308" s="12" t="n">
-        <v>45701</v>
-      </c>
-      <c r="C308" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D308" s="31"/>
       <c r="E308" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A309" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="B309" s="31"/>
+      <c r="B309" s="12" t="n">
+        <v>45701</v>
+      </c>
       <c r="C309" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="31"/>
       <c r="E309" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7958,69 +7945,69 @@
       <c r="C310" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D310" s="31" t="n">
+      <c r="D310" s="31"/>
+      <c r="E310" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A311" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="B311" s="31"/>
+      <c r="C311" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="E310" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="311" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A311" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="B311" s="9" t="n">
-        <v>45702</v>
-      </c>
-      <c r="C311" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D311" s="11"/>
       <c r="E311" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A312" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B312" s="11"/>
+      <c r="B312" s="9" t="n">
+        <v>45702</v>
+      </c>
       <c r="C312" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D312" s="11" t="n">
+      <c r="D312" s="11"/>
+      <c r="E312" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A313" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B313" s="11"/>
+      <c r="C313" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="E312" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="313" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A313" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="B313" s="12" t="n">
-        <v>45702</v>
-      </c>
-      <c r="C313" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D313" s="31"/>
       <c r="E313" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A314" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="B314" s="31"/>
+      <c r="B314" s="12" t="n">
+        <v>45702</v>
+      </c>
       <c r="C314" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D314" s="31"/>
       <c r="E314" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8033,7 +8020,7 @@
       </c>
       <c r="D315" s="31"/>
       <c r="E315" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8046,7 +8033,7 @@
       </c>
       <c r="D316" s="31"/>
       <c r="E316" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8059,56 +8046,61 @@
       </c>
       <c r="D317" s="31"/>
       <c r="E317" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A318" s="32" t="s">
+      <c r="A318" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="B318" s="33"/>
+      <c r="B318" s="31"/>
       <c r="C318" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D318" s="33" t="n">
+      <c r="D318" s="31"/>
+      <c r="E318" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="319" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A319" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="B319" s="33"/>
+      <c r="C319" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" s="33" t="n">
         <v>6</v>
       </c>
-      <c r="E318" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F318" s="34"/>
-    </row>
-    <row r="319" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A319" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="B319" s="9" t="n">
-        <v>45595</v>
-      </c>
-      <c r="C319" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D319" s="11"/>
+      <c r="E319" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F319" s="34"/>
     </row>
     <row r="320" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A320" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="B320" s="11"/>
+      <c r="B320" s="9" t="n">
+        <v>45595</v>
+      </c>
       <c r="C320" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D320" s="10" t="n">
+      <c r="D320" s="11"/>
+    </row>
+    <row r="321" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A321" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B321" s="11"/>
+      <c r="C321" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" s="10" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="321" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A321" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="B321" s="31"/>
-      <c r="C321" s="31"/>
-      <c r="D321" s="31"/>
     </row>
     <row r="322" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A322" s="16" t="s">
@@ -8127,9 +8119,12 @@
       <c r="D323" s="31"/>
     </row>
     <row r="324" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A324" s="1" t="s">
+      <c r="A324" s="16" t="s">
         <v>331</v>
       </c>
+      <c r="B324" s="31"/>
+      <c r="C324" s="31"/>
+      <c r="D324" s="31"/>
     </row>
     <row r="325" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A325" s="1" t="s">
@@ -8147,12 +8142,9 @@
       </c>
     </row>
     <row r="328" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A328" s="16" t="s">
+      <c r="A328" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B328" s="31"/>
-      <c r="C328" s="31"/>
-      <c r="D328" s="31"/>
     </row>
     <row r="329" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A329" s="16" t="s">
@@ -8171,9 +8163,12 @@
       <c r="D330" s="31"/>
     </row>
     <row r="331" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A331" s="1" t="s">
+      <c r="A331" s="16" t="s">
         <v>338</v>
       </c>
+      <c r="B331" s="31"/>
+      <c r="C331" s="31"/>
+      <c r="D331" s="31"/>
     </row>
     <row r="332" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A332" s="1" t="s">
@@ -8186,12 +8181,9 @@
       </c>
     </row>
     <row r="334" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A334" s="16" t="s">
+      <c r="A334" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B334" s="31"/>
-      <c r="C334" s="31"/>
-      <c r="D334" s="31"/>
     </row>
     <row r="335" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A335" s="16" t="s">
@@ -8210,10 +8202,12 @@
       <c r="D336" s="31"/>
     </row>
     <row r="337" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A337" s="1" t="s">
+      <c r="A337" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="B337" s="35"/>
+      <c r="B337" s="31"/>
+      <c r="C337" s="31"/>
+      <c r="D337" s="31"/>
     </row>
     <row r="338" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A338" s="1" t="s">
@@ -8228,12 +8222,10 @@
       <c r="B339" s="35"/>
     </row>
     <row r="340" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A340" s="16" t="s">
+      <c r="A340" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B340" s="31"/>
-      <c r="C340" s="31"/>
-      <c r="D340" s="31"/>
+      <c r="B340" s="35"/>
     </row>
     <row r="341" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A341" s="16" t="s">
@@ -8252,9 +8244,12 @@
       <c r="D342" s="31"/>
     </row>
     <row r="343" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A343" s="1" t="s">
+      <c r="A343" s="16" t="s">
         <v>350</v>
       </c>
+      <c r="B343" s="31"/>
+      <c r="C343" s="31"/>
+      <c r="D343" s="31"/>
     </row>
     <row r="344" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A344" s="1" t="s">
@@ -8267,12 +8262,9 @@
       </c>
     </row>
     <row r="346" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A346" s="16" t="s">
+      <c r="A346" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B346" s="31"/>
-      <c r="C346" s="31"/>
-      <c r="D346" s="31"/>
     </row>
     <row r="347" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A347" s="16" t="s">
@@ -8291,9 +8283,12 @@
       <c r="D348" s="31"/>
     </row>
     <row r="349" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A349" s="1" t="s">
+      <c r="A349" s="16" t="s">
         <v>356</v>
       </c>
+      <c r="B349" s="31"/>
+      <c r="C349" s="31"/>
+      <c r="D349" s="31"/>
     </row>
     <row r="350" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A350" s="1" t="s">
@@ -8306,12 +8301,9 @@
       </c>
     </row>
     <row r="352" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A352" s="16" t="s">
+      <c r="A352" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B352" s="31"/>
-      <c r="C352" s="31"/>
-      <c r="D352" s="31"/>
     </row>
     <row r="353" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A353" s="16" t="s">
@@ -8330,9 +8322,12 @@
       <c r="D354" s="31"/>
     </row>
     <row r="355" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A355" s="1" t="s">
+      <c r="A355" s="16" t="s">
         <v>362</v>
       </c>
+      <c r="B355" s="31"/>
+      <c r="C355" s="31"/>
+      <c r="D355" s="31"/>
     </row>
     <row r="356" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A356" s="1" t="s">
@@ -8345,12 +8340,9 @@
       </c>
     </row>
     <row r="358" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A358" s="16" t="s">
+      <c r="A358" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B358" s="31"/>
-      <c r="C358" s="31"/>
-      <c r="D358" s="31"/>
     </row>
     <row r="359" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A359" s="16" t="s">
@@ -8369,9 +8361,12 @@
       <c r="D360" s="31"/>
     </row>
     <row r="361" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A361" s="1" t="s">
+      <c r="A361" s="16" t="s">
         <v>368</v>
       </c>
+      <c r="B361" s="31"/>
+      <c r="C361" s="31"/>
+      <c r="D361" s="31"/>
     </row>
     <row r="362" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
@@ -8384,12 +8379,9 @@
       </c>
     </row>
     <row r="364" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A364" s="16" t="s">
+      <c r="A364" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="B364" s="31"/>
-      <c r="C364" s="31"/>
-      <c r="D364" s="31"/>
     </row>
     <row r="365" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A365" s="16" t="s">
@@ -8408,9 +8400,12 @@
       <c r="D366" s="31"/>
     </row>
     <row r="367" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A367" s="1" t="s">
+      <c r="A367" s="16" t="s">
         <v>374</v>
       </c>
+      <c r="B367" s="31"/>
+      <c r="C367" s="31"/>
+      <c r="D367" s="31"/>
     </row>
     <row r="368" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A368" s="1" t="s">
@@ -8438,12 +8433,9 @@
       </c>
     </row>
     <row r="373" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A373" s="16" t="s">
+      <c r="A373" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="B373" s="31"/>
-      <c r="C373" s="31"/>
-      <c r="D373" s="31"/>
     </row>
     <row r="374" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A374" s="16" t="s">
@@ -8465,7 +8457,7 @@
       <c r="A376" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="B376" s="35"/>
+      <c r="B376" s="31"/>
       <c r="C376" s="31"/>
       <c r="D376" s="31"/>
     </row>
@@ -8478,9 +8470,12 @@
       <c r="D377" s="31"/>
     </row>
     <row r="378" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A378" s="1" t="s">
+      <c r="A378" s="16" t="s">
         <v>385</v>
       </c>
+      <c r="B378" s="35"/>
+      <c r="C378" s="31"/>
+      <c r="D378" s="31"/>
     </row>
     <row r="379" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A379" s="1" t="s">
@@ -8493,12 +8488,9 @@
       </c>
     </row>
     <row r="381" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A381" s="16" t="s">
+      <c r="A381" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="B381" s="31"/>
-      <c r="C381" s="31"/>
-      <c r="D381" s="31"/>
     </row>
     <row r="382" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A382" s="16" t="s">
@@ -8541,9 +8533,12 @@
       <c r="D386" s="31"/>
     </row>
     <row r="387" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A387" s="1" t="s">
+      <c r="A387" s="16" t="s">
         <v>394</v>
       </c>
+      <c r="B387" s="31"/>
+      <c r="C387" s="31"/>
+      <c r="D387" s="31"/>
     </row>
     <row r="388" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A388" s="1" t="s">
@@ -8571,12 +8566,9 @@
       </c>
     </row>
     <row r="393" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A393" s="16" t="s">
+      <c r="A393" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="B393" s="31"/>
-      <c r="C393" s="31"/>
-      <c r="D393" s="31"/>
     </row>
     <row r="394" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A394" s="16" t="s">
@@ -8595,9 +8587,12 @@
       <c r="D395" s="31"/>
     </row>
     <row r="396" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A396" s="1" t="s">
+      <c r="A396" s="16" t="s">
         <v>403</v>
       </c>
+      <c r="B396" s="31"/>
+      <c r="C396" s="31"/>
+      <c r="D396" s="31"/>
     </row>
     <row r="397" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A397" s="1" t="s">
@@ -8610,12 +8605,9 @@
       </c>
     </row>
     <row r="399" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A399" s="16" t="s">
+      <c r="A399" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="B399" s="35"/>
-      <c r="C399" s="31"/>
-      <c r="D399" s="31"/>
     </row>
     <row r="400" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A400" s="16" t="s">
@@ -8658,9 +8650,12 @@
       <c r="D404" s="31"/>
     </row>
     <row r="405" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A405" s="1" t="s">
+      <c r="A405" s="16" t="s">
         <v>412</v>
       </c>
+      <c r="B405" s="35"/>
+      <c r="C405" s="31"/>
+      <c r="D405" s="31"/>
     </row>
     <row r="406" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A406" s="1" t="s">
@@ -8673,12 +8668,9 @@
       </c>
     </row>
     <row r="408" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A408" s="16" t="s">
+      <c r="A408" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="B408" s="31"/>
-      <c r="C408" s="31"/>
-      <c r="D408" s="31"/>
     </row>
     <row r="409" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A409" s="16" t="s">
@@ -8721,9 +8713,12 @@
       <c r="D413" s="31"/>
     </row>
     <row r="414" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A414" s="1" t="s">
+      <c r="A414" s="16" t="s">
         <v>421</v>
       </c>
+      <c r="B414" s="31"/>
+      <c r="C414" s="31"/>
+      <c r="D414" s="31"/>
     </row>
     <row r="415" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A415" s="1" t="s">
@@ -8751,12 +8746,9 @@
       </c>
     </row>
     <row r="420" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A420" s="16" t="s">
+      <c r="A420" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B420" s="35"/>
-      <c r="C420" s="31"/>
-      <c r="D420" s="31"/>
     </row>
     <row r="421" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A421" s="16" t="s">
@@ -8775,9 +8767,12 @@
       <c r="D422" s="31"/>
     </row>
     <row r="423" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A423" s="1" t="s">
+      <c r="A423" s="16" t="s">
         <v>430</v>
       </c>
+      <c r="B423" s="35"/>
+      <c r="C423" s="31"/>
+      <c r="D423" s="31"/>
     </row>
     <row r="424" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A424" s="1" t="s">
@@ -8805,12 +8800,9 @@
       </c>
     </row>
     <row r="429" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A429" s="16" t="s">
+      <c r="A429" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="B429" s="31"/>
-      <c r="C429" s="31"/>
-      <c r="D429" s="31"/>
     </row>
     <row r="430" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A430" s="16" t="s">
@@ -8853,9 +8845,12 @@
       <c r="D434" s="31"/>
     </row>
     <row r="435" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A435" s="1" t="s">
+      <c r="A435" s="16" t="s">
         <v>442</v>
       </c>
+      <c r="B435" s="31"/>
+      <c r="C435" s="31"/>
+      <c r="D435" s="31"/>
     </row>
     <row r="436" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A436" s="1" t="s">
@@ -8883,12 +8878,9 @@
       </c>
     </row>
     <row r="441" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A441" s="16" t="s">
+      <c r="A441" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="B441" s="31"/>
-      <c r="C441" s="31"/>
-      <c r="D441" s="31"/>
     </row>
     <row r="442" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A442" s="16" t="s">
@@ -8907,9 +8899,12 @@
       <c r="D443" s="31"/>
     </row>
     <row r="444" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A444" s="1" t="s">
+      <c r="A444" s="16" t="s">
         <v>451</v>
       </c>
+      <c r="B444" s="31"/>
+      <c r="C444" s="31"/>
+      <c r="D444" s="31"/>
     </row>
     <row r="445" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A445" s="1" t="s">
@@ -8922,12 +8917,9 @@
       </c>
     </row>
     <row r="447" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A447" s="16" t="s">
+      <c r="A447" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="B447" s="31"/>
-      <c r="C447" s="31"/>
-      <c r="D447" s="31"/>
     </row>
     <row r="448" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A448" s="16" t="s">
@@ -8946,9 +8938,12 @@
       <c r="D449" s="31"/>
     </row>
     <row r="450" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A450" s="1" t="s">
+      <c r="A450" s="16" t="s">
         <v>457</v>
       </c>
+      <c r="B450" s="31"/>
+      <c r="C450" s="31"/>
+      <c r="D450" s="31"/>
     </row>
     <row r="451" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A451" s="1" t="s">
@@ -8961,12 +8956,9 @@
       </c>
     </row>
     <row r="453" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A453" s="16" t="s">
+      <c r="A453" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B453" s="31"/>
-      <c r="C453" s="31"/>
-      <c r="D453" s="31"/>
     </row>
     <row r="454" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A454" s="16" t="s">
@@ -8985,9 +8977,12 @@
       <c r="D455" s="31"/>
     </row>
     <row r="456" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A456" s="1" t="s">
+      <c r="A456" s="16" t="s">
         <v>463</v>
       </c>
+      <c r="B456" s="31"/>
+      <c r="C456" s="31"/>
+      <c r="D456" s="31"/>
     </row>
     <row r="457" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A457" s="1" t="s">
@@ -9000,12 +8995,9 @@
       </c>
     </row>
     <row r="459" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A459" s="16" t="s">
+      <c r="A459" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="B459" s="31"/>
-      <c r="C459" s="31"/>
-      <c r="D459" s="31"/>
     </row>
     <row r="460" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A460" s="16" t="s">
@@ -9024,9 +9016,12 @@
       <c r="D461" s="31"/>
     </row>
     <row r="462" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A462" s="1" t="s">
+      <c r="A462" s="16" t="s">
         <v>469</v>
       </c>
+      <c r="B462" s="31"/>
+      <c r="C462" s="31"/>
+      <c r="D462" s="31"/>
     </row>
     <row r="463" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A463" s="1" t="s">
@@ -9823,12 +9818,12 @@
         <v>628</v>
       </c>
     </row>
-    <row r="622" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A622" s="1" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="623" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A623" s="1" t="s">
         <v>630</v>
       </c>
@@ -9917,31 +9912,20 @@
       <c r="A640" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="B640" s="12" t="n">
-        <v>45595</v>
-      </c>
-      <c r="C640" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D640" s="13"/>
-      <c r="E640" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G640" s="1"/>
     </row>
     <row r="641" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A641" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="B641" s="13"/>
+      <c r="B641" s="12" t="n">
+        <v>45595</v>
+      </c>
       <c r="C641" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D641" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="D641" s="13"/>
       <c r="E641" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G641" s="1"/>
     </row>
@@ -9949,55 +9933,58 @@
       <c r="A642" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="B642" s="27"/>
-      <c r="C642" s="27"/>
-      <c r="D642" s="27"/>
+      <c r="B642" s="13"/>
+      <c r="C642" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D642" s="13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E642" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="G642" s="1"/>
     </row>
     <row r="643" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A643" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="B643" s="12" t="n">
-        <v>45595</v>
-      </c>
-      <c r="C643" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D643" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E643" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B643" s="27"/>
+      <c r="C643" s="27"/>
+      <c r="D643" s="27"/>
       <c r="G643" s="1"/>
     </row>
     <row r="644" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A644" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="B644" s="9" t="n">
-        <v>45596</v>
-      </c>
-      <c r="C644" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D644" s="11"/>
+      <c r="B644" s="12" t="n">
+        <v>45595</v>
+      </c>
+      <c r="C644" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D644" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="E644" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G644" s="1"/>
     </row>
     <row r="645" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A645" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="B645" s="11"/>
+      <c r="B645" s="9" t="n">
+        <v>45596</v>
+      </c>
       <c r="C645" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D645" s="11"/>
       <c r="E645" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10005,12 +9992,12 @@
         <v>653</v>
       </c>
       <c r="B646" s="11"/>
-      <c r="C646" s="36" t="s">
+      <c r="C646" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D646" s="11"/>
       <c r="E646" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10023,7 +10010,7 @@
       </c>
       <c r="D647" s="11"/>
       <c r="E647" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10036,7 +10023,7 @@
       </c>
       <c r="D648" s="11"/>
       <c r="E648" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10047,9 +10034,9 @@
       <c r="C649" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D649" s="36"/>
+      <c r="D649" s="11"/>
       <c r="E649" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10062,7 +10049,7 @@
       </c>
       <c r="D650" s="36"/>
       <c r="E650" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10073,64 +10060,63 @@
       <c r="C651" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D651" s="36" t="n">
-        <v>8</v>
-      </c>
+      <c r="D651" s="36"/>
       <c r="E651" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A652" s="37" t="s">
+      <c r="A652" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="B652" s="38"/>
-      <c r="C652" s="39"/>
-      <c r="D652" s="39"/>
+      <c r="B652" s="11"/>
+      <c r="C652" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D652" s="36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E652" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="653" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A653" s="37" t="s">
+      <c r="A653" s="21" t="s">
         <v>660</v>
       </c>
-      <c r="B653" s="40" t="n">
+      <c r="C653" s="37"/>
+      <c r="D653" s="37"/>
+    </row>
+    <row r="654" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A654" s="21" t="s">
+        <v>661</v>
+      </c>
+      <c r="B654" s="38" t="n">
         <v>45717</v>
       </c>
-      <c r="C653" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D653" s="39" t="n">
+      <c r="C654" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D654" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="E653" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="654" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A654" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="B654" s="12" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C654" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D654" s="41"/>
       <c r="E654" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A655" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="B655" s="13"/>
+      <c r="B655" s="12" t="n">
+        <v>45597</v>
+      </c>
       <c r="C655" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D655" s="13"/>
+      <c r="D655" s="39"/>
       <c r="E655" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10143,7 +10129,7 @@
       </c>
       <c r="D656" s="13"/>
       <c r="E656" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10156,7 +10142,7 @@
       </c>
       <c r="D657" s="13"/>
       <c r="E657" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10169,7 +10155,7 @@
       </c>
       <c r="D658" s="13"/>
       <c r="E658" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10180,39 +10166,39 @@
       <c r="C659" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D659" s="13" t="n">
-        <v>6</v>
-      </c>
+      <c r="D659" s="13"/>
       <c r="E659" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A660" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="B660" s="9" t="n">
-        <v>45599</v>
-      </c>
-      <c r="C660" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D660" s="11"/>
+      <c r="B660" s="13"/>
+      <c r="C660" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D660" s="13" t="n">
+        <v>6</v>
+      </c>
       <c r="E660" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A661" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="B661" s="11"/>
+      <c r="B661" s="9" t="n">
+        <v>45599</v>
+      </c>
       <c r="C661" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D661" s="11"/>
       <c r="E661" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10223,86 +10209,86 @@
       <c r="C662" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D662" s="10" t="n">
-        <v>3</v>
-      </c>
+      <c r="D662" s="11"/>
       <c r="E662" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A663" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="B663" s="12" t="n">
-        <v>45597</v>
-      </c>
-      <c r="C663" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D663" s="13"/>
+      <c r="B663" s="11"/>
+      <c r="C663" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D663" s="10" t="n">
+        <v>3</v>
+      </c>
       <c r="E663" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A664" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="B664" s="13"/>
+      <c r="B664" s="12" t="n">
+        <v>45597</v>
+      </c>
       <c r="C664" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D664" s="13" t="n">
-        <v>2</v>
-      </c>
+      <c r="D664" s="13"/>
       <c r="E664" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A665" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="B665" s="9" t="n">
-        <v>45598</v>
-      </c>
-      <c r="C665" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D665" s="10" t="n">
-        <v>1</v>
+      <c r="B665" s="13"/>
+      <c r="C665" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D665" s="13" t="n">
+        <v>2</v>
       </c>
       <c r="E665" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="666" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A666" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="B666" s="12" t="n">
-        <v>45600</v>
-      </c>
-      <c r="C666" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D666" s="13"/>
+      <c r="B666" s="9" t="n">
+        <v>45598</v>
+      </c>
+      <c r="C666" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D666" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="E666" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A667" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="B667" s="13"/>
+      <c r="B667" s="12" t="n">
+        <v>45600</v>
+      </c>
       <c r="C667" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D667" s="13"/>
       <c r="E667" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10315,7 +10301,7 @@
       </c>
       <c r="D668" s="13"/>
       <c r="E668" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10328,7 +10314,7 @@
       </c>
       <c r="D669" s="13"/>
       <c r="E669" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10341,7 +10327,7 @@
       </c>
       <c r="D670" s="13"/>
       <c r="E670" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10354,7 +10340,7 @@
       </c>
       <c r="D671" s="13"/>
       <c r="E671" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10367,7 +10353,7 @@
       </c>
       <c r="D672" s="13"/>
       <c r="E672" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10380,7 +10366,7 @@
       </c>
       <c r="D673" s="13"/>
       <c r="E673" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10393,7 +10379,7 @@
       </c>
       <c r="D674" s="13"/>
       <c r="E674" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10404,39 +10390,39 @@
       <c r="C675" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D675" s="13" t="n">
-        <v>10</v>
-      </c>
+      <c r="D675" s="13"/>
       <c r="E675" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A676" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="B676" s="9" t="n">
-        <v>45601</v>
-      </c>
-      <c r="C676" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D676" s="11"/>
+      <c r="B676" s="13"/>
+      <c r="C676" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D676" s="13" t="n">
+        <v>10</v>
+      </c>
       <c r="E676" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A677" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="B677" s="11"/>
+      <c r="B677" s="9" t="n">
+        <v>45601</v>
+      </c>
       <c r="C677" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D677" s="11"/>
       <c r="E677" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10449,7 +10435,7 @@
       </c>
       <c r="D678" s="11"/>
       <c r="E678" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10462,7 +10448,7 @@
       </c>
       <c r="D679" s="11"/>
       <c r="E679" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10475,7 +10461,7 @@
       </c>
       <c r="D680" s="11"/>
       <c r="E680" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10486,42 +10472,42 @@
       <c r="C681" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D681" s="10" t="n">
-        <v>6</v>
-      </c>
+      <c r="D681" s="11"/>
       <c r="E681" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A682" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="B682" s="24" t="n">
-        <v>45602</v>
-      </c>
-      <c r="C682" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D682" s="13"/>
+      <c r="B682" s="11"/>
+      <c r="C682" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D682" s="10" t="n">
+        <v>6</v>
+      </c>
       <c r="E682" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A683" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="B683" s="13"/>
+      <c r="B683" s="24" t="n">
+        <v>45602</v>
+      </c>
       <c r="C683" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D683" s="13"/>
       <c r="E683" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="684" s="1" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="684" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A684" s="1" t="s">
         <v>691</v>
       </c>
@@ -10531,9 +10517,8 @@
       </c>
       <c r="D684" s="13"/>
       <c r="E684" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G684" s="2"/>
+        <v>10</v>
+      </c>
     </row>
     <row r="685" s="1" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A685" s="1" t="s">
@@ -10545,7 +10530,7 @@
       </c>
       <c r="D685" s="13"/>
       <c r="E685" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G685" s="2"/>
     </row>
@@ -10559,7 +10544,7 @@
       </c>
       <c r="D686" s="13"/>
       <c r="E686" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G686" s="2"/>
     </row>
@@ -10573,12 +10558,12 @@
       </c>
       <c r="D687" s="13"/>
       <c r="E687" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G687" s="2"/>
     </row>
     <row r="688" s="1" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A688" s="14" t="s">
+      <c r="A688" s="1" t="s">
         <v>695</v>
       </c>
       <c r="B688" s="13"/>
@@ -10587,7 +10572,7 @@
       </c>
       <c r="D688" s="13"/>
       <c r="E688" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G688" s="2"/>
     </row>
@@ -10601,11 +10586,11 @@
       </c>
       <c r="D689" s="13"/>
       <c r="E689" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G689" s="2"/>
     </row>
-    <row r="690" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="690" s="1" customFormat="true" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A690" s="14" t="s">
         <v>697</v>
       </c>
@@ -10613,27 +10598,25 @@
       <c r="C690" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D690" s="13" t="n">
-        <v>9</v>
-      </c>
+      <c r="D690" s="13"/>
       <c r="E690" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F690" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="G690" s="2"/>
     </row>
     <row r="691" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A691" s="14" t="s">
         <v>698</v>
       </c>
-      <c r="B691" s="9" t="n">
-        <v>45603</v>
-      </c>
-      <c r="C691" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D691" s="11"/>
+      <c r="B691" s="13"/>
+      <c r="C691" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D691" s="13" t="n">
+        <v>9</v>
+      </c>
       <c r="E691" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F691" s="1"/>
     </row>
@@ -10641,13 +10624,15 @@
       <c r="A692" s="14" t="s">
         <v>699</v>
       </c>
-      <c r="B692" s="11"/>
+      <c r="B692" s="9" t="n">
+        <v>45603</v>
+      </c>
       <c r="C692" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D692" s="11"/>
       <c r="E692" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F692" s="1"/>
     </row>
@@ -10661,12 +10646,12 @@
       </c>
       <c r="D693" s="11"/>
       <c r="E693" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F693" s="1"/>
     </row>
     <row r="694" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A694" s="1" t="s">
+      <c r="A694" s="14" t="s">
         <v>701</v>
       </c>
       <c r="B694" s="11"/>
@@ -10675,8 +10660,9 @@
       </c>
       <c r="D694" s="11"/>
       <c r="E694" s="2" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F694" s="1"/>
     </row>
     <row r="695" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A695" s="1" t="s">
@@ -10688,7 +10674,7 @@
       </c>
       <c r="D695" s="11"/>
       <c r="E695" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10701,7 +10687,7 @@
       </c>
       <c r="D696" s="11"/>
       <c r="E696" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10714,7 +10700,7 @@
       </c>
       <c r="D697" s="11"/>
       <c r="E697" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10727,7 +10713,7 @@
       </c>
       <c r="D698" s="11"/>
       <c r="E698" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10740,7 +10726,7 @@
       </c>
       <c r="D699" s="11"/>
       <c r="E699" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10753,7 +10739,7 @@
       </c>
       <c r="D700" s="11"/>
       <c r="E700" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10766,7 +10752,7 @@
       </c>
       <c r="D701" s="11"/>
       <c r="E701" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10777,39 +10763,39 @@
       <c r="C702" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D702" s="11" t="n">
+      <c r="D702" s="11"/>
+      <c r="E702" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A703" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="B703" s="11"/>
+      <c r="C703" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D703" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="E702" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="703" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A703" s="8" t="s">
-        <v>710</v>
-      </c>
-      <c r="B703" s="12" t="n">
-        <v>45604</v>
-      </c>
-      <c r="C703" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D703" s="13"/>
       <c r="E703" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A704" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="B704" s="13"/>
+      <c r="B704" s="12" t="n">
+        <v>45604</v>
+      </c>
       <c r="C704" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D704" s="13"/>
       <c r="E704" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10822,7 +10808,7 @@
       </c>
       <c r="D705" s="13"/>
       <c r="E705" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10835,7 +10821,7 @@
       </c>
       <c r="D706" s="13"/>
       <c r="E706" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10848,7 +10834,7 @@
       </c>
       <c r="D707" s="13"/>
       <c r="E707" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10861,7 +10847,7 @@
       </c>
       <c r="D708" s="13"/>
       <c r="E708" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10874,7 +10860,7 @@
       </c>
       <c r="D709" s="13"/>
       <c r="E709" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10887,7 +10873,7 @@
       </c>
       <c r="D710" s="13"/>
       <c r="E710" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10898,39 +10884,39 @@
       <c r="C711" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D711" s="13" t="n">
+      <c r="D711" s="13"/>
+      <c r="E711" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A712" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="B712" s="13"/>
+      <c r="C712" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D712" s="13" t="n">
         <v>9</v>
       </c>
-      <c r="E711" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="712" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A712" s="1" t="s">
-        <v>719</v>
-      </c>
-      <c r="B712" s="9" t="n">
-        <v>45606</v>
-      </c>
-      <c r="C712" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D712" s="10"/>
       <c r="E712" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A713" s="1" t="s">
         <v>720</v>
       </c>
-      <c r="B713" s="10"/>
+      <c r="B713" s="9" t="n">
+        <v>45606</v>
+      </c>
       <c r="C713" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D713" s="10"/>
       <c r="E713" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10941,56 +10927,56 @@
       <c r="C714" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D714" s="10" t="n">
-        <v>3</v>
-      </c>
+      <c r="D714" s="10"/>
       <c r="E714" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A715" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="B715" s="12" t="n">
-        <v>45604</v>
-      </c>
-      <c r="C715" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D715" s="13" t="n">
-        <v>1</v>
+      <c r="B715" s="10"/>
+      <c r="C715" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D715" s="10" t="n">
+        <v>3</v>
       </c>
       <c r="E715" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A716" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="B716" s="9" t="n">
-        <v>45605</v>
-      </c>
-      <c r="C716" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D716" s="10"/>
+      <c r="B716" s="12" t="n">
+        <v>45604</v>
+      </c>
+      <c r="C716" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D716" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="E716" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A717" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="B717" s="10"/>
+      <c r="B717" s="9" t="n">
+        <v>45605</v>
+      </c>
       <c r="C717" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D717" s="10"/>
       <c r="E717" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11003,7 +10989,7 @@
       </c>
       <c r="D718" s="10"/>
       <c r="E718" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11016,7 +11002,7 @@
       </c>
       <c r="D719" s="10"/>
       <c r="E719" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11027,39 +11013,39 @@
       <c r="C720" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D720" s="10" t="n">
+      <c r="D720" s="10"/>
+      <c r="E720" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A721" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="B721" s="10"/>
+      <c r="C721" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D721" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E720" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="721" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A721" s="8" t="s">
-        <v>728</v>
-      </c>
-      <c r="B721" s="12" t="n">
-        <v>45607</v>
-      </c>
-      <c r="C721" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D721" s="13"/>
       <c r="E721" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="722" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A722" s="8" t="s">
         <v>729</v>
       </c>
-      <c r="B722" s="13"/>
+      <c r="B722" s="12" t="n">
+        <v>45607</v>
+      </c>
       <c r="C722" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D722" s="13"/>
       <c r="E722" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11072,7 +11058,7 @@
       </c>
       <c r="D723" s="13"/>
       <c r="E723" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11085,7 +11071,7 @@
       </c>
       <c r="D724" s="13"/>
       <c r="E724" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11098,7 +11084,7 @@
       </c>
       <c r="D725" s="13"/>
       <c r="E725" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11109,39 +11095,39 @@
       <c r="C726" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D726" s="13" t="n">
+      <c r="D726" s="13"/>
+      <c r="E726" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A727" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="B727" s="13"/>
+      <c r="C727" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D727" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="E726" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="727" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A727" s="1" t="s">
-        <v>734</v>
-      </c>
-      <c r="B727" s="9" t="n">
-        <v>45608</v>
-      </c>
-      <c r="C727" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D727" s="10"/>
       <c r="E727" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A728" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="B728" s="10"/>
+      <c r="B728" s="9" t="n">
+        <v>45608</v>
+      </c>
       <c r="C728" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D728" s="10"/>
       <c r="E728" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11154,11 +11140,11 @@
       </c>
       <c r="D729" s="10"/>
       <c r="E729" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A730" s="8" t="s">
+      <c r="A730" s="1" t="s">
         <v>737</v>
       </c>
       <c r="B730" s="10"/>
@@ -11167,7 +11153,7 @@
       </c>
       <c r="D730" s="10"/>
       <c r="E730" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11180,7 +11166,7 @@
       </c>
       <c r="D731" s="10"/>
       <c r="E731" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11191,39 +11177,39 @@
       <c r="C732" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D732" s="10" t="n">
+      <c r="D732" s="10"/>
+      <c r="E732" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A733" s="8" t="s">
+        <v>740</v>
+      </c>
+      <c r="B733" s="10"/>
+      <c r="C733" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D733" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="E732" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="733" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A733" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="B733" s="12" t="n">
-        <v>45609</v>
-      </c>
-      <c r="C733" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D733" s="13"/>
       <c r="E733" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="B734" s="13"/>
+      <c r="B734" s="12" t="n">
+        <v>45609</v>
+      </c>
       <c r="C734" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D734" s="13"/>
       <c r="E734" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11234,39 +11220,39 @@
       <c r="C735" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D735" s="13" t="n">
+      <c r="D735" s="13"/>
+      <c r="E735" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A736" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="B736" s="13"/>
+      <c r="C736" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D736" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="E735" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="736" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A736" s="8" t="s">
-        <v>743</v>
-      </c>
-      <c r="B736" s="9" t="n">
-        <v>45610</v>
-      </c>
-      <c r="C736" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D736" s="10"/>
       <c r="E736" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A737" s="8" t="s">
         <v>744</v>
       </c>
-      <c r="B737" s="10"/>
+      <c r="B737" s="9" t="n">
+        <v>45610</v>
+      </c>
       <c r="C737" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D737" s="10"/>
       <c r="E737" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11279,7 +11265,7 @@
       </c>
       <c r="D738" s="10"/>
       <c r="E738" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11292,7 +11278,7 @@
       </c>
       <c r="D739" s="10"/>
       <c r="E739" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11303,18 +11289,25 @@
       <c r="C740" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D740" s="10" t="n">
+      <c r="D740" s="10"/>
+      <c r="E740" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="741" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A741" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="B741" s="10"/>
+      <c r="C741" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D741" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E740" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="741" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A741" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="B741" s="35"/>
+      <c r="E741" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="742" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A742" s="1" t="s">
@@ -11344,28 +11337,21 @@
       <c r="A746" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="B746" s="9" t="n">
-        <v>45614</v>
-      </c>
-      <c r="C746" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D746" s="10"/>
-      <c r="E746" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B746" s="35"/>
     </row>
     <row r="747" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A747" s="1" t="s">
         <v>754</v>
       </c>
-      <c r="B747" s="10"/>
+      <c r="B747" s="9" t="n">
+        <v>45614</v>
+      </c>
       <c r="C747" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D747" s="10"/>
       <c r="E747" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11378,20 +11364,20 @@
       </c>
       <c r="D748" s="10"/>
       <c r="E748" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A749" s="8" t="s">
+      <c r="A749" s="1" t="s">
         <v>756</v>
       </c>
-      <c r="B749" s="11"/>
-      <c r="C749" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D749" s="11"/>
+      <c r="B749" s="10"/>
+      <c r="C749" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D749" s="10"/>
       <c r="E749" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11402,18 +11388,25 @@
       <c r="C750" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D750" s="11" t="n">
-        <v>5</v>
-      </c>
+      <c r="D750" s="11"/>
       <c r="E750" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A751" s="8" t="s">
         <v>758</v>
       </c>
-      <c r="B751" s="35"/>
+      <c r="B751" s="11"/>
+      <c r="C751" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D751" s="11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E751" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="752" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A752" s="8" t="s">
@@ -11434,31 +11427,24 @@
       <c r="B754" s="35"/>
     </row>
     <row r="755" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A755" s="1" t="s">
+      <c r="A755" s="8" t="s">
         <v>762</v>
       </c>
-      <c r="B755" s="9" t="n">
-        <v>45616</v>
-      </c>
-      <c r="C755" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D755" s="10"/>
-      <c r="E755" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="B755" s="35"/>
     </row>
     <row r="756" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A756" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="B756" s="10"/>
+      <c r="B756" s="9" t="n">
+        <v>45616</v>
+      </c>
       <c r="C756" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D756" s="10"/>
       <c r="E756" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11469,86 +11455,86 @@
       <c r="C757" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D757" s="10" t="n">
-        <v>3</v>
-      </c>
+      <c r="D757" s="10"/>
       <c r="E757" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A758" s="1" t="s">
         <v>765</v>
       </c>
-      <c r="B758" s="12" t="n">
-        <v>45615</v>
-      </c>
-      <c r="C758" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D758" s="13" t="n">
-        <v>1</v>
+      <c r="B758" s="10"/>
+      <c r="C758" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D758" s="10" t="n">
+        <v>3</v>
       </c>
       <c r="E758" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A759" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="B759" s="9" t="n">
-        <v>45616</v>
-      </c>
-      <c r="C759" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D759" s="10"/>
+      <c r="B759" s="12" t="n">
+        <v>45615</v>
+      </c>
+      <c r="C759" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D759" s="13" t="n">
+        <v>1</v>
+      </c>
       <c r="E759" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A760" s="1" t="s">
         <v>767</v>
       </c>
-      <c r="B760" s="10"/>
+      <c r="B760" s="9" t="n">
+        <v>45616</v>
+      </c>
       <c r="C760" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D760" s="10" t="n">
+      <c r="D760" s="10"/>
+      <c r="E760" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="761" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A761" s="1" t="s">
+        <v>768</v>
+      </c>
+      <c r="B761" s="10"/>
+      <c r="C761" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D761" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="E760" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="761" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A761" s="8" t="s">
-        <v>768</v>
-      </c>
-      <c r="B761" s="12" t="n">
-        <v>45617</v>
-      </c>
-      <c r="C761" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D761" s="13"/>
       <c r="E761" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A762" s="8" t="s">
         <v>769</v>
       </c>
-      <c r="B762" s="13"/>
+      <c r="B762" s="12" t="n">
+        <v>45617</v>
+      </c>
       <c r="C762" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D762" s="13"/>
       <c r="E762" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11561,11 +11547,11 @@
       </c>
       <c r="D763" s="13"/>
       <c r="E763" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A764" s="1" t="s">
+      <c r="A764" s="8" t="s">
         <v>771</v>
       </c>
       <c r="B764" s="13"/>
@@ -11574,7 +11560,7 @@
       </c>
       <c r="D764" s="13"/>
       <c r="E764" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11587,7 +11573,7 @@
       </c>
       <c r="D765" s="13"/>
       <c r="E765" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11598,18 +11584,25 @@
       <c r="C766" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D766" s="13" t="n">
+      <c r="D766" s="13"/>
+      <c r="E766" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="767" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A767" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="B767" s="13"/>
+      <c r="C767" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D767" s="13" t="n">
         <v>6</v>
       </c>
-      <c r="E766" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="767" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A767" s="8" t="s">
-        <v>774</v>
-      </c>
-      <c r="B767" s="35"/>
+      <c r="E767" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="768" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A768" s="8" t="s">
@@ -11624,9 +11617,10 @@
       <c r="B769" s="35"/>
     </row>
     <row r="770" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A770" s="1" t="s">
+      <c r="A770" s="8" t="s">
         <v>777</v>
       </c>
+      <c r="B770" s="35"/>
     </row>
     <row r="771" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A771" s="1" t="s">
@@ -11642,23 +11636,23 @@
       <c r="A773" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="B773" s="42" t="n">
-        <v>45617</v>
-      </c>
-      <c r="C773" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D773" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E773" s="2" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="774" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A774" s="1" t="s">
         <v>781</v>
       </c>
+      <c r="B774" s="38" t="n">
+        <v>45617</v>
+      </c>
+      <c r="C774" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D774" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E774" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="775" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A775" s="1" t="s">
@@ -11681,7 +11675,7 @@
       </c>
     </row>
     <row r="779" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A779" s="8" t="s">
+      <c r="A779" s="1" t="s">
         <v>786</v>
       </c>
     </row>
@@ -11711,7 +11705,7 @@
       </c>
     </row>
     <row r="785" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A785" s="1" t="s">
+      <c r="A785" s="8" t="s">
         <v>792</v>
       </c>
     </row>
@@ -11726,31 +11720,23 @@
       </c>
     </row>
     <row r="788" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A788" s="8" t="s">
+      <c r="A788" s="1" t="s">
         <v>795</v>
-      </c>
-      <c r="B788" s="9" t="n">
-        <v>45621</v>
-      </c>
-      <c r="C788" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D788" s="10"/>
-      <c r="E788" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A789" s="8" t="s">
         <v>796</v>
       </c>
-      <c r="B789" s="10"/>
+      <c r="B789" s="9" t="n">
+        <v>45621</v>
+      </c>
       <c r="C789" s="10" t="s">
         <v>8</v>
       </c>
       <c r="D789" s="10"/>
       <c r="E789" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11763,7 +11749,7 @@
       </c>
       <c r="D790" s="10"/>
       <c r="E790" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11776,7 +11762,7 @@
       </c>
       <c r="D791" s="10"/>
       <c r="E791" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11789,7 +11775,7 @@
       </c>
       <c r="D792" s="10"/>
       <c r="E792" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11802,7 +11788,7 @@
       </c>
       <c r="D793" s="10"/>
       <c r="E793" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11813,17 +11799,25 @@
       <c r="C794" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D794" s="10" t="n">
-        <v>7</v>
-      </c>
+      <c r="D794" s="10"/>
       <c r="E794" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A795" s="8" t="s">
         <v>802</v>
       </c>
+      <c r="B795" s="10"/>
+      <c r="C795" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D795" s="10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E795" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="796" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A796" s="8" t="s">
@@ -11866,7 +11860,7 @@
       </c>
     </row>
     <row r="804" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A804" s="1" t="s">
+      <c r="A804" s="8" t="s">
         <v>811</v>
       </c>
     </row>
@@ -11881,7 +11875,7 @@
       </c>
     </row>
     <row r="807" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A807" s="8" t="s">
+      <c r="A807" s="1" t="s">
         <v>814</v>
       </c>
     </row>
@@ -11896,7 +11890,7 @@
       </c>
     </row>
     <row r="810" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A810" s="1" t="s">
+      <c r="A810" s="8" t="s">
         <v>817</v>
       </c>
     </row>
@@ -11906,7 +11900,7 @@
       </c>
     </row>
     <row r="812" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A812" s="8" t="s">
+      <c r="A812" s="1" t="s">
         <v>819</v>
       </c>
     </row>
@@ -11951,10 +11945,9 @@
       </c>
     </row>
     <row r="821" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A821" s="1" t="s">
+      <c r="A821" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="B821" s="35"/>
     </row>
     <row r="822" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A822" s="1" t="s">
@@ -12005,9 +11998,10 @@
       <c r="B829" s="35"/>
     </row>
     <row r="830" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A830" s="8" t="s">
+      <c r="A830" s="1" t="s">
         <v>837</v>
       </c>
+      <c r="B830" s="35"/>
     </row>
     <row r="831" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A831" s="8" t="s">
@@ -12050,7 +12044,7 @@
       </c>
     </row>
     <row r="839" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A839" s="1" t="s">
+      <c r="A839" s="8" t="s">
         <v>846</v>
       </c>
     </row>
@@ -12095,22 +12089,17 @@
       </c>
     </row>
     <row r="848" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A848" s="8" t="s">
+      <c r="A848" s="1" t="s">
         <v>855</v>
       </c>
-      <c r="B848" s="12" t="n">
-        <v>45615</v>
-      </c>
-      <c r="C848" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D848" s="13"/>
     </row>
     <row r="849" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A849" s="8" t="s">
         <v>856</v>
       </c>
-      <c r="B849" s="13"/>
+      <c r="B849" s="12" t="n">
+        <v>45615</v>
+      </c>
       <c r="C849" s="13" t="s">
         <v>8</v>
       </c>
@@ -12127,10 +12116,10 @@
       <c r="D850" s="13"/>
     </row>
     <row r="851" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A851" s="1" t="s">
+      <c r="A851" s="8" t="s">
         <v>858</v>
       </c>
-      <c r="B851" s="12"/>
+      <c r="B851" s="13"/>
       <c r="C851" s="13" t="s">
         <v>8</v>
       </c>
@@ -12140,7 +12129,7 @@
       <c r="A852" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="B852" s="13"/>
+      <c r="B852" s="12"/>
       <c r="C852" s="13" t="s">
         <v>8</v>
       </c>
@@ -12154,41 +12143,41 @@
       <c r="C853" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D853" s="13" t="n">
+      <c r="D853" s="13"/>
+    </row>
+    <row r="854" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A854" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B854" s="13"/>
+      <c r="C854" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D854" s="13" t="n">
         <v>6</v>
-      </c>
-    </row>
-    <row r="854" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A854" s="8" t="s">
-        <v>861</v>
-      </c>
-      <c r="B854" s="9" t="n">
-        <v>45614</v>
-      </c>
-      <c r="C854" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D854" s="11" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="855" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A855" s="8" t="s">
         <v>862</v>
       </c>
-      <c r="B855" s="12" t="n">
-        <v>45615</v>
-      </c>
-      <c r="C855" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D855" s="13"/>
+      <c r="B855" s="9" t="n">
+        <v>45614</v>
+      </c>
+      <c r="C855" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D855" s="11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="856" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A856" s="8" t="s">
         <v>863</v>
       </c>
-      <c r="B856" s="13"/>
+      <c r="B856" s="12" t="n">
+        <v>45615</v>
+      </c>
       <c r="C856" s="13" t="s">
         <v>8</v>
       </c>
@@ -12202,11 +12191,20 @@
       <c r="C857" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D857" s="13" t="n">
+      <c r="D857" s="13"/>
+    </row>
+    <row r="858" customFormat="false" ht="16.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A858" s="8" t="s">
+        <v>865</v>
+      </c>
+      <c r="B858" s="13"/>
+      <c r="C858" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D858" s="13" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="1048140" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048141" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048142" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048143" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -12695,7 +12693,7 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="40" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5" t="n">
@@ -12703,7 +12701,7 @@
         <v>136</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F2" s="7" t="n">
         <f aca="false">212-D2</f>
@@ -12712,7 +12710,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B3" s="9" t="n">
         <v>45657</v>
@@ -12722,12 +12720,12 @@
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="10" t="s">
@@ -12735,12 +12733,12 @@
       </c>
       <c r="D4" s="10"/>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B5" s="10"/>
       <c r="C5" s="10" t="s">
@@ -12748,12 +12746,12 @@
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10" t="s">
@@ -12761,12 +12759,12 @@
       </c>
       <c r="D6" s="10"/>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10" t="s">
@@ -12774,12 +12772,12 @@
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10" t="s">
@@ -12787,12 +12785,12 @@
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10" t="s">
@@ -12802,12 +12800,12 @@
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="14" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B10" s="12" t="n">
         <v>45657</v>
@@ -12817,12 +12815,12 @@
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="14" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="13" t="s">
@@ -12830,12 +12828,12 @@
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="14" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
@@ -12843,12 +12841,12 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="14" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
@@ -12856,12 +12854,12 @@
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="14" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
@@ -12869,12 +12867,12 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="14" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
@@ -12882,12 +12880,12 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="14" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
@@ -12895,12 +12893,12 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
@@ -12908,12 +12906,12 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="14" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B18" s="13"/>
       <c r="C18" s="13" t="s">
@@ -12921,12 +12919,12 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B19" s="13"/>
       <c r="C19" s="13" t="s">
@@ -12934,12 +12932,12 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="14" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B20" s="13"/>
       <c r="C20" s="13" t="s">
@@ -12949,12 +12947,12 @@
         <v>11</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="15" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B21" s="9" t="n">
         <v>45656</v>
@@ -12964,12 +12962,12 @@
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="15" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11" t="s">
@@ -12977,12 +12975,12 @@
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="11" t="s">
@@ -12992,12 +12990,12 @@
         <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="16" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B24" s="12" t="n">
         <v>45658</v>
@@ -13007,12 +13005,12 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="16" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B25" s="13"/>
       <c r="C25" s="13" t="s">
@@ -13020,12 +13018,12 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="16" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="B26" s="13"/>
       <c r="C26" s="13" t="s">
@@ -13035,12 +13033,12 @@
         <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="16" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B27" s="24" t="n">
         <v>45659</v>
@@ -13050,12 +13048,12 @@
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="16" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="13" t="s">
@@ -13063,12 +13061,12 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B29" s="13"/>
       <c r="C29" s="13" t="s">
@@ -13076,12 +13074,12 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B30" s="13"/>
       <c r="C30" s="13" t="s">
@@ -13089,12 +13087,12 @@
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="16" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B31" s="13"/>
       <c r="C31" s="13" t="s">
@@ -13102,12 +13100,12 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="16" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B32" s="13"/>
       <c r="C32" s="13" t="s">
@@ -13115,12 +13113,12 @@
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="16" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B33" s="13"/>
       <c r="C33" s="13" t="s">
@@ -13130,12 +13128,12 @@
         <v>7</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="15" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B34" s="9" t="n">
         <v>45656</v>
@@ -13145,12 +13143,12 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="15" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="11" t="s">
@@ -13158,12 +13156,12 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="15" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B36" s="11"/>
       <c r="C36" s="11" t="s">
@@ -13173,12 +13171,12 @@
         <v>3</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B37" s="22" t="n">
         <v>45662</v>
@@ -13188,12 +13186,12 @@
       </c>
       <c r="D37" s="23"/>
       <c r="E37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="23" t="s">
@@ -13201,12 +13199,12 @@
       </c>
       <c r="D38" s="23"/>
       <c r="E38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="23" t="s">
@@ -13214,12 +13212,12 @@
       </c>
       <c r="D39" s="23"/>
       <c r="E39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B40" s="23"/>
       <c r="C40" s="23" t="s">
@@ -13227,12 +13225,12 @@
       </c>
       <c r="D40" s="23"/>
       <c r="E40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="23" t="s">
@@ -13240,12 +13238,12 @@
       </c>
       <c r="D41" s="23"/>
       <c r="E41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B42" s="23"/>
       <c r="C42" s="23" t="s">
@@ -13253,12 +13251,12 @@
       </c>
       <c r="D42" s="23"/>
       <c r="E42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B43" s="23"/>
       <c r="C43" s="23" t="s">
@@ -13266,12 +13264,12 @@
       </c>
       <c r="D43" s="23"/>
       <c r="E43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B44" s="23"/>
       <c r="C44" s="23" t="s">
@@ -13279,12 +13277,12 @@
       </c>
       <c r="D44" s="23"/>
       <c r="E44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B45" s="23"/>
       <c r="C45" s="23" t="s">
@@ -13292,12 +13290,12 @@
       </c>
       <c r="D45" s="23"/>
       <c r="E45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="23" t="s">
@@ -13305,12 +13303,12 @@
       </c>
       <c r="D46" s="23"/>
       <c r="E46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B47" s="23"/>
       <c r="C47" s="23" t="s">
@@ -13320,12 +13318,12 @@
         <v>11</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="15" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B48" s="9" t="n">
         <v>45659</v>
@@ -13337,12 +13335,12 @@
         <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="14" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B49" s="12" t="n">
         <v>45659</v>
@@ -13352,12 +13350,12 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="14" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="13" t="s">
@@ -13365,12 +13363,12 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="14" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13" t="s">
@@ -13378,12 +13376,12 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="14" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13" t="s">
@@ -13391,12 +13389,12 @@
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="14" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="13" t="s">
@@ -13404,12 +13402,12 @@
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="14" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="13" t="s">
@@ -13417,12 +13415,12 @@
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="14" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="13" t="s">
@@ -13432,12 +13430,12 @@
         <v>7</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="15" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B56" s="9" t="n">
         <v>45660</v>
@@ -13447,12 +13445,12 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="15" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B57" s="11"/>
       <c r="C57" s="11" t="s">
@@ -13460,12 +13458,12 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="15" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B58" s="11"/>
       <c r="C58" s="11" t="s">
@@ -13475,12 +13473,12 @@
         <v>3</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="15" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="B59" s="9" t="n">
         <v>45656</v>
@@ -13490,12 +13488,12 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="15" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11" t="s">
@@ -13505,12 +13503,12 @@
         <v>2</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="16" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B61" s="12" t="n">
         <v>45294</v>
@@ -13522,12 +13520,12 @@
         <v>1</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="16" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B62" s="24" t="n">
         <v>45661</v>
@@ -13537,12 +13535,12 @@
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="16" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B63" s="13"/>
       <c r="C63" s="13" t="s">
@@ -13550,12 +13548,12 @@
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="16" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B64" s="13"/>
       <c r="C64" s="13" t="s">
@@ -13565,12 +13563,12 @@
         <v>3</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B65" s="22" t="n">
         <v>45663</v>
@@ -13580,12 +13578,12 @@
       </c>
       <c r="D65" s="23"/>
       <c r="E65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="21" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="23" t="s">
@@ -13593,12 +13591,12 @@
       </c>
       <c r="D66" s="23"/>
       <c r="E66" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="21" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B67" s="23"/>
       <c r="C67" s="23" t="s">
@@ -13606,12 +13604,12 @@
       </c>
       <c r="D67" s="23"/>
       <c r="E67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B68" s="23"/>
       <c r="C68" s="23" t="s">
@@ -13619,12 +13617,12 @@
       </c>
       <c r="D68" s="23"/>
       <c r="E68" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="21" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B69" s="23"/>
       <c r="C69" s="23" t="s">
@@ -13634,12 +13632,12 @@
         <v>5</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="15" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B70" s="9" t="n">
         <v>45661</v>
@@ -13649,12 +13647,12 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="15" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B71" s="11"/>
       <c r="C71" s="11" t="s">
@@ -13662,12 +13660,12 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="15" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="11" t="s">
@@ -13677,12 +13675,12 @@
         <v>3</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="16" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B73" s="12" t="n">
         <v>45665</v>
@@ -13694,12 +13692,12 @@
         <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="15" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B74" s="9" t="n">
         <v>45638</v>
@@ -13709,12 +13707,12 @@
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="10" t="s">
@@ -13724,12 +13722,12 @@
         <v>2</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="16" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B76" s="12" t="n">
         <v>45665</v>
@@ -13741,12 +13739,12 @@
         <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="15" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B77" s="9" t="n">
         <v>45636</v>
@@ -13758,12 +13756,12 @@
         <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B78" s="20" t="n">
         <v>45667</v>
@@ -13773,12 +13771,12 @@
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="16" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B79" s="13"/>
       <c r="C79" s="13" t="s">
@@ -13786,12 +13784,12 @@
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="10" t="s">
@@ -13801,12 +13799,12 @@
         <v>3</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="16" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B81" s="12" t="n">
         <v>45636</v>
@@ -13818,12 +13816,12 @@
         <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="16" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B82" s="12" t="n">
         <v>45637</v>
@@ -13833,12 +13831,12 @@
       </c>
       <c r="D82" s="13"/>
       <c r="E82" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="16" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B83" s="13"/>
       <c r="C83" s="13" t="s">
@@ -13846,12 +13844,12 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="16" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B84" s="13"/>
       <c r="C84" s="13" t="s">
@@ -13859,12 +13857,12 @@
       </c>
       <c r="D84" s="13"/>
       <c r="E84" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="16" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B85" s="13"/>
       <c r="C85" s="13" t="s">
@@ -13874,12 +13872,12 @@
         <v>4</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="15" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B86" s="20" t="n">
         <v>45671</v>
@@ -13891,14 +13889,14 @@
         <v>1</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="14" t="s">
-        <v>950</v>
-      </c>
-      <c r="B87" s="44" t="n">
+        <v>951</v>
+      </c>
+      <c r="B87" s="41" t="n">
         <v>45684</v>
       </c>
       <c r="C87" s="29" t="s">
@@ -13906,13 +13904,13 @@
       </c>
       <c r="D87" s="29"/>
       <c r="E87" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F87" s="1"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="14" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B88" s="29"/>
       <c r="C88" s="29" t="s">
@@ -13920,16 +13918,16 @@
       </c>
       <c r="D88" s="29"/>
       <c r="E88" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="14" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B89" s="29"/>
       <c r="C89" s="29" t="s">
@@ -13937,13 +13935,13 @@
       </c>
       <c r="D89" s="29"/>
       <c r="E89" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="14" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B90" s="29"/>
       <c r="C90" s="29" t="s">
@@ -13951,13 +13949,13 @@
       </c>
       <c r="D90" s="29"/>
       <c r="E90" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F90" s="1"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="14" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B91" s="29"/>
       <c r="C91" s="29" t="s">
@@ -13965,13 +13963,13 @@
       </c>
       <c r="D91" s="29"/>
       <c r="E91" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F91" s="1"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="14" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B92" s="29"/>
       <c r="C92" s="29" t="s">
@@ -13981,13 +13979,13 @@
         <v>6</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F92" s="1"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="15" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B93" s="9" t="n">
         <v>45684</v>
@@ -13997,12 +13995,12 @@
       </c>
       <c r="D93" s="10"/>
       <c r="E93" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="15" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="10" t="s">
@@ -14010,12 +14008,12 @@
       </c>
       <c r="D94" s="10"/>
       <c r="E94" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="15" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10" t="s">
@@ -14023,12 +14021,12 @@
       </c>
       <c r="D95" s="10"/>
       <c r="E95" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="15" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="10" t="s">
@@ -14038,142 +14036,142 @@
         <v>4</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="B123" s="12" t="n">
         <v>45589</v>
@@ -14183,12 +14181,12 @@
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B124" s="13"/>
       <c r="C124" s="13" t="s">
@@ -14196,12 +14194,12 @@
       </c>
       <c r="D124" s="13"/>
       <c r="E124" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B125" s="13"/>
       <c r="C125" s="13" t="s">
@@ -14209,12 +14207,12 @@
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B126" s="13"/>
       <c r="C126" s="13" t="s">
@@ -14222,12 +14220,12 @@
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B127" s="13"/>
       <c r="C127" s="13" t="s">
@@ -14235,12 +14233,12 @@
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B128" s="13"/>
       <c r="C128" s="13" t="s">
@@ -14248,12 +14246,12 @@
       </c>
       <c r="D128" s="13"/>
       <c r="E128" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B129" s="13"/>
       <c r="C129" s="13" t="s">
@@ -14261,12 +14259,12 @@
       </c>
       <c r="D129" s="13"/>
       <c r="E129" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B130" s="13"/>
       <c r="C130" s="13" t="s">
@@ -14274,12 +14272,12 @@
       </c>
       <c r="D130" s="13"/>
       <c r="E130" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B131" s="13"/>
       <c r="C131" s="13" t="s">
@@ -14289,12 +14287,12 @@
         <v>9</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B132" s="9" t="n">
         <v>45590</v>
@@ -14304,12 +14302,12 @@
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="B133" s="11"/>
       <c r="C133" s="10" t="s">
@@ -14317,12 +14315,12 @@
       </c>
       <c r="D133" s="11"/>
       <c r="E133" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B134" s="11"/>
       <c r="C134" s="10" t="s">
@@ -14330,12 +14328,12 @@
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B135" s="11"/>
       <c r="C135" s="10" t="s">
@@ -14343,12 +14341,12 @@
       </c>
       <c r="D135" s="11"/>
       <c r="E135" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B136" s="11"/>
       <c r="C136" s="10" t="s">
@@ -14356,12 +14354,12 @@
       </c>
       <c r="D136" s="11"/>
       <c r="E136" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="B137" s="11"/>
       <c r="C137" s="10" t="s">
@@ -14369,12 +14367,12 @@
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B138" s="11"/>
       <c r="C138" s="10" t="s">
@@ -14382,12 +14380,12 @@
       </c>
       <c r="D138" s="11"/>
       <c r="E138" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B139" s="11"/>
       <c r="C139" s="10" t="s">
@@ -14395,12 +14393,12 @@
       </c>
       <c r="D139" s="11"/>
       <c r="E139" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B140" s="11"/>
       <c r="C140" s="10" t="s">
@@ -14408,12 +14406,12 @@
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B141" s="11"/>
       <c r="C141" s="10" t="s">
@@ -14421,12 +14419,12 @@
       </c>
       <c r="D141" s="11"/>
       <c r="E141" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B142" s="11"/>
       <c r="C142" s="10" t="s">
@@ -14436,12 +14434,12 @@
         <v>11</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B143" s="12" t="n">
         <v>45591</v>
@@ -14451,12 +14449,12 @@
       </c>
       <c r="D143" s="13"/>
       <c r="E143" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B144" s="13"/>
       <c r="C144" s="13" t="s">
@@ -14466,12 +14464,12 @@
         <v>2</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="B145" s="9" t="n">
         <v>45595</v>
@@ -14481,12 +14479,12 @@
       </c>
       <c r="D145" s="11"/>
       <c r="E145" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B146" s="11"/>
       <c r="C146" s="10" t="s">
@@ -14494,12 +14492,12 @@
       </c>
       <c r="D146" s="11"/>
       <c r="E146" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="B147" s="11"/>
       <c r="C147" s="10" t="s">
@@ -14507,12 +14505,12 @@
       </c>
       <c r="D147" s="11"/>
       <c r="E147" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B148" s="11"/>
       <c r="C148" s="10" t="s">
@@ -14522,12 +14520,12 @@
         <v>4</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="14" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B149" s="9" t="n">
         <v>45609</v>
@@ -14537,12 +14535,12 @@
       </c>
       <c r="D149" s="11"/>
       <c r="E149" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="14" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B150" s="11"/>
       <c r="C150" s="10" t="s">
@@ -14550,12 +14548,12 @@
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="14" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B151" s="11"/>
       <c r="C151" s="11" t="s">
@@ -14565,12 +14563,12 @@
         <v>3</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B152" s="12" t="n">
         <v>45611</v>
@@ -14580,12 +14578,12 @@
       </c>
       <c r="D152" s="13"/>
       <c r="E152" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B153" s="13"/>
       <c r="C153" s="13" t="s">
@@ -14595,24 +14593,24 @@
         <v>2</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="14" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B154" s="35"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="14" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B155" s="35"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B156" s="12" t="n">
         <v>45614</v>
@@ -14622,12 +14620,12 @@
       </c>
       <c r="D156" s="13"/>
       <c r="E156" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B157" s="13"/>
       <c r="C157" s="13" t="s">
@@ -14635,12 +14633,12 @@
       </c>
       <c r="D157" s="13"/>
       <c r="E157" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="14" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B158" s="13"/>
       <c r="C158" s="13" t="s">
@@ -14648,25 +14646,25 @@
       </c>
       <c r="D158" s="13"/>
       <c r="E158" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="14" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B159" s="13"/>
       <c r="C159" s="13" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D159" s="13"/>
       <c r="E159" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B160" s="13"/>
       <c r="C160" s="13" t="s">
@@ -14676,12 +14674,12 @@
         <v>5</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B161" s="9" t="n">
         <v>45621</v>
@@ -14691,12 +14689,12 @@
       </c>
       <c r="D161" s="10"/>
       <c r="E161" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="B162" s="10"/>
       <c r="C162" s="10" t="s">
@@ -14704,12 +14702,12 @@
       </c>
       <c r="D162" s="10"/>
       <c r="E162" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B163" s="10"/>
       <c r="C163" s="10" t="s">
@@ -14717,12 +14715,12 @@
       </c>
       <c r="D163" s="10"/>
       <c r="E163" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B164" s="10"/>
       <c r="C164" s="10" t="s">
@@ -14730,12 +14728,12 @@
       </c>
       <c r="D164" s="10"/>
       <c r="E164" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B165" s="10"/>
       <c r="C165" s="10" t="s">
@@ -14743,12 +14741,12 @@
       </c>
       <c r="D165" s="10"/>
       <c r="E165" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B166" s="10"/>
       <c r="C166" s="10" t="s">
@@ -14758,282 +14756,282 @@
         <v>6</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B167" s="35"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B168" s="35"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="14" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="14" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="14" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="14" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="14" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="14" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="14" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="14" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="14" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="14" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="B186" s="35"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="14" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="B187" s="35"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="14" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B188" s="35"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="14" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B189" s="35"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="14" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B190" s="35"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="14" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B191" s="35"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="14" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B192" s="35"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="14" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B193" s="35"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="14" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="14" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="14" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="14" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="14" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B209" s="35"/>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="14" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B210" s="35"/>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="14" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B211" s="35"/>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="14" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B212" s="35"/>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="14" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B213" s="35"/>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="1" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="1" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
   </sheetData>
@@ -15060,35 +15058,35 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="45" width="35.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="42" width="35.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="25.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="45" width="11.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="6" style="42" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="45" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>1085</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="B1" s="42" t="s">
         <v>1086</v>
       </c>
+      <c r="C1" s="42" t="s">
+        <v>1087</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>1088</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="B2" s="43" t="s">
         <v>1089</v>
       </c>
+      <c r="C2" s="43" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47"/>
+      <c r="A6" s="44"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21"/>
@@ -15120,185 +15118,185 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="48" width="28.66"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="1" style="45" width="28.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="49" t="s">
-        <v>1090</v>
-      </c>
-      <c r="B1" s="48" t="s">
+      <c r="A1" s="46" t="s">
         <v>1091</v>
       </c>
-      <c r="C1" s="48" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D1" s="48" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E1" s="48" t="s">
-        <v>1091</v>
+      <c r="B1" s="45" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="46" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B2" s="45" t="s">
         <v>1092</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>1094</v>
       </c>
-      <c r="E2" s="48" t="s">
-        <v>1091</v>
+      <c r="D2" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E2" s="45" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E3" s="48" t="s">
-        <v>1091</v>
+      <c r="A3" s="46" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="49" t="s">
-        <v>1096</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C4" s="48" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D4" s="48" t="s">
+      <c r="A4" s="46" t="s">
         <v>1097</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>1091</v>
+      <c r="B4" s="45" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="49" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C5" s="49" t="s">
+      <c r="A5" s="46" t="s">
         <v>1099</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="B5" s="45" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C5" s="46" t="s">
         <v>1100</v>
       </c>
-      <c r="E5" s="48" t="s">
-        <v>1091</v>
+      <c r="D5" s="45" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="49" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C6" s="49" t="s">
+      <c r="A6" s="46" t="s">
         <v>1102</v>
       </c>
-      <c r="D6" s="49" t="s">
+      <c r="B6" s="45" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C6" s="46" t="s">
         <v>1103</v>
       </c>
-      <c r="E6" s="48" t="s">
-        <v>1091</v>
+      <c r="D6" s="46" t="s">
+        <v>1104</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="49" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B7" s="49" t="s">
+      <c r="A7" s="46" t="s">
         <v>1105</v>
       </c>
-      <c r="C7" s="49" t="s">
+      <c r="B7" s="46" t="s">
         <v>1106</v>
       </c>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="46" t="s">
         <v>1107</v>
       </c>
-      <c r="E7" s="49" t="s">
+      <c r="D7" s="46" t="s">
         <v>1108</v>
       </c>
+      <c r="E7" s="46" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="49" t="s">
-        <v>1109</v>
-      </c>
-      <c r="B8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>1110</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D8" s="48" t="s">
-        <v>1110</v>
-      </c>
-      <c r="E8" s="49" t="s">
+      <c r="B8" s="45" t="s">
         <v>1111</v>
       </c>
+      <c r="C8" s="45" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E8" s="46" t="s">
+        <v>1112</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="49" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D9" s="48" t="s">
+      <c r="A9" s="46" t="s">
         <v>1113</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="B9" s="45" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D9" s="45" t="s">
         <v>1114</v>
       </c>
+      <c r="E9" s="45" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="49" t="s">
-        <v>1115</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C10" s="49" t="s">
+      <c r="A10" s="46" t="s">
         <v>1116</v>
       </c>
-      <c r="D10" s="48" t="s">
-        <v>1091</v>
-      </c>
-      <c r="E10" s="49" t="s">
+      <c r="B10" s="45" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C10" s="46" t="s">
         <v>1117</v>
       </c>
+      <c r="D10" s="45" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E10" s="46" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="48" t="s">
-        <v>1118</v>
-      </c>
-      <c r="E12" s="48" t="s">
+      <c r="D12" s="45" t="s">
         <v>1119</v>
+      </c>
+      <c r="E12" s="45" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
